--- a/Unity/Assets/Config/Excel/StoreSellConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StoreSellConfig.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD1157C-061C-4DC7-85FA-E1939EC22A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06346439-D858-4003-AFD6-7DF5EA348139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -2316,10 +2316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P220"/>
+  <dimension ref="A1:P196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B130" workbookViewId="0">
-      <selection activeCell="L151" sqref="L151"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2425,7 +2425,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="3">
-        <v>10010001</v>
+        <v>1030001</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -2455,7 +2455,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="3">
-        <v>10010011</v>
+        <v>1030011</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -2483,7 +2483,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>10000153</v>
+        <v>1510101</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -2509,7 +2509,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>10000154</v>
+        <v>1510103</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -2535,7 +2535,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>14020003</v>
+        <v>1510105</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -2561,7 +2561,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="3">
-        <v>14020010</v>
+        <v>1510101</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -2587,7 +2587,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>14030007</v>
+        <v>1510203</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -2613,7 +2613,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="3">
-        <v>14060003</v>
+        <v>1510205</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -2639,7 +2639,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="3">
-        <v>14050011</v>
+        <v>1510701</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -2665,7 +2665,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>14100202</v>
+        <v>1510801</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="16" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="3">
-        <v>10001209</v>
+        <v>10002101</v>
       </c>
       <c r="D16" s="3">
-        <v>10001210</v>
+        <v>10002102</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -2691,7 +2691,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="3">
-        <v>14100002</v>
+        <v>1030002</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -2699,16 +2699,16 @@
       <c r="I16" s="2">
         <v>1</v>
       </c>
-      <c r="J16" s="2">
-        <v>25000</v>
+      <c r="J16" s="19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="3">
-        <v>10001210</v>
+        <v>10002102</v>
       </c>
       <c r="D17" s="3">
-        <v>10001211</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -2717,7 +2717,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>14100006</v>
+        <v>1030012</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -2725,16 +2725,16 @@
       <c r="I17" s="2">
         <v>1</v>
       </c>
-      <c r="J17" s="2">
-        <v>25000</v>
+      <c r="J17" s="19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="3">
-        <v>10001211</v>
+        <v>10002201</v>
       </c>
       <c r="D18" s="3">
-        <v>10001212</v>
+        <v>10002202</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -2743,7 +2743,7 @@
         <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>14100102</v>
+        <v>1520101</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -2754,13 +2754,16 @@
       <c r="J18" s="2">
         <v>25000</v>
       </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="3">
-        <v>10001212</v>
+        <v>10002202</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>10002203</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -2769,7 +2772,7 @@
         <v>100</v>
       </c>
       <c r="G19" s="3">
-        <v>14100106</v>
+        <v>1520103</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -2783,10 +2786,10 @@
     </row>
     <row r="20" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="3">
-        <v>10002101</v>
+        <v>10002203</v>
       </c>
       <c r="D20" s="3">
-        <v>10002102</v>
+        <v>10002204</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -2795,7 +2798,7 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>10010002</v>
+        <v>1520105</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -2803,16 +2806,16 @@
       <c r="I20" s="2">
         <v>1</v>
       </c>
-      <c r="J20" s="19" t="s">
-        <v>17</v>
+      <c r="J20" s="2">
+        <v>25000</v>
       </c>
     </row>
     <row r="21" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="3">
-        <v>10002102</v>
+        <v>10002204</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>10002205</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -2821,7 +2824,7 @@
         <v>100</v>
       </c>
       <c r="G21" s="3">
-        <v>10010012</v>
+        <v>1520201</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -2829,16 +2832,16 @@
       <c r="I21" s="2">
         <v>1</v>
       </c>
-      <c r="J21" s="19" t="s">
-        <v>18</v>
+      <c r="J21" s="2">
+        <v>25000</v>
       </c>
     </row>
     <row r="22" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="3">
-        <v>10002201</v>
+        <v>10002205</v>
       </c>
       <c r="D22" s="3">
-        <v>10002202</v>
+        <v>10002206</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -2847,7 +2850,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>15201001</v>
+        <v>1520203</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -2858,16 +2861,13 @@
       <c r="J22" s="2">
         <v>25000</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="23" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="3">
-        <v>10002202</v>
+        <v>10002206</v>
       </c>
       <c r="D23" s="3">
-        <v>10002203</v>
+        <v>10002207</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -2876,7 +2876,7 @@
         <v>100</v>
       </c>
       <c r="G23" s="3">
-        <v>15201003</v>
+        <v>1520205</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="24" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="3">
-        <v>10002203</v>
+        <v>10002207</v>
       </c>
       <c r="D24" s="3">
-        <v>10002204</v>
+        <v>10002208</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -2902,7 +2902,7 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>15201005</v>
+        <v>1520701</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -2916,10 +2916,10 @@
     </row>
     <row r="25" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="3">
-        <v>10002204</v>
+        <v>10002208</v>
       </c>
       <c r="D25" s="3">
-        <v>10002205</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -2928,7 +2928,7 @@
         <v>100</v>
       </c>
       <c r="G25" s="3">
-        <v>15202001</v>
+        <v>1520801</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -2942,10 +2942,10 @@
     </row>
     <row r="26" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="3">
-        <v>10002205</v>
+        <v>10003101</v>
       </c>
       <c r="D26" s="3">
-        <v>10002206</v>
+        <v>10003102</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -2954,7 +2954,7 @@
         <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>15202003</v>
+        <v>1030003</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -2962,16 +2962,19 @@
       <c r="I26" s="2">
         <v>1</v>
       </c>
-      <c r="J26" s="2">
-        <v>25000</v>
+      <c r="J26" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="3">
-        <v>10002206</v>
+        <v>10003102</v>
       </c>
       <c r="D27" s="3">
-        <v>10002207</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -2980,7 +2983,7 @@
         <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>15202005</v>
+        <v>1030013</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -2988,16 +2991,16 @@
       <c r="I27" s="2">
         <v>1</v>
       </c>
-      <c r="J27" s="2">
-        <v>25000</v>
+      <c r="J27" s="19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="3">
-        <v>10002207</v>
+        <v>10003201</v>
       </c>
       <c r="D28" s="3">
-        <v>10002208</v>
+        <v>10003202</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -3006,7 +3009,7 @@
         <v>100</v>
       </c>
       <c r="G28" s="3">
-        <v>15207001</v>
+        <v>1530101</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -3015,15 +3018,15 @@
         <v>1</v>
       </c>
       <c r="J28" s="2">
-        <v>25000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="29" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="3">
-        <v>10002208</v>
+        <v>10003202</v>
       </c>
       <c r="D29" s="3">
-        <v>10002209</v>
+        <v>10003203</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -3032,7 +3035,7 @@
         <v>100</v>
       </c>
       <c r="G29" s="3">
-        <v>15208001</v>
+        <v>1530103</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -3041,15 +3044,15 @@
         <v>1</v>
       </c>
       <c r="J29" s="2">
-        <v>25000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="30" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="3">
-        <v>10002209</v>
+        <v>10003203</v>
       </c>
       <c r="D30" s="3">
-        <v>10002210</v>
+        <v>10003204</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -3058,7 +3061,7 @@
         <v>100</v>
       </c>
       <c r="G30" s="3">
-        <v>15210201</v>
+        <v>1530105</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -3067,15 +3070,15 @@
         <v>1</v>
       </c>
       <c r="J30" s="2">
-        <v>60000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="31" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="3">
-        <v>10002210</v>
+        <v>10003204</v>
       </c>
       <c r="D31" s="3">
-        <v>10002211</v>
+        <v>10003205</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -3084,7 +3087,7 @@
         <v>100</v>
       </c>
       <c r="G31" s="3">
-        <v>15210001</v>
+        <v>1530201</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
@@ -3093,15 +3096,15 @@
         <v>1</v>
       </c>
       <c r="J31" s="2">
-        <v>60000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="32" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="3">
-        <v>10002211</v>
+        <v>10003205</v>
       </c>
       <c r="D32" s="3">
-        <v>10002212</v>
+        <v>10003206</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -3110,7 +3113,7 @@
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>15210003</v>
+        <v>1530203</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -3119,15 +3122,15 @@
         <v>1</v>
       </c>
       <c r="J32" s="2">
-        <v>60000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="33" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="3">
-        <v>10002212</v>
+        <v>10003206</v>
       </c>
       <c r="D33" s="3">
-        <v>10002213</v>
+        <v>10003207</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -3136,7 +3139,7 @@
         <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>15210101</v>
+        <v>1530205</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -3145,15 +3148,15 @@
         <v>1</v>
       </c>
       <c r="J33" s="2">
-        <v>60000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="34" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="3">
-        <v>10002213</v>
+        <v>10003207</v>
       </c>
       <c r="D34" s="3">
-        <v>0</v>
+        <v>10003208</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -3162,7 +3165,7 @@
         <v>100</v>
       </c>
       <c r="G34" s="3">
-        <v>15210103</v>
+        <v>1530701</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -3171,15 +3174,15 @@
         <v>1</v>
       </c>
       <c r="J34" s="2">
-        <v>60000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="35" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="3">
-        <v>10003101</v>
+        <v>10003208</v>
       </c>
       <c r="D35" s="3">
-        <v>10003102</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -3188,7 +3191,7 @@
         <v>100</v>
       </c>
       <c r="G35" s="3">
-        <v>10010003</v>
+        <v>1530801</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
@@ -3196,19 +3199,16 @@
       <c r="I35" s="2">
         <v>1</v>
       </c>
-      <c r="J35" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>20</v>
+      <c r="J35" s="2">
+        <v>35000</v>
       </c>
     </row>
     <row r="36" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="3">
-        <v>10003102</v>
+        <v>10004101</v>
       </c>
       <c r="D36" s="3">
-        <v>0</v>
+        <v>10004102</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -3217,7 +3217,7 @@
         <v>100</v>
       </c>
       <c r="G36" s="3">
-        <v>10010013</v>
+        <v>1030004</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -3226,15 +3226,18 @@
         <v>1</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="3">
-        <v>10003201</v>
+        <v>10004102</v>
       </c>
       <c r="D37" s="3">
-        <v>10003202</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
@@ -3243,7 +3246,7 @@
         <v>100</v>
       </c>
       <c r="G37" s="3">
-        <v>15301001</v>
+        <v>1030014</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
@@ -3251,16 +3254,16 @@
       <c r="I37" s="2">
         <v>1</v>
       </c>
-      <c r="J37" s="2">
-        <v>35000</v>
+      <c r="J37" s="19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="3">
-        <v>10003202</v>
+        <v>10004201</v>
       </c>
       <c r="D38" s="3">
-        <v>10003203</v>
+        <v>10004202</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
@@ -3269,7 +3272,7 @@
         <v>100</v>
       </c>
       <c r="G38" s="3">
-        <v>15301003</v>
+        <v>1540101</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
@@ -3278,15 +3281,15 @@
         <v>1</v>
       </c>
       <c r="J38" s="2">
-        <v>35000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="39" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="3">
-        <v>10003203</v>
+        <v>10004202</v>
       </c>
       <c r="D39" s="3">
-        <v>10003204</v>
+        <v>10004203</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
@@ -3295,7 +3298,7 @@
         <v>100</v>
       </c>
       <c r="G39" s="3">
-        <v>15301005</v>
+        <v>1540103</v>
       </c>
       <c r="H39" s="3">
         <v>1</v>
@@ -3304,15 +3307,15 @@
         <v>1</v>
       </c>
       <c r="J39" s="2">
-        <v>35000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="40" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="3">
-        <v>10003204</v>
+        <v>10004203</v>
       </c>
       <c r="D40" s="3">
-        <v>10003205</v>
+        <v>10004204</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
@@ -3321,7 +3324,7 @@
         <v>100</v>
       </c>
       <c r="G40" s="3">
-        <v>15302001</v>
+        <v>1540105</v>
       </c>
       <c r="H40" s="3">
         <v>1</v>
@@ -3330,15 +3333,15 @@
         <v>1</v>
       </c>
       <c r="J40" s="2">
-        <v>35000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="41" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="3">
-        <v>10003205</v>
+        <v>10004204</v>
       </c>
       <c r="D41" s="3">
-        <v>10003206</v>
+        <v>10004205</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
@@ -3347,7 +3350,7 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>15302003</v>
+        <v>1540201</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
@@ -3356,15 +3359,15 @@
         <v>1</v>
       </c>
       <c r="J41" s="2">
-        <v>35000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="42" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="3">
-        <v>10003206</v>
+        <v>10004205</v>
       </c>
       <c r="D42" s="3">
-        <v>10003207</v>
+        <v>10004206</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
@@ -3373,7 +3376,7 @@
         <v>100</v>
       </c>
       <c r="G42" s="3">
-        <v>15302005</v>
+        <v>1540203</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
@@ -3382,15 +3385,15 @@
         <v>1</v>
       </c>
       <c r="J42" s="2">
-        <v>35000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="43" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="3">
-        <v>10003207</v>
+        <v>10004206</v>
       </c>
       <c r="D43" s="3">
-        <v>10003208</v>
+        <v>10004207</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
@@ -3399,7 +3402,7 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>15307001</v>
+        <v>1540205</v>
       </c>
       <c r="H43" s="3">
         <v>1</v>
@@ -3408,15 +3411,15 @@
         <v>1</v>
       </c>
       <c r="J43" s="2">
-        <v>35000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="44" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="3">
-        <v>10003208</v>
+        <v>10004207</v>
       </c>
       <c r="D44" s="3">
-        <v>10003209</v>
+        <v>10004208</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
@@ -3425,7 +3428,7 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>15308001</v>
+        <v>1540701</v>
       </c>
       <c r="H44" s="3">
         <v>1</v>
@@ -3434,15 +3437,15 @@
         <v>1</v>
       </c>
       <c r="J44" s="2">
-        <v>35000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="45" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="3">
-        <v>10003209</v>
+        <v>10004208</v>
       </c>
       <c r="D45" s="3">
-        <v>10003210</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
@@ -3451,7 +3454,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>15310201</v>
+        <v>1540801</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
@@ -3460,15 +3463,15 @@
         <v>1</v>
       </c>
       <c r="J45" s="2">
-        <v>80000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="46" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="3">
-        <v>10003210</v>
+        <v>10005101</v>
       </c>
       <c r="D46" s="3">
-        <v>10003211</v>
+        <v>10005102</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
@@ -3477,7 +3480,7 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>15310001</v>
+        <v>1030005</v>
       </c>
       <c r="H46" s="3">
         <v>1</v>
@@ -3485,16 +3488,19 @@
       <c r="I46" s="2">
         <v>1</v>
       </c>
-      <c r="J46" s="2">
-        <v>80000</v>
+      <c r="J46" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="3">
-        <v>10003211</v>
+        <v>10005102</v>
       </c>
       <c r="D47" s="3">
-        <v>10003212</v>
+        <v>0</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
@@ -3503,7 +3509,7 @@
         <v>100</v>
       </c>
       <c r="G47" s="3">
-        <v>15310003</v>
+        <v>1030015</v>
       </c>
       <c r="H47" s="3">
         <v>1</v>
@@ -3511,16 +3517,16 @@
       <c r="I47" s="2">
         <v>1</v>
       </c>
-      <c r="J47" s="2">
-        <v>80000</v>
+      <c r="J47" s="19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="3">
-        <v>10003212</v>
+        <v>10005201</v>
       </c>
       <c r="D48" s="3">
-        <v>10003213</v>
+        <v>10005202</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
@@ -3529,7 +3535,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>15310101</v>
+        <v>1550101</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -3538,15 +3544,15 @@
         <v>1</v>
       </c>
       <c r="J48" s="2">
-        <v>80000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="49" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="3">
-        <v>10003213</v>
+        <v>10005202</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>10005203</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -3555,7 +3561,7 @@
         <v>100</v>
       </c>
       <c r="G49" s="3">
-        <v>15310103</v>
+        <v>1550103</v>
       </c>
       <c r="H49" s="3">
         <v>1</v>
@@ -3564,15 +3570,15 @@
         <v>1</v>
       </c>
       <c r="J49" s="2">
-        <v>80000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="50" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="3">
-        <v>10004101</v>
+        <v>10005203</v>
       </c>
       <c r="D50" s="3">
-        <v>10004102</v>
+        <v>10005204</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
@@ -3581,7 +3587,7 @@
         <v>100</v>
       </c>
       <c r="G50" s="3">
-        <v>10010004</v>
+        <v>1550105</v>
       </c>
       <c r="H50" s="3">
         <v>1</v>
@@ -3589,19 +3595,16 @@
       <c r="I50" s="2">
         <v>1</v>
       </c>
-      <c r="J50" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>21</v>
+      <c r="J50" s="2">
+        <v>60000</v>
       </c>
     </row>
     <row r="51" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="3">
-        <v>10004102</v>
+        <v>10005204</v>
       </c>
       <c r="D51" s="3">
-        <v>0</v>
+        <v>10005205</v>
       </c>
       <c r="E51" s="2">
         <v>1</v>
@@ -3610,7 +3613,7 @@
         <v>100</v>
       </c>
       <c r="G51" s="3">
-        <v>10010014</v>
+        <v>1550201</v>
       </c>
       <c r="H51" s="3">
         <v>1</v>
@@ -3618,16 +3621,16 @@
       <c r="I51" s="2">
         <v>1</v>
       </c>
-      <c r="J51" s="19" t="s">
-        <v>18</v>
+      <c r="J51" s="2">
+        <v>60000</v>
       </c>
     </row>
     <row r="52" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="3">
-        <v>10004201</v>
+        <v>10005205</v>
       </c>
       <c r="D52" s="3">
-        <v>10004202</v>
+        <v>10005206</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
@@ -3636,7 +3639,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>15401001</v>
+        <v>1550203</v>
       </c>
       <c r="H52" s="3">
         <v>1</v>
@@ -3645,15 +3648,15 @@
         <v>1</v>
       </c>
       <c r="J52" s="2">
-        <v>45000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="53" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="3">
-        <v>10004202</v>
+        <v>10005206</v>
       </c>
       <c r="D53" s="3">
-        <v>10004203</v>
+        <v>10005207</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
@@ -3662,7 +3665,7 @@
         <v>100</v>
       </c>
       <c r="G53" s="3">
-        <v>15401003</v>
+        <v>1550205</v>
       </c>
       <c r="H53" s="3">
         <v>1</v>
@@ -3671,15 +3674,15 @@
         <v>1</v>
       </c>
       <c r="J53" s="2">
-        <v>45000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="54" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="3">
-        <v>10004203</v>
+        <v>10005207</v>
       </c>
       <c r="D54" s="3">
-        <v>10004204</v>
+        <v>10005208</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
@@ -3688,7 +3691,7 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>15401005</v>
+        <v>1550701</v>
       </c>
       <c r="H54" s="3">
         <v>1</v>
@@ -3697,15 +3700,15 @@
         <v>1</v>
       </c>
       <c r="J54" s="2">
-        <v>45000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="55" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="3">
-        <v>10004204</v>
+        <v>10005208</v>
       </c>
       <c r="D55" s="3">
-        <v>10004205</v>
+        <v>0</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
@@ -3714,7 +3717,7 @@
         <v>100</v>
       </c>
       <c r="G55" s="3">
-        <v>15402001</v>
+        <v>1550801</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -3723,15 +3726,15 @@
         <v>1</v>
       </c>
       <c r="J55" s="2">
-        <v>45000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="56" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="3">
-        <v>10004205</v>
+        <v>20000001</v>
       </c>
       <c r="D56" s="3">
-        <v>10004206</v>
+        <v>20000002</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
@@ -3740,24 +3743,27 @@
         <v>100</v>
       </c>
       <c r="G56" s="3">
-        <v>15402003</v>
+        <v>1030083</v>
       </c>
       <c r="H56" s="3">
         <v>1</v>
       </c>
-      <c r="I56" s="2">
-        <v>1</v>
-      </c>
-      <c r="J56" s="2">
-        <v>45000</v>
+      <c r="I56" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J56" s="8">
+        <v>5</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="3">
-        <v>10004206</v>
+        <v>20000002</v>
       </c>
       <c r="D57" s="3">
-        <v>10004207</v>
+        <v>20000003</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
@@ -3766,24 +3772,24 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>15402005</v>
+        <v>1030045</v>
       </c>
       <c r="H57" s="3">
         <v>1</v>
       </c>
-      <c r="I57" s="2">
-        <v>1</v>
-      </c>
-      <c r="J57" s="2">
-        <v>45000</v>
+      <c r="I57" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J57" s="8">
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="3">
-        <v>10004207</v>
+        <v>20000003</v>
       </c>
       <c r="D58" s="3">
-        <v>10004208</v>
+        <v>20000004</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
@@ -3792,24 +3798,24 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>15407001</v>
+        <v>10000131</v>
       </c>
       <c r="H58" s="3">
         <v>1</v>
       </c>
-      <c r="I58" s="2">
-        <v>1</v>
-      </c>
-      <c r="J58" s="2">
-        <v>45000</v>
+      <c r="I58" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J58" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="3">
-        <v>10004208</v>
+        <v>20000004</v>
       </c>
       <c r="D59" s="3">
-        <v>10004209</v>
+        <v>20000005</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
@@ -3818,24 +3824,24 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>15408001</v>
+        <v>1030098</v>
       </c>
       <c r="H59" s="3">
         <v>1</v>
       </c>
-      <c r="I59" s="2">
-        <v>1</v>
-      </c>
-      <c r="J59" s="2">
-        <v>45000</v>
+      <c r="I59" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J59" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="3">
-        <v>10004209</v>
+        <v>20000005</v>
       </c>
       <c r="D60" s="3">
-        <v>10004210</v>
+        <v>20000006</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
@@ -3844,24 +3850,24 @@
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>15410201</v>
+        <v>10000132</v>
       </c>
       <c r="H60" s="3">
         <v>1</v>
       </c>
-      <c r="I60" s="2">
-        <v>1</v>
-      </c>
-      <c r="J60" s="2">
-        <v>100000</v>
+      <c r="I60" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J60" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="3">
-        <v>10004210</v>
+        <v>20000006</v>
       </c>
       <c r="D61" s="3">
-        <v>10004211</v>
+        <v>20000007</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
@@ -3870,24 +3876,24 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>15410001</v>
+        <v>10000144</v>
       </c>
       <c r="H61" s="3">
         <v>1</v>
       </c>
-      <c r="I61" s="2">
-        <v>1</v>
-      </c>
-      <c r="J61" s="2">
-        <v>100000</v>
+      <c r="I61" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J61" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="3">
-        <v>10004211</v>
+        <v>20000007</v>
       </c>
       <c r="D62" s="3">
-        <v>10004212</v>
+        <v>20000008</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
@@ -3896,24 +3902,24 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>15410003</v>
+        <v>10000145</v>
       </c>
       <c r="H62" s="3">
         <v>1</v>
       </c>
-      <c r="I62" s="2">
-        <v>1</v>
-      </c>
-      <c r="J62" s="2">
-        <v>100000</v>
+      <c r="I62" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J62" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="3">
-        <v>10004212</v>
+        <v>20000008</v>
       </c>
       <c r="D63" s="3">
-        <v>10004213</v>
+        <v>20000009</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
@@ -3922,24 +3928,24 @@
         <v>100</v>
       </c>
       <c r="G63" s="3">
-        <v>15410101</v>
+        <v>10000146</v>
       </c>
       <c r="H63" s="3">
         <v>1</v>
       </c>
-      <c r="I63" s="2">
-        <v>1</v>
-      </c>
-      <c r="J63" s="2">
-        <v>100000</v>
+      <c r="I63" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J63" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="3">
-        <v>10004213</v>
+        <v>20000009</v>
       </c>
       <c r="D64" s="3">
-        <v>0</v>
+        <v>20000010</v>
       </c>
       <c r="E64" s="2">
         <v>1</v>
@@ -3948,24 +3954,24 @@
         <v>100</v>
       </c>
       <c r="G64" s="3">
-        <v>15410103</v>
+        <v>10000147</v>
       </c>
       <c r="H64" s="3">
         <v>1</v>
       </c>
-      <c r="I64" s="2">
-        <v>1</v>
-      </c>
-      <c r="J64" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="65" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I64" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J64" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="3">
-        <v>10005101</v>
+        <v>20000010</v>
       </c>
       <c r="D65" s="3">
-        <v>10005102</v>
+        <v>20000011</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
@@ -3974,27 +3980,24 @@
         <v>100</v>
       </c>
       <c r="G65" s="3">
-        <v>10010005</v>
+        <v>10000121</v>
       </c>
       <c r="H65" s="3">
         <v>1</v>
       </c>
-      <c r="I65" s="2">
-        <v>1</v>
-      </c>
-      <c r="J65" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I65" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J65" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="3">
-        <v>10005102</v>
+        <v>20000011</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>20000012</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
@@ -4003,24 +4006,24 @@
         <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>10010015</v>
+        <v>10000122</v>
       </c>
       <c r="H66" s="3">
         <v>1</v>
       </c>
-      <c r="I66" s="2">
-        <v>1</v>
-      </c>
-      <c r="J66" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I66" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J66" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="3">
-        <v>10005201</v>
+        <v>20000012</v>
       </c>
       <c r="D67" s="3">
-        <v>10005202</v>
+        <v>20000013</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
@@ -4029,24 +4032,24 @@
         <v>100</v>
       </c>
       <c r="G67" s="3">
-        <v>15501001</v>
+        <v>10000123</v>
       </c>
       <c r="H67" s="3">
         <v>1</v>
       </c>
-      <c r="I67" s="2">
-        <v>1</v>
-      </c>
-      <c r="J67" s="2">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="68" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I67" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J67" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="3">
-        <v>10005202</v>
+        <v>20000013</v>
       </c>
       <c r="D68" s="3">
-        <v>10005203</v>
+        <v>20000014</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
@@ -4055,24 +4058,24 @@
         <v>100</v>
       </c>
       <c r="G68" s="3">
-        <v>15501003</v>
+        <v>10000124</v>
       </c>
       <c r="H68" s="3">
         <v>1</v>
       </c>
-      <c r="I68" s="2">
-        <v>1</v>
-      </c>
-      <c r="J68" s="2">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="69" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I68" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J68" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="3">
-        <v>10005203</v>
+        <v>20000014</v>
       </c>
       <c r="D69" s="3">
-        <v>10005204</v>
+        <v>20000015</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -4081,24 +4084,24 @@
         <v>100</v>
       </c>
       <c r="G69" s="3">
-        <v>15501005</v>
+        <v>10000125</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
       </c>
-      <c r="I69" s="2">
-        <v>1</v>
-      </c>
-      <c r="J69" s="2">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="70" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I69" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J69" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="3">
-        <v>10005204</v>
+        <v>20000015</v>
       </c>
       <c r="D70" s="3">
-        <v>10005205</v>
+        <v>20000016</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
@@ -4107,24 +4110,24 @@
         <v>100</v>
       </c>
       <c r="G70" s="3">
-        <v>15502001</v>
+        <v>1030046</v>
       </c>
       <c r="H70" s="3">
         <v>1</v>
       </c>
-      <c r="I70" s="2">
-        <v>1</v>
-      </c>
-      <c r="J70" s="2">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="71" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I70" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J70" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="3">
-        <v>10005205</v>
+        <v>20000016</v>
       </c>
       <c r="D71" s="3">
-        <v>10005206</v>
+        <v>20000017</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
@@ -4133,24 +4136,24 @@
         <v>100</v>
       </c>
       <c r="G71" s="3">
-        <v>15502003</v>
+        <v>1030085</v>
       </c>
       <c r="H71" s="3">
         <v>1</v>
       </c>
-      <c r="I71" s="2">
-        <v>1</v>
-      </c>
-      <c r="J71" s="2">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="72" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I71" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J71" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="3">
-        <v>10005206</v>
+        <v>20000017</v>
       </c>
       <c r="D72" s="3">
-        <v>10005207</v>
+        <v>20000018</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
@@ -4159,24 +4162,24 @@
         <v>100</v>
       </c>
       <c r="G72" s="3">
-        <v>15502005</v>
+        <v>10021008</v>
       </c>
       <c r="H72" s="3">
         <v>1</v>
       </c>
-      <c r="I72" s="2">
-        <v>1</v>
-      </c>
-      <c r="J72" s="2">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="73" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I72" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J72" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="3">
-        <v>10005207</v>
+        <v>20000018</v>
       </c>
       <c r="D73" s="3">
-        <v>10005208</v>
+        <v>20000019</v>
       </c>
       <c r="E73" s="2">
         <v>1</v>
@@ -4185,24 +4188,24 @@
         <v>100</v>
       </c>
       <c r="G73" s="3">
-        <v>15507001</v>
+        <v>10021009</v>
       </c>
       <c r="H73" s="3">
         <v>1</v>
       </c>
-      <c r="I73" s="2">
-        <v>1</v>
-      </c>
-      <c r="J73" s="2">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="74" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I73" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J73" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="3">
-        <v>10005208</v>
+        <v>20000019</v>
       </c>
       <c r="D74" s="3">
-        <v>10005209</v>
+        <v>20000020</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
@@ -4211,24 +4214,24 @@
         <v>100</v>
       </c>
       <c r="G74" s="3">
-        <v>15508001</v>
+        <v>10022008</v>
       </c>
       <c r="H74" s="3">
         <v>1</v>
       </c>
-      <c r="I74" s="2">
-        <v>1</v>
-      </c>
-      <c r="J74" s="2">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="75" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I74" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J74" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="3">
-        <v>10005209</v>
+        <v>20000020</v>
       </c>
       <c r="D75" s="3">
-        <v>10005210</v>
+        <v>20000021</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
@@ -4237,24 +4240,24 @@
         <v>100</v>
       </c>
       <c r="G75" s="3">
-        <v>15510201</v>
+        <v>10022009</v>
       </c>
       <c r="H75" s="3">
         <v>1</v>
       </c>
-      <c r="I75" s="2">
-        <v>1</v>
-      </c>
-      <c r="J75" s="2">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="76" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I75" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J75" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="3">
-        <v>10005210</v>
+        <v>20000021</v>
       </c>
       <c r="D76" s="3">
-        <v>10005211</v>
+        <v>20000022</v>
       </c>
       <c r="E76" s="2">
         <v>1</v>
@@ -4263,24 +4266,24 @@
         <v>100</v>
       </c>
       <c r="G76" s="3">
-        <v>15510001</v>
+        <v>10023008</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
       </c>
-      <c r="I76" s="2">
-        <v>1</v>
-      </c>
-      <c r="J76" s="2">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="77" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I76" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J76" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="3">
-        <v>10005211</v>
+        <v>20000022</v>
       </c>
       <c r="D77" s="3">
-        <v>10005212</v>
+        <v>20000023</v>
       </c>
       <c r="E77" s="2">
         <v>1</v>
@@ -4289,24 +4292,24 @@
         <v>100</v>
       </c>
       <c r="G77" s="3">
-        <v>15510003</v>
+        <v>10023009</v>
       </c>
       <c r="H77" s="3">
         <v>1</v>
       </c>
-      <c r="I77" s="2">
-        <v>1</v>
-      </c>
-      <c r="J77" s="2">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="78" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I77" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J77" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="3">
-        <v>10005212</v>
+        <v>20000023</v>
       </c>
       <c r="D78" s="3">
-        <v>10005213</v>
+        <v>20000024</v>
       </c>
       <c r="E78" s="2">
         <v>1</v>
@@ -4315,24 +4318,24 @@
         <v>100</v>
       </c>
       <c r="G78" s="3">
-        <v>15510101</v>
+        <v>10024008</v>
       </c>
       <c r="H78" s="3">
         <v>1</v>
       </c>
-      <c r="I78" s="2">
-        <v>1</v>
-      </c>
-      <c r="J78" s="2">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="79" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I78" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J78" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="3">
-        <v>10005213</v>
+        <v>20000024</v>
       </c>
       <c r="D79" s="3">
-        <v>0</v>
+        <v>20000025</v>
       </c>
       <c r="E79" s="2">
         <v>1</v>
@@ -4341,24 +4344,24 @@
         <v>100</v>
       </c>
       <c r="G79" s="3">
-        <v>15510103</v>
+        <v>10024009</v>
       </c>
       <c r="H79" s="3">
         <v>1</v>
       </c>
-      <c r="I79" s="2">
-        <v>1</v>
-      </c>
-      <c r="J79" s="2">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="80" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I79" s="9">
+        <v>10010035</v>
+      </c>
+      <c r="J79" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="3">
-        <v>20000001</v>
+        <v>20000025</v>
       </c>
       <c r="D80" s="3">
-        <v>20000002</v>
+        <v>20000026</v>
       </c>
       <c r="E80" s="2">
         <v>1</v>
@@ -4367,7 +4370,7 @@
         <v>100</v>
       </c>
       <c r="G80" s="3">
-        <v>10010083</v>
+        <v>10025008</v>
       </c>
       <c r="H80" s="3">
         <v>1</v>
@@ -4376,18 +4379,15 @@
         <v>10010035</v>
       </c>
       <c r="J80" s="8">
-        <v>5</v>
-      </c>
-      <c r="L80" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="3">
-        <v>20000002</v>
+        <v>20000026</v>
       </c>
       <c r="D81" s="3">
-        <v>20000003</v>
+        <v>20000027</v>
       </c>
       <c r="E81" s="2">
         <v>1</v>
@@ -4396,7 +4396,7 @@
         <v>100</v>
       </c>
       <c r="G81" s="3">
-        <v>10010045</v>
+        <v>10025009</v>
       </c>
       <c r="H81" s="3">
         <v>1</v>
@@ -4405,15 +4405,15 @@
         <v>10010035</v>
       </c>
       <c r="J81" s="8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="82" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="3">
-        <v>20000003</v>
+        <v>20000027</v>
       </c>
       <c r="D82" s="3">
-        <v>20000004</v>
+        <v>20000028</v>
       </c>
       <c r="E82" s="2">
         <v>1</v>
@@ -4422,7 +4422,7 @@
         <v>100</v>
       </c>
       <c r="G82" s="3">
-        <v>10000131</v>
+        <v>10000105</v>
       </c>
       <c r="H82" s="3">
         <v>1</v>
@@ -4431,15 +4431,15 @@
         <v>10010035</v>
       </c>
       <c r="J82" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="3">
-        <v>20000004</v>
+        <v>20000028</v>
       </c>
       <c r="D83" s="3">
-        <v>20000005</v>
+        <v>20000029</v>
       </c>
       <c r="E83" s="2">
         <v>1</v>
@@ -4448,24 +4448,24 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>10010098</v>
-      </c>
-      <c r="H83" s="3">
+        <v>1030052</v>
+      </c>
+      <c r="H83" s="2">
         <v>1</v>
       </c>
       <c r="I83" s="9">
         <v>10010035</v>
       </c>
       <c r="J83" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="3">
-        <v>20000005</v>
+        <v>20000029</v>
       </c>
       <c r="D84" s="3">
-        <v>20000006</v>
+        <v>0</v>
       </c>
       <c r="E84" s="2">
         <v>1</v>
@@ -4474,24 +4474,24 @@
         <v>100</v>
       </c>
       <c r="G84" s="3">
-        <v>10000132</v>
-      </c>
-      <c r="H84" s="3">
+        <v>10000155</v>
+      </c>
+      <c r="H84" s="2">
         <v>1</v>
       </c>
       <c r="I84" s="9">
         <v>10010035</v>
       </c>
       <c r="J84" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="3">
-        <v>20000006</v>
+        <v>30000001</v>
       </c>
       <c r="D85" s="3">
-        <v>20000007</v>
+        <v>30000002</v>
       </c>
       <c r="E85" s="2">
         <v>1</v>
@@ -4506,18 +4506,21 @@
         <v>1</v>
       </c>
       <c r="I85" s="9">
-        <v>10010035</v>
+        <v>10000148</v>
       </c>
       <c r="J85" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L85" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="3">
-        <v>20000007</v>
+        <v>30000002</v>
       </c>
       <c r="D86" s="3">
-        <v>20000008</v>
+        <v>30000003</v>
       </c>
       <c r="E86" s="2">
         <v>1</v>
@@ -4532,18 +4535,18 @@
         <v>1</v>
       </c>
       <c r="I86" s="9">
-        <v>10010035</v>
+        <v>10000148</v>
       </c>
       <c r="J86" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="3">
-        <v>20000008</v>
+        <v>30000003</v>
       </c>
       <c r="D87" s="3">
-        <v>20000009</v>
+        <v>30000004</v>
       </c>
       <c r="E87" s="2">
         <v>1</v>
@@ -4558,18 +4561,18 @@
         <v>1</v>
       </c>
       <c r="I87" s="9">
-        <v>10010035</v>
+        <v>10000148</v>
       </c>
       <c r="J87" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="3">
-        <v>20000009</v>
+        <v>30000004</v>
       </c>
       <c r="D88" s="3">
-        <v>20000010</v>
+        <v>30000005</v>
       </c>
       <c r="E88" s="2">
         <v>1</v>
@@ -4584,18 +4587,18 @@
         <v>1</v>
       </c>
       <c r="I88" s="9">
-        <v>10010035</v>
+        <v>10000148</v>
       </c>
       <c r="J88" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="3">
-        <v>20000010</v>
+        <v>30000005</v>
       </c>
       <c r="D89" s="3">
-        <v>20000011</v>
+        <v>30000006</v>
       </c>
       <c r="E89" s="2">
         <v>1</v>
@@ -4604,1699 +4607,1782 @@
         <v>100</v>
       </c>
       <c r="G89" s="3">
+        <v>1030033</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1</v>
+      </c>
+      <c r="I89" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J89" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="3">
+        <v>30000006</v>
+      </c>
+      <c r="D90" s="3">
+        <v>30000007</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
+        <v>100</v>
+      </c>
+      <c r="G90" s="3">
+        <v>1030083</v>
+      </c>
+      <c r="H90" s="3">
+        <v>1</v>
+      </c>
+      <c r="I90" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J90" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="3">
+        <v>30000007</v>
+      </c>
+      <c r="D91" s="3">
+        <v>30000008</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+      <c r="F91" s="3">
+        <v>100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>1030098</v>
+      </c>
+      <c r="H91" s="3">
+        <v>1</v>
+      </c>
+      <c r="I91" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J91" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C92" s="3">
+        <v>30000008</v>
+      </c>
+      <c r="D92" s="3">
+        <v>30000009</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3">
+        <v>100</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1030085</v>
+      </c>
+      <c r="H92" s="3">
+        <v>1</v>
+      </c>
+      <c r="I92" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J92" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="3">
+        <v>30000009</v>
+      </c>
+      <c r="D93" s="3">
+        <v>30000010</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
+        <v>100</v>
+      </c>
+      <c r="G93" s="3">
+        <v>10000131</v>
+      </c>
+      <c r="H93" s="3">
+        <v>1</v>
+      </c>
+      <c r="I93" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J93" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C94" s="3">
+        <v>30000010</v>
+      </c>
+      <c r="D94" s="3">
+        <v>30000011</v>
+      </c>
+      <c r="E94" s="2">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3">
+        <v>100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>10000132</v>
+      </c>
+      <c r="H94" s="3">
+        <v>1</v>
+      </c>
+      <c r="I94" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J94" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C95" s="3">
+        <v>30000011</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3">
+        <v>100</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1030086</v>
+      </c>
+      <c r="H95" s="3">
+        <v>1</v>
+      </c>
+      <c r="I95" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J95" s="10">
+        <v>80</v>
+      </c>
+      <c r="L95" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C96" s="3">
+        <v>40000001</v>
+      </c>
+      <c r="D96" s="3">
+        <v>40000002</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+      <c r="F96" s="3">
+        <v>100</v>
+      </c>
+      <c r="G96" s="3">
+        <v>10000143</v>
+      </c>
+      <c r="H96" s="8">
+        <v>1</v>
+      </c>
+      <c r="I96" s="9">
+        <v>10000149</v>
+      </c>
+      <c r="J96" s="8">
+        <v>35</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C97" s="3">
+        <v>40000002</v>
+      </c>
+      <c r="D97" s="3">
+        <v>40000003</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1</v>
+      </c>
+      <c r="F97" s="3">
+        <v>100</v>
+      </c>
+      <c r="G97" s="3">
+        <v>1030046</v>
+      </c>
+      <c r="H97" s="8">
+        <v>1</v>
+      </c>
+      <c r="I97" s="9">
+        <v>10000149</v>
+      </c>
+      <c r="J97" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C98" s="3">
+        <v>40000003</v>
+      </c>
+      <c r="D98" s="3">
+        <v>40000004</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
+      <c r="F98" s="3">
+        <v>100</v>
+      </c>
+      <c r="G98" s="3">
+        <v>10000150</v>
+      </c>
+      <c r="H98" s="8">
+        <v>1</v>
+      </c>
+      <c r="I98" s="9">
+        <v>10000149</v>
+      </c>
+      <c r="J98" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C99" s="3">
+        <v>40000004</v>
+      </c>
+      <c r="D99" s="3">
+        <v>40000005</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1</v>
+      </c>
+      <c r="F99" s="3">
+        <v>100</v>
+      </c>
+      <c r="G99" s="3">
+        <v>1030045</v>
+      </c>
+      <c r="H99" s="8">
+        <v>1</v>
+      </c>
+      <c r="I99" s="9">
+        <v>10000149</v>
+      </c>
+      <c r="J99" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C100" s="3">
+        <v>40000005</v>
+      </c>
+      <c r="D100" s="3">
+        <v>40000006</v>
+      </c>
+      <c r="E100" s="2">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1030083</v>
+      </c>
+      <c r="H100" s="8">
+        <v>1</v>
+      </c>
+      <c r="I100" s="9">
+        <v>10000149</v>
+      </c>
+      <c r="J100" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C101" s="3">
+        <v>40000006</v>
+      </c>
+      <c r="D101" s="3">
+        <v>40000007</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
+      <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1030085</v>
+      </c>
+      <c r="H101" s="8">
+        <v>5</v>
+      </c>
+      <c r="I101" s="9">
+        <v>10000149</v>
+      </c>
+      <c r="J101" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="3">
+        <v>40000007</v>
+      </c>
+      <c r="D102" s="3">
+        <v>40000008</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>10000121</v>
       </c>
-      <c r="H89" s="3">
-        <v>1</v>
-      </c>
-      <c r="I89" s="9">
-        <v>10010035</v>
-      </c>
-      <c r="J89" s="8">
+      <c r="H102" s="8">
+        <v>1</v>
+      </c>
+      <c r="I102" s="9">
+        <v>10000149</v>
+      </c>
+      <c r="J102" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="3">
+        <v>40000008</v>
+      </c>
+      <c r="D103" s="3">
+        <v>40000009</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1</v>
+      </c>
+      <c r="F103" s="3">
+        <v>100</v>
+      </c>
+      <c r="G103" s="3">
+        <v>10000122</v>
+      </c>
+      <c r="H103" s="8">
+        <v>1</v>
+      </c>
+      <c r="I103" s="9">
+        <v>10000149</v>
+      </c>
+      <c r="J103" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="3">
+        <v>40000009</v>
+      </c>
+      <c r="D104" s="3">
+        <v>40000010</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1</v>
+      </c>
+      <c r="F104" s="3">
+        <v>100</v>
+      </c>
+      <c r="G104" s="3">
+        <v>10000123</v>
+      </c>
+      <c r="H104" s="8">
+        <v>1</v>
+      </c>
+      <c r="I104" s="9">
+        <v>10000149</v>
+      </c>
+      <c r="J104" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C105" s="3">
+        <v>40000010</v>
+      </c>
+      <c r="D105" s="3">
+        <v>40000011</v>
+      </c>
+      <c r="E105" s="2">
+        <v>1</v>
+      </c>
+      <c r="F105" s="3">
+        <v>100</v>
+      </c>
+      <c r="G105" s="3">
+        <v>10000124</v>
+      </c>
+      <c r="H105" s="8">
+        <v>1</v>
+      </c>
+      <c r="I105" s="9">
+        <v>10000149</v>
+      </c>
+      <c r="J105" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="3">
+        <v>40000011</v>
+      </c>
+      <c r="D106" s="3">
+        <v>40000012</v>
+      </c>
+      <c r="E106" s="2">
+        <v>1</v>
+      </c>
+      <c r="F106" s="3">
+        <v>100</v>
+      </c>
+      <c r="G106" s="3">
+        <v>10000125</v>
+      </c>
+      <c r="H106" s="8">
+        <v>1</v>
+      </c>
+      <c r="I106" s="9">
+        <v>10000149</v>
+      </c>
+      <c r="J106" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="3">
+        <v>40000012</v>
+      </c>
+      <c r="D107" s="3">
+        <v>40000013</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1</v>
+      </c>
+      <c r="F107" s="3">
+        <v>100</v>
+      </c>
+      <c r="G107" s="3">
+        <v>10000144</v>
+      </c>
+      <c r="H107" s="8">
+        <v>2</v>
+      </c>
+      <c r="I107" s="9">
+        <v>10000149</v>
+      </c>
+      <c r="J107" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="3">
+        <v>40000013</v>
+      </c>
+      <c r="D108" s="3">
+        <v>40000014</v>
+      </c>
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
+      <c r="F108" s="3">
+        <v>100</v>
+      </c>
+      <c r="G108" s="3">
+        <v>10000145</v>
+      </c>
+      <c r="H108" s="8">
+        <v>2</v>
+      </c>
+      <c r="I108" s="9">
+        <v>10000149</v>
+      </c>
+      <c r="J108" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="3">
+        <v>40000014</v>
+      </c>
+      <c r="D109" s="3">
+        <v>40000015</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1</v>
+      </c>
+      <c r="F109" s="3">
+        <v>100</v>
+      </c>
+      <c r="G109" s="3">
+        <v>10000146</v>
+      </c>
+      <c r="H109" s="8">
+        <v>2</v>
+      </c>
+      <c r="I109" s="9">
+        <v>10000149</v>
+      </c>
+      <c r="J109" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C110" s="3">
+        <v>40000015</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1</v>
+      </c>
+      <c r="F110" s="3">
+        <v>100</v>
+      </c>
+      <c r="G110" s="3">
+        <v>10000147</v>
+      </c>
+      <c r="H110" s="8">
+        <v>2</v>
+      </c>
+      <c r="I110" s="9">
+        <v>10000149</v>
+      </c>
+      <c r="J110" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C111" s="3">
+        <v>50000001</v>
+      </c>
+      <c r="D111" s="3">
+        <v>50000002</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3">
+        <v>100</v>
+      </c>
+      <c r="G111" s="3">
+        <v>10000206</v>
+      </c>
+      <c r="H111" s="3">
+        <v>1</v>
+      </c>
+      <c r="I111" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J111" s="3">
+        <v>50</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P111" s="7"/>
+    </row>
+    <row r="112" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C112" s="3">
+        <v>50000002</v>
+      </c>
+      <c r="D112" s="3">
+        <v>50000003</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
+      <c r="F112" s="3">
+        <v>100</v>
+      </c>
+      <c r="G112" s="3">
+        <v>1030094</v>
+      </c>
+      <c r="H112" s="3">
+        <v>1</v>
+      </c>
+      <c r="I112" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J112" s="3">
+        <v>20</v>
+      </c>
+      <c r="L112" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="3">
+        <v>50000003</v>
+      </c>
+      <c r="D113" s="3">
+        <v>50000004</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3">
+        <v>100</v>
+      </c>
+      <c r="G113" s="3">
+        <v>10011008</v>
+      </c>
+      <c r="H113" s="3">
+        <v>1</v>
+      </c>
+      <c r="I113" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J113" s="3">
+        <v>30</v>
+      </c>
+      <c r="L113" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C114" s="3">
+        <v>50000004</v>
+      </c>
+      <c r="D114" s="3">
+        <v>50000005</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" s="3">
+        <v>100</v>
+      </c>
+      <c r="G114" s="3">
+        <v>10011013</v>
+      </c>
+      <c r="H114" s="3">
+        <v>1</v>
+      </c>
+      <c r="I114" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J114" s="3">
+        <v>30</v>
+      </c>
+      <c r="L114" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C115" s="3">
+        <v>50000005</v>
+      </c>
+      <c r="D115" s="3">
+        <v>50000006</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3">
+        <v>100</v>
+      </c>
+      <c r="G115" s="3">
+        <v>10000105</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1</v>
+      </c>
+      <c r="I115" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J115" s="3">
+        <v>10</v>
+      </c>
+      <c r="L115" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C116" s="3">
+        <v>50000006</v>
+      </c>
+      <c r="D116" s="3">
+        <v>50000007</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="3">
+        <v>100</v>
+      </c>
+      <c r="G116" s="3">
+        <v>10032009</v>
+      </c>
+      <c r="H116" s="2">
+        <v>1</v>
+      </c>
+      <c r="I116" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J116" s="3">
+        <v>25</v>
+      </c>
+      <c r="L116" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C117" s="3">
+        <v>50000007</v>
+      </c>
+      <c r="D117" s="3">
+        <v>50000008</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117" s="3">
+        <v>100</v>
+      </c>
+      <c r="G117" s="3">
+        <v>10032014</v>
+      </c>
+      <c r="H117" s="2">
+        <v>1</v>
+      </c>
+      <c r="I117" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J117" s="3">
+        <v>25</v>
+      </c>
+      <c r="L117" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C118" s="3">
+        <v>50000008</v>
+      </c>
+      <c r="D118" s="3">
+        <v>50000009</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="3">
+        <v>100</v>
+      </c>
+      <c r="G118" s="3">
+        <v>10000156</v>
+      </c>
+      <c r="H118" s="2">
+        <v>1</v>
+      </c>
+      <c r="I118" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J118" s="3">
+        <v>10</v>
+      </c>
+      <c r="L118" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C119" s="3">
+        <v>50000009</v>
+      </c>
+      <c r="D119" s="3">
+        <v>50000010</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3">
+        <v>100</v>
+      </c>
+      <c r="G119" s="3">
+        <v>10049101</v>
+      </c>
+      <c r="H119" s="2">
+        <v>1</v>
+      </c>
+      <c r="I119" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J119" s="3">
+        <v>100</v>
+      </c>
+      <c r="L119" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C120" s="3">
+        <v>50000010</v>
+      </c>
+      <c r="D120" s="3">
+        <v>50000011</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3">
+        <v>100</v>
+      </c>
+      <c r="G120" s="3">
+        <v>1030026</v>
+      </c>
+      <c r="H120" s="2">
+        <v>1</v>
+      </c>
+      <c r="I120" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J120" s="3">
+        <v>10</v>
+      </c>
+      <c r="L120" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C90" s="3">
-        <v>20000011</v>
-      </c>
-      <c r="D90" s="3">
-        <v>20000012</v>
-      </c>
-      <c r="E90" s="2">
-        <v>1</v>
-      </c>
-      <c r="F90" s="3">
-        <v>100</v>
-      </c>
-      <c r="G90" s="3">
-        <v>10000122</v>
-      </c>
-      <c r="H90" s="3">
-        <v>1</v>
-      </c>
-      <c r="I90" s="9">
-        <v>10010035</v>
-      </c>
-      <c r="J90" s="8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="91" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C91" s="3">
-        <v>20000012</v>
-      </c>
-      <c r="D91" s="3">
-        <v>20000013</v>
-      </c>
-      <c r="E91" s="2">
-        <v>1</v>
-      </c>
-      <c r="F91" s="3">
-        <v>100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>10000123</v>
-      </c>
-      <c r="H91" s="3">
-        <v>1</v>
-      </c>
-      <c r="I91" s="9">
-        <v>10010035</v>
-      </c>
-      <c r="J91" s="8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="92" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C92" s="3">
-        <v>20000013</v>
-      </c>
-      <c r="D92" s="3">
-        <v>20000014</v>
-      </c>
-      <c r="E92" s="2">
-        <v>1</v>
-      </c>
-      <c r="F92" s="3">
-        <v>100</v>
-      </c>
-      <c r="G92" s="3">
-        <v>10000124</v>
-      </c>
-      <c r="H92" s="3">
-        <v>1</v>
-      </c>
-      <c r="I92" s="9">
-        <v>10010035</v>
-      </c>
-      <c r="J92" s="8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C93" s="3">
-        <v>20000014</v>
-      </c>
-      <c r="D93" s="3">
-        <v>20000015</v>
-      </c>
-      <c r="E93" s="2">
-        <v>1</v>
-      </c>
-      <c r="F93" s="3">
-        <v>100</v>
-      </c>
-      <c r="G93" s="3">
-        <v>10000125</v>
-      </c>
-      <c r="H93" s="3">
-        <v>1</v>
-      </c>
-      <c r="I93" s="9">
-        <v>10010035</v>
-      </c>
-      <c r="J93" s="8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="94" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C94" s="3">
-        <v>20000015</v>
-      </c>
-      <c r="D94" s="3">
-        <v>20000016</v>
-      </c>
-      <c r="E94" s="2">
-        <v>1</v>
-      </c>
-      <c r="F94" s="3">
-        <v>100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>10010046</v>
-      </c>
-      <c r="H94" s="3">
-        <v>1</v>
-      </c>
-      <c r="I94" s="9">
-        <v>10010035</v>
-      </c>
-      <c r="J94" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="95" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C95" s="3">
-        <v>20000016</v>
-      </c>
-      <c r="D95" s="3">
-        <v>20000017</v>
-      </c>
-      <c r="E95" s="2">
-        <v>1</v>
-      </c>
-      <c r="F95" s="3">
-        <v>100</v>
-      </c>
-      <c r="G95" s="3">
-        <v>10010085</v>
-      </c>
-      <c r="H95" s="3">
-        <v>1</v>
-      </c>
-      <c r="I95" s="9">
-        <v>10010035</v>
-      </c>
-      <c r="J95" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C96" s="3">
-        <v>20000017</v>
-      </c>
-      <c r="D96" s="3">
-        <v>20000018</v>
-      </c>
-      <c r="E96" s="2">
-        <v>1</v>
-      </c>
-      <c r="F96" s="3">
-        <v>100</v>
-      </c>
-      <c r="G96" s="3">
-        <v>10021008</v>
-      </c>
-      <c r="H96" s="3">
-        <v>1</v>
-      </c>
-      <c r="I96" s="9">
-        <v>10010035</v>
-      </c>
-      <c r="J96" s="8">
+    <row r="121" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C121" s="3">
+        <v>50000011</v>
+      </c>
+      <c r="D121" s="3">
+        <v>50000012</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+      <c r="F121" s="3">
+        <v>100</v>
+      </c>
+      <c r="G121" s="3">
+        <v>10000152</v>
+      </c>
+      <c r="H121" s="2">
+        <v>1</v>
+      </c>
+      <c r="I121" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J121" s="3">
+        <v>1</v>
+      </c>
+      <c r="L121" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C122" s="3">
+        <v>50000012</v>
+      </c>
+      <c r="D122" s="3">
+        <v>50000013</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1</v>
+      </c>
+      <c r="F122" s="3">
+        <v>100</v>
+      </c>
+      <c r="G122" s="3">
+        <v>10000157</v>
+      </c>
+      <c r="H122" s="2">
+        <v>1</v>
+      </c>
+      <c r="I122" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J122" s="3">
+        <v>1</v>
+      </c>
+      <c r="L122" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C123" s="3">
+        <v>50000013</v>
+      </c>
+      <c r="D123" s="3">
+        <v>50000014</v>
+      </c>
+      <c r="E123" s="2">
+        <v>1</v>
+      </c>
+      <c r="F123" s="3">
+        <v>100</v>
+      </c>
+      <c r="G123" s="3">
+        <v>10000150</v>
+      </c>
+      <c r="H123" s="2">
+        <v>1</v>
+      </c>
+      <c r="I123" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J123" s="3">
+        <v>3</v>
+      </c>
+      <c r="L123" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C124" s="3">
+        <v>50000014</v>
+      </c>
+      <c r="D124" s="3">
+        <v>50000015</v>
+      </c>
+      <c r="E124" s="2">
+        <v>1</v>
+      </c>
+      <c r="F124" s="3">
+        <v>100</v>
+      </c>
+      <c r="G124" s="3">
+        <v>1030078</v>
+      </c>
+      <c r="H124" s="2">
+        <v>1</v>
+      </c>
+      <c r="I124" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J124" s="3">
+        <v>5</v>
+      </c>
+      <c r="L124" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C125" s="3">
+        <v>50000015</v>
+      </c>
+      <c r="D125" s="3">
+        <v>50000016</v>
+      </c>
+      <c r="E125" s="2">
+        <v>1</v>
+      </c>
+      <c r="F125" s="3">
+        <v>100</v>
+      </c>
+      <c r="G125" s="3">
+        <v>1030079</v>
+      </c>
+      <c r="H125" s="2">
+        <v>1</v>
+      </c>
+      <c r="I125" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J125" s="3">
+        <v>5</v>
+      </c>
+      <c r="L125" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C126" s="3">
+        <v>50000016</v>
+      </c>
+      <c r="D126" s="3">
+        <v>50000017</v>
+      </c>
+      <c r="E126" s="2">
+        <v>1</v>
+      </c>
+      <c r="F126" s="3">
+        <v>100</v>
+      </c>
+      <c r="G126" s="9">
+        <v>10000174</v>
+      </c>
+      <c r="H126" s="2">
+        <v>1</v>
+      </c>
+      <c r="I126" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J126" s="3">
+        <v>20</v>
+      </c>
+      <c r="L126" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C127" s="3">
+        <v>50000017</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0</v>
+      </c>
+      <c r="E127" s="2">
+        <v>1</v>
+      </c>
+      <c r="F127" s="3">
+        <v>100</v>
+      </c>
+      <c r="G127" s="9">
+        <v>10000175</v>
+      </c>
+      <c r="H127" s="2">
+        <v>1</v>
+      </c>
+      <c r="I127" s="9">
+        <v>10000151</v>
+      </c>
+      <c r="J127" s="3">
+        <v>30</v>
+      </c>
+      <c r="L127" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3">
+        <v>60000001</v>
+      </c>
+      <c r="D128" s="3">
+        <v>60000002</v>
+      </c>
+      <c r="E128" s="3">
+        <v>1</v>
+      </c>
+      <c r="F128" s="3">
+        <v>100</v>
+      </c>
+      <c r="G128" s="3">
+        <v>10000143</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I128" s="9">
+        <v>10000157</v>
+      </c>
+      <c r="J128" s="3">
+        <v>1</v>
+      </c>
+      <c r="K128" s="3"/>
+      <c r="L128" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M128" s="3"/>
+      <c r="N128" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O128" s="3"/>
+    </row>
+    <row r="129" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3">
+        <v>60000002</v>
+      </c>
+      <c r="D129" s="3">
+        <v>60000003</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1</v>
+      </c>
+      <c r="F129" s="3">
+        <v>100</v>
+      </c>
+      <c r="G129" s="3">
+        <v>1030093</v>
+      </c>
+      <c r="H129" s="13">
+        <v>1</v>
+      </c>
+      <c r="I129" s="9">
+        <v>10000143</v>
+      </c>
+      <c r="J129" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K129" s="3"/>
+      <c r="L129" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M129" s="3"/>
+      <c r="N129" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O129" s="3"/>
+    </row>
+    <row r="130" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C130" s="3">
+        <v>60000003</v>
+      </c>
+      <c r="D130" s="3">
+        <v>60000004</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1</v>
+      </c>
+      <c r="F130" s="3">
+        <v>100</v>
+      </c>
+      <c r="G130" s="14">
+        <v>10012001</v>
+      </c>
+      <c r="H130" s="3">
+        <v>1</v>
+      </c>
+      <c r="I130" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J130" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C97" s="3">
-        <v>20000018</v>
-      </c>
-      <c r="D97" s="3">
-        <v>20000019</v>
-      </c>
-      <c r="E97" s="2">
-        <v>1</v>
-      </c>
-      <c r="F97" s="3">
-        <v>100</v>
-      </c>
-      <c r="G97" s="3">
-        <v>10021009</v>
-      </c>
-      <c r="H97" s="3">
-        <v>1</v>
-      </c>
-      <c r="I97" s="9">
-        <v>10010035</v>
-      </c>
-      <c r="J97" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C98" s="3">
-        <v>20000019</v>
-      </c>
-      <c r="D98" s="3">
-        <v>20000020</v>
-      </c>
-      <c r="E98" s="2">
-        <v>1</v>
-      </c>
-      <c r="F98" s="3">
-        <v>100</v>
-      </c>
-      <c r="G98" s="3">
-        <v>10022008</v>
-      </c>
-      <c r="H98" s="3">
-        <v>1</v>
-      </c>
-      <c r="I98" s="9">
-        <v>10010035</v>
-      </c>
-      <c r="J98" s="8">
+      <c r="L130" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C131" s="3">
+        <v>60000004</v>
+      </c>
+      <c r="D131" s="3">
+        <v>60000005</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1</v>
+      </c>
+      <c r="F131" s="3">
+        <v>100</v>
+      </c>
+      <c r="G131" s="14">
+        <v>10012002</v>
+      </c>
+      <c r="H131" s="3">
+        <v>1</v>
+      </c>
+      <c r="I131" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J131" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C99" s="3">
-        <v>20000020</v>
-      </c>
-      <c r="D99" s="3">
-        <v>20000021</v>
-      </c>
-      <c r="E99" s="2">
-        <v>1</v>
-      </c>
-      <c r="F99" s="3">
-        <v>100</v>
-      </c>
-      <c r="G99" s="3">
-        <v>10022009</v>
-      </c>
-      <c r="H99" s="3">
-        <v>1</v>
-      </c>
-      <c r="I99" s="9">
-        <v>10010035</v>
-      </c>
-      <c r="J99" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C100" s="3">
-        <v>20000021</v>
-      </c>
-      <c r="D100" s="3">
-        <v>20000022</v>
-      </c>
-      <c r="E100" s="2">
-        <v>1</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>10023008</v>
-      </c>
-      <c r="H100" s="3">
-        <v>1</v>
-      </c>
-      <c r="I100" s="9">
-        <v>10010035</v>
-      </c>
-      <c r="J100" s="8">
+      <c r="L131" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C132" s="3">
+        <v>60000005</v>
+      </c>
+      <c r="D132" s="3">
+        <v>60000006</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1</v>
+      </c>
+      <c r="F132" s="3">
+        <v>100</v>
+      </c>
+      <c r="G132" s="14">
+        <v>10012003</v>
+      </c>
+      <c r="H132" s="3">
+        <v>1</v>
+      </c>
+      <c r="I132" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J132" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C101" s="3">
-        <v>20000022</v>
-      </c>
-      <c r="D101" s="3">
-        <v>20000023</v>
-      </c>
-      <c r="E101" s="2">
-        <v>1</v>
-      </c>
-      <c r="F101" s="3">
-        <v>100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>10023009</v>
-      </c>
-      <c r="H101" s="3">
-        <v>1</v>
-      </c>
-      <c r="I101" s="9">
-        <v>10010035</v>
-      </c>
-      <c r="J101" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C102" s="3">
-        <v>20000023</v>
-      </c>
-      <c r="D102" s="3">
-        <v>20000024</v>
-      </c>
-      <c r="E102" s="2">
-        <v>1</v>
-      </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>10024008</v>
-      </c>
-      <c r="H102" s="3">
-        <v>1</v>
-      </c>
-      <c r="I102" s="9">
-        <v>10010035</v>
-      </c>
-      <c r="J102" s="8">
+      <c r="L132" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C133" s="3">
+        <v>60000006</v>
+      </c>
+      <c r="D133" s="3">
+        <v>60000007</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1</v>
+      </c>
+      <c r="F133" s="3">
+        <v>100</v>
+      </c>
+      <c r="G133" s="14">
+        <v>10012004</v>
+      </c>
+      <c r="H133" s="3">
+        <v>1</v>
+      </c>
+      <c r="I133" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J133" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="103" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C103" s="3">
-        <v>20000024</v>
-      </c>
-      <c r="D103" s="3">
-        <v>20000025</v>
-      </c>
-      <c r="E103" s="2">
-        <v>1</v>
-      </c>
-      <c r="F103" s="3">
-        <v>100</v>
-      </c>
-      <c r="G103" s="3">
-        <v>10024009</v>
-      </c>
-      <c r="H103" s="3">
-        <v>1</v>
-      </c>
-      <c r="I103" s="9">
-        <v>10010035</v>
-      </c>
-      <c r="J103" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="104" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C104" s="3">
-        <v>20000025</v>
-      </c>
-      <c r="D104" s="3">
-        <v>20000026</v>
-      </c>
-      <c r="E104" s="2">
-        <v>1</v>
-      </c>
-      <c r="F104" s="3">
-        <v>100</v>
-      </c>
-      <c r="G104" s="3">
-        <v>10025008</v>
-      </c>
-      <c r="H104" s="3">
-        <v>1</v>
-      </c>
-      <c r="I104" s="9">
-        <v>10010035</v>
-      </c>
-      <c r="J104" s="8">
+      <c r="L133" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C134" s="3">
+        <v>60000007</v>
+      </c>
+      <c r="D134" s="3">
+        <v>60000008</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1</v>
+      </c>
+      <c r="F134" s="3">
+        <v>100</v>
+      </c>
+      <c r="G134" s="14">
+        <v>10012005</v>
+      </c>
+      <c r="H134" s="3">
+        <v>1</v>
+      </c>
+      <c r="I134" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J134" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="105" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C105" s="3">
-        <v>20000026</v>
-      </c>
-      <c r="D105" s="3">
-        <v>20000027</v>
-      </c>
-      <c r="E105" s="2">
-        <v>1</v>
-      </c>
-      <c r="F105" s="3">
-        <v>100</v>
-      </c>
-      <c r="G105" s="3">
-        <v>10025009</v>
-      </c>
-      <c r="H105" s="3">
-        <v>1</v>
-      </c>
-      <c r="I105" s="9">
-        <v>10010035</v>
-      </c>
-      <c r="J105" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="106" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C106" s="3">
-        <v>20000027</v>
-      </c>
-      <c r="D106" s="3">
-        <v>20000028</v>
-      </c>
-      <c r="E106" s="2">
-        <v>1</v>
-      </c>
-      <c r="F106" s="3">
-        <v>100</v>
-      </c>
-      <c r="G106" s="3">
-        <v>10000105</v>
-      </c>
-      <c r="H106" s="3">
-        <v>1</v>
-      </c>
-      <c r="I106" s="9">
-        <v>10010035</v>
-      </c>
-      <c r="J106" s="8">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="107" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C107" s="3">
-        <v>20000028</v>
-      </c>
-      <c r="D107" s="3">
-        <v>20000029</v>
-      </c>
-      <c r="E107" s="2">
-        <v>1</v>
-      </c>
-      <c r="F107" s="3">
-        <v>100</v>
-      </c>
-      <c r="G107" s="3">
-        <v>10010052</v>
-      </c>
-      <c r="H107" s="2">
-        <v>1</v>
-      </c>
-      <c r="I107" s="9">
-        <v>10010035</v>
-      </c>
-      <c r="J107" s="8">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="108" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C108" s="3">
-        <v>20000029</v>
-      </c>
-      <c r="D108" s="3">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2">
-        <v>1</v>
-      </c>
-      <c r="F108" s="3">
-        <v>100</v>
-      </c>
-      <c r="G108" s="3">
-        <v>10000155</v>
-      </c>
-      <c r="H108" s="2">
-        <v>1</v>
-      </c>
-      <c r="I108" s="9">
-        <v>10010035</v>
-      </c>
-      <c r="J108" s="8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="109" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C109" s="3">
-        <v>30000001</v>
-      </c>
-      <c r="D109" s="3">
-        <v>30000002</v>
-      </c>
-      <c r="E109" s="2">
-        <v>1</v>
-      </c>
-      <c r="F109" s="3">
-        <v>100</v>
-      </c>
-      <c r="G109" s="3">
-        <v>10000144</v>
-      </c>
-      <c r="H109" s="3">
-        <v>1</v>
-      </c>
-      <c r="I109" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J109" s="8">
-        <v>5</v>
-      </c>
-      <c r="L109" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C110" s="3">
-        <v>30000002</v>
-      </c>
-      <c r="D110" s="3">
-        <v>30000003</v>
-      </c>
-      <c r="E110" s="2">
-        <v>1</v>
-      </c>
-      <c r="F110" s="3">
-        <v>100</v>
-      </c>
-      <c r="G110" s="3">
-        <v>10000145</v>
-      </c>
-      <c r="H110" s="3">
-        <v>1</v>
-      </c>
-      <c r="I110" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J110" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C111" s="3">
-        <v>30000003</v>
-      </c>
-      <c r="D111" s="3">
-        <v>30000004</v>
-      </c>
-      <c r="E111" s="2">
-        <v>1</v>
-      </c>
-      <c r="F111" s="3">
-        <v>100</v>
-      </c>
-      <c r="G111" s="3">
-        <v>10000146</v>
-      </c>
-      <c r="H111" s="3">
-        <v>1</v>
-      </c>
-      <c r="I111" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J111" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="3">
-        <v>30000004</v>
-      </c>
-      <c r="D112" s="3">
-        <v>30000005</v>
-      </c>
-      <c r="E112" s="2">
-        <v>1</v>
-      </c>
-      <c r="F112" s="3">
-        <v>100</v>
-      </c>
-      <c r="G112" s="3">
-        <v>10000147</v>
-      </c>
-      <c r="H112" s="3">
-        <v>1</v>
-      </c>
-      <c r="I112" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J112" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C113" s="3">
-        <v>30000005</v>
-      </c>
-      <c r="D113" s="3">
-        <v>30000006</v>
-      </c>
-      <c r="E113" s="2">
-        <v>1</v>
-      </c>
-      <c r="F113" s="3">
-        <v>100</v>
-      </c>
-      <c r="G113" s="3">
-        <v>10010033</v>
-      </c>
-      <c r="H113" s="3">
-        <v>1</v>
-      </c>
-      <c r="I113" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J113" s="10">
+      <c r="L134" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C135" s="3">
+        <v>60000008</v>
+      </c>
+      <c r="D135" s="3">
+        <v>60000009</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1</v>
+      </c>
+      <c r="F135" s="3">
+        <v>100</v>
+      </c>
+      <c r="G135" s="14">
+        <v>10012006</v>
+      </c>
+      <c r="H135" s="3">
+        <v>1</v>
+      </c>
+      <c r="I135" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J135" s="3">
+        <v>10</v>
+      </c>
+      <c r="L135" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C114" s="3">
-        <v>30000006</v>
-      </c>
-      <c r="D114" s="3">
-        <v>30000007</v>
-      </c>
-      <c r="E114" s="2">
-        <v>1</v>
-      </c>
-      <c r="F114" s="3">
-        <v>100</v>
-      </c>
-      <c r="G114" s="3">
-        <v>10010083</v>
-      </c>
-      <c r="H114" s="3">
-        <v>1</v>
-      </c>
-      <c r="I114" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J114" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C115" s="3">
-        <v>30000007</v>
-      </c>
-      <c r="D115" s="3">
-        <v>30000008</v>
-      </c>
-      <c r="E115" s="2">
-        <v>1</v>
-      </c>
-      <c r="F115" s="3">
-        <v>100</v>
-      </c>
-      <c r="G115" s="3">
-        <v>10010098</v>
-      </c>
-      <c r="H115" s="3">
-        <v>1</v>
-      </c>
-      <c r="I115" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J115" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C116" s="3">
-        <v>30000008</v>
-      </c>
-      <c r="D116" s="3">
-        <v>30000009</v>
-      </c>
-      <c r="E116" s="2">
-        <v>1</v>
-      </c>
-      <c r="F116" s="3">
-        <v>100</v>
-      </c>
-      <c r="G116" s="3">
-        <v>10010085</v>
-      </c>
-      <c r="H116" s="3">
-        <v>1</v>
-      </c>
-      <c r="I116" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J116" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C117" s="3">
-        <v>30000009</v>
-      </c>
-      <c r="D117" s="3">
-        <v>30000010</v>
-      </c>
-      <c r="E117" s="2">
-        <v>1</v>
-      </c>
-      <c r="F117" s="3">
-        <v>100</v>
-      </c>
-      <c r="G117" s="3">
-        <v>10000131</v>
-      </c>
-      <c r="H117" s="3">
-        <v>1</v>
-      </c>
-      <c r="I117" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J117" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C118" s="3">
-        <v>30000010</v>
-      </c>
-      <c r="D118" s="3">
-        <v>30000011</v>
-      </c>
-      <c r="E118" s="2">
-        <v>1</v>
-      </c>
-      <c r="F118" s="3">
-        <v>100</v>
-      </c>
-      <c r="G118" s="3">
-        <v>10000132</v>
-      </c>
-      <c r="H118" s="3">
-        <v>1</v>
-      </c>
-      <c r="I118" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J118" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C119" s="3">
-        <v>30000011</v>
-      </c>
-      <c r="D119" s="3">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2">
-        <v>1</v>
-      </c>
-      <c r="F119" s="3">
-        <v>100</v>
-      </c>
-      <c r="G119" s="3">
-        <v>10010086</v>
-      </c>
-      <c r="H119" s="3">
-        <v>1</v>
-      </c>
-      <c r="I119" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J119" s="10">
-        <v>80</v>
-      </c>
-      <c r="L119" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="D120" s="3">
-        <v>40000002</v>
-      </c>
-      <c r="E120" s="2">
-        <v>1</v>
-      </c>
-      <c r="F120" s="3">
-        <v>100</v>
-      </c>
-      <c r="G120" s="3">
-        <v>10000143</v>
-      </c>
-      <c r="H120" s="8">
-        <v>1</v>
-      </c>
-      <c r="I120" s="9">
-        <v>10000149</v>
-      </c>
-      <c r="J120" s="8">
-        <v>35</v>
-      </c>
-      <c r="L120" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C121" s="3">
-        <v>40000002</v>
-      </c>
-      <c r="D121" s="3">
-        <v>40000003</v>
-      </c>
-      <c r="E121" s="2">
-        <v>1</v>
-      </c>
-      <c r="F121" s="3">
-        <v>100</v>
-      </c>
-      <c r="G121" s="3">
-        <v>10010046</v>
-      </c>
-      <c r="H121" s="8">
-        <v>1</v>
-      </c>
-      <c r="I121" s="9">
-        <v>10000149</v>
-      </c>
-      <c r="J121" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="122" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C122" s="3">
-        <v>40000003</v>
-      </c>
-      <c r="D122" s="3">
-        <v>40000004</v>
-      </c>
-      <c r="E122" s="2">
-        <v>1</v>
-      </c>
-      <c r="F122" s="3">
-        <v>100</v>
-      </c>
-      <c r="G122" s="3">
-        <v>10000150</v>
-      </c>
-      <c r="H122" s="8">
-        <v>1</v>
-      </c>
-      <c r="I122" s="9">
-        <v>10000149</v>
-      </c>
-      <c r="J122" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="123" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C123" s="3">
-        <v>40000004</v>
-      </c>
-      <c r="D123" s="3">
-        <v>40000005</v>
-      </c>
-      <c r="E123" s="2">
-        <v>1</v>
-      </c>
-      <c r="F123" s="3">
-        <v>100</v>
-      </c>
-      <c r="G123" s="3">
-        <v>10010045</v>
-      </c>
-      <c r="H123" s="8">
-        <v>1</v>
-      </c>
-      <c r="I123" s="9">
-        <v>10000149</v>
-      </c>
-      <c r="J123" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="124" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C124" s="3">
-        <v>40000005</v>
-      </c>
-      <c r="D124" s="3">
-        <v>40000006</v>
-      </c>
-      <c r="E124" s="2">
-        <v>1</v>
-      </c>
-      <c r="F124" s="3">
-        <v>100</v>
-      </c>
-      <c r="G124" s="3">
-        <v>10010083</v>
-      </c>
-      <c r="H124" s="8">
-        <v>1</v>
-      </c>
-      <c r="I124" s="9">
-        <v>10000149</v>
-      </c>
-      <c r="J124" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C125" s="3">
-        <v>40000006</v>
-      </c>
-      <c r="D125" s="3">
-        <v>40000007</v>
-      </c>
-      <c r="E125" s="2">
-        <v>1</v>
-      </c>
-      <c r="F125" s="3">
-        <v>100</v>
-      </c>
-      <c r="G125" s="3">
-        <v>10010085</v>
-      </c>
-      <c r="H125" s="8">
-        <v>5</v>
-      </c>
-      <c r="I125" s="9">
-        <v>10000149</v>
-      </c>
-      <c r="J125" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C126" s="3">
-        <v>40000007</v>
-      </c>
-      <c r="D126" s="3">
-        <v>40000008</v>
-      </c>
-      <c r="E126" s="2">
-        <v>1</v>
-      </c>
-      <c r="F126" s="3">
-        <v>100</v>
-      </c>
-      <c r="G126" s="3">
-        <v>10000121</v>
-      </c>
-      <c r="H126" s="8">
-        <v>1</v>
-      </c>
-      <c r="I126" s="9">
-        <v>10000149</v>
-      </c>
-      <c r="J126" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C127" s="3">
-        <v>40000008</v>
-      </c>
-      <c r="D127" s="3">
-        <v>40000009</v>
-      </c>
-      <c r="E127" s="2">
-        <v>1</v>
-      </c>
-      <c r="F127" s="3">
-        <v>100</v>
-      </c>
-      <c r="G127" s="3">
-        <v>10000122</v>
-      </c>
-      <c r="H127" s="8">
-        <v>1</v>
-      </c>
-      <c r="I127" s="9">
-        <v>10000149</v>
-      </c>
-      <c r="J127" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C128" s="3">
-        <v>40000009</v>
-      </c>
-      <c r="D128" s="3">
-        <v>40000010</v>
-      </c>
-      <c r="E128" s="2">
-        <v>1</v>
-      </c>
-      <c r="F128" s="3">
-        <v>100</v>
-      </c>
-      <c r="G128" s="3">
-        <v>10000123</v>
-      </c>
-      <c r="H128" s="8">
-        <v>1</v>
-      </c>
-      <c r="I128" s="9">
-        <v>10000149</v>
-      </c>
-      <c r="J128" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C129" s="3">
-        <v>40000010</v>
-      </c>
-      <c r="D129" s="3">
-        <v>40000011</v>
-      </c>
-      <c r="E129" s="2">
-        <v>1</v>
-      </c>
-      <c r="F129" s="3">
-        <v>100</v>
-      </c>
-      <c r="G129" s="3">
-        <v>10000124</v>
-      </c>
-      <c r="H129" s="8">
-        <v>1</v>
-      </c>
-      <c r="I129" s="9">
-        <v>10000149</v>
-      </c>
-      <c r="J129" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C130" s="3">
-        <v>40000011</v>
-      </c>
-      <c r="D130" s="3">
-        <v>40000012</v>
-      </c>
-      <c r="E130" s="2">
-        <v>1</v>
-      </c>
-      <c r="F130" s="3">
-        <v>100</v>
-      </c>
-      <c r="G130" s="3">
-        <v>10000125</v>
-      </c>
-      <c r="H130" s="8">
-        <v>1</v>
-      </c>
-      <c r="I130" s="9">
-        <v>10000149</v>
-      </c>
-      <c r="J130" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C131" s="3">
-        <v>40000012</v>
-      </c>
-      <c r="D131" s="3">
-        <v>40000013</v>
-      </c>
-      <c r="E131" s="2">
-        <v>1</v>
-      </c>
-      <c r="F131" s="3">
-        <v>100</v>
-      </c>
-      <c r="G131" s="3">
-        <v>10000144</v>
-      </c>
-      <c r="H131" s="8">
-        <v>2</v>
-      </c>
-      <c r="I131" s="9">
-        <v>10000149</v>
-      </c>
-      <c r="J131" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C132" s="3">
-        <v>40000013</v>
-      </c>
-      <c r="D132" s="3">
-        <v>40000014</v>
-      </c>
-      <c r="E132" s="2">
-        <v>1</v>
-      </c>
-      <c r="F132" s="3">
-        <v>100</v>
-      </c>
-      <c r="G132" s="3">
-        <v>10000145</v>
-      </c>
-      <c r="H132" s="8">
-        <v>2</v>
-      </c>
-      <c r="I132" s="9">
-        <v>10000149</v>
-      </c>
-      <c r="J132" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C133" s="3">
-        <v>40000014</v>
-      </c>
-      <c r="D133" s="3">
-        <v>40000015</v>
-      </c>
-      <c r="E133" s="2">
-        <v>1</v>
-      </c>
-      <c r="F133" s="3">
-        <v>100</v>
-      </c>
-      <c r="G133" s="3">
-        <v>10000146</v>
-      </c>
-      <c r="H133" s="8">
-        <v>2</v>
-      </c>
-      <c r="I133" s="9">
-        <v>10000149</v>
-      </c>
-      <c r="J133" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C134" s="3">
-        <v>40000015</v>
-      </c>
-      <c r="D134" s="3">
-        <v>0</v>
-      </c>
-      <c r="E134" s="2">
-        <v>1</v>
-      </c>
-      <c r="F134" s="3">
-        <v>100</v>
-      </c>
-      <c r="G134" s="3">
-        <v>10000147</v>
-      </c>
-      <c r="H134" s="8">
-        <v>2</v>
-      </c>
-      <c r="I134" s="9">
-        <v>10000149</v>
-      </c>
-      <c r="J134" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C135" s="3">
-        <v>50000001</v>
-      </c>
-      <c r="D135" s="3">
-        <v>50000002</v>
-      </c>
-      <c r="E135" s="2">
-        <v>1</v>
-      </c>
-      <c r="F135" s="3">
-        <v>100</v>
-      </c>
-      <c r="G135" s="3">
-        <v>10000206</v>
-      </c>
-      <c r="H135" s="3">
-        <v>1</v>
-      </c>
-      <c r="I135" s="9">
-        <v>10000151</v>
-      </c>
-      <c r="J135" s="3">
-        <v>50</v>
-      </c>
-      <c r="L135" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P135" s="7"/>
-    </row>
-    <row r="136" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C136" s="3">
-        <v>50000002</v>
+        <v>60000009</v>
       </c>
       <c r="D136" s="3">
-        <v>50000003</v>
-      </c>
-      <c r="E136" s="2">
+        <v>60000010</v>
+      </c>
+      <c r="E136" s="3">
         <v>1</v>
       </c>
       <c r="F136" s="3">
         <v>100</v>
       </c>
-      <c r="G136" s="3">
-        <v>10010094</v>
+      <c r="G136" s="14">
+        <v>10012007</v>
       </c>
       <c r="H136" s="3">
         <v>1</v>
       </c>
-      <c r="I136" s="9">
-        <v>10000151</v>
+      <c r="I136" s="3">
+        <v>10010029</v>
       </c>
       <c r="J136" s="3">
-        <v>20</v>
-      </c>
-      <c r="L136" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="137" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="L136" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C137" s="3">
-        <v>50000003</v>
+        <v>60000010</v>
       </c>
       <c r="D137" s="3">
-        <v>50000004</v>
-      </c>
-      <c r="E137" s="2">
+        <v>60000011</v>
+      </c>
+      <c r="E137" s="3">
         <v>1</v>
       </c>
       <c r="F137" s="3">
         <v>100</v>
       </c>
-      <c r="G137" s="3">
-        <v>10011008</v>
+      <c r="G137" s="14">
+        <v>10012008</v>
       </c>
       <c r="H137" s="3">
         <v>1</v>
       </c>
-      <c r="I137" s="9">
-        <v>10000151</v>
+      <c r="I137" s="3">
+        <v>10010029</v>
       </c>
       <c r="J137" s="3">
-        <v>30</v>
-      </c>
-      <c r="L137" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="138" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="L137" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C138" s="3">
-        <v>50000004</v>
+        <v>60000011</v>
       </c>
       <c r="D138" s="3">
-        <v>50000005</v>
-      </c>
-      <c r="E138" s="2">
+        <v>60000012</v>
+      </c>
+      <c r="E138" s="3">
         <v>1</v>
       </c>
       <c r="F138" s="3">
         <v>100</v>
       </c>
-      <c r="G138" s="3">
-        <v>10011013</v>
+      <c r="G138" s="14">
+        <v>10012009</v>
       </c>
       <c r="H138" s="3">
         <v>1</v>
       </c>
-      <c r="I138" s="9">
-        <v>10000151</v>
+      <c r="I138" s="3">
+        <v>10010029</v>
       </c>
       <c r="J138" s="3">
-        <v>30</v>
-      </c>
-      <c r="L138" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="139" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="L138" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C139" s="3">
-        <v>50000005</v>
+        <v>60000012</v>
       </c>
       <c r="D139" s="3">
-        <v>50000006</v>
-      </c>
-      <c r="E139" s="2">
+        <v>60000013</v>
+      </c>
+      <c r="E139" s="3">
         <v>1</v>
       </c>
       <c r="F139" s="3">
         <v>100</v>
       </c>
-      <c r="G139" s="3">
-        <v>10000105</v>
-      </c>
-      <c r="H139" s="2">
-        <v>1</v>
-      </c>
-      <c r="I139" s="9">
-        <v>10000151</v>
+      <c r="G139" s="14">
+        <v>10012010</v>
+      </c>
+      <c r="H139" s="3">
+        <v>1</v>
+      </c>
+      <c r="I139" s="3">
+        <v>10010029</v>
       </c>
       <c r="J139" s="3">
         <v>10</v>
       </c>
-      <c r="L139" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="140" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L139" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C140" s="3">
-        <v>50000006</v>
+        <v>60000013</v>
       </c>
       <c r="D140" s="3">
-        <v>50000007</v>
-      </c>
-      <c r="E140" s="2">
+        <v>60000014</v>
+      </c>
+      <c r="E140" s="3">
         <v>1</v>
       </c>
       <c r="F140" s="3">
         <v>100</v>
       </c>
-      <c r="G140" s="3">
-        <v>10032009</v>
-      </c>
-      <c r="H140" s="2">
-        <v>1</v>
-      </c>
-      <c r="I140" s="9">
-        <v>10000151</v>
+      <c r="G140" s="14">
+        <v>10012011</v>
+      </c>
+      <c r="H140" s="3">
+        <v>1</v>
+      </c>
+      <c r="I140" s="3">
+        <v>10010029</v>
       </c>
       <c r="J140" s="3">
-        <v>25</v>
-      </c>
-      <c r="L140" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="141" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="L140" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C141" s="3">
-        <v>50000007</v>
+        <v>60000014</v>
       </c>
       <c r="D141" s="3">
-        <v>50000008</v>
-      </c>
-      <c r="E141" s="2">
+        <v>60000015</v>
+      </c>
+      <c r="E141" s="3">
         <v>1</v>
       </c>
       <c r="F141" s="3">
         <v>100</v>
       </c>
-      <c r="G141" s="3">
-        <v>10032014</v>
-      </c>
-      <c r="H141" s="2">
-        <v>1</v>
-      </c>
-      <c r="I141" s="9">
-        <v>10000151</v>
+      <c r="G141" s="14">
+        <v>10012012</v>
+      </c>
+      <c r="H141" s="3">
+        <v>1</v>
+      </c>
+      <c r="I141" s="3">
+        <v>10010029</v>
       </c>
       <c r="J141" s="3">
-        <v>25</v>
-      </c>
-      <c r="L141" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="142" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="L141" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C142" s="3">
-        <v>50000008</v>
+        <v>60000015</v>
       </c>
       <c r="D142" s="3">
-        <v>50000009</v>
-      </c>
-      <c r="E142" s="2">
+        <v>60000016</v>
+      </c>
+      <c r="E142" s="3">
         <v>1</v>
       </c>
       <c r="F142" s="3">
         <v>100</v>
       </c>
-      <c r="G142" s="3">
-        <v>10000156</v>
-      </c>
-      <c r="H142" s="2">
-        <v>1</v>
-      </c>
-      <c r="I142" s="9">
-        <v>10000151</v>
+      <c r="G142" s="14">
+        <v>10012013</v>
+      </c>
+      <c r="H142" s="3">
+        <v>1</v>
+      </c>
+      <c r="I142" s="3">
+        <v>10010029</v>
       </c>
       <c r="J142" s="3">
         <v>10</v>
       </c>
-      <c r="L142" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="143" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L142" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C143" s="3">
-        <v>50000009</v>
+        <v>60000016</v>
       </c>
       <c r="D143" s="3">
-        <v>50000010</v>
-      </c>
-      <c r="E143" s="2">
+        <v>60000017</v>
+      </c>
+      <c r="E143" s="3">
         <v>1</v>
       </c>
       <c r="F143" s="3">
         <v>100</v>
       </c>
-      <c r="G143" s="3">
-        <v>10049101</v>
-      </c>
-      <c r="H143" s="2">
-        <v>1</v>
-      </c>
-      <c r="I143" s="9">
-        <v>10000151</v>
+      <c r="G143" s="14">
+        <v>10012014</v>
+      </c>
+      <c r="H143" s="3">
+        <v>1</v>
+      </c>
+      <c r="I143" s="3">
+        <v>10010029</v>
       </c>
       <c r="J143" s="3">
-        <v>100</v>
-      </c>
-      <c r="L143" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="144" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="L143" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C144" s="3">
-        <v>50000010</v>
+        <v>60000017</v>
       </c>
       <c r="D144" s="3">
-        <v>50000011</v>
-      </c>
-      <c r="E144" s="2">
+        <v>60000018</v>
+      </c>
+      <c r="E144" s="3">
         <v>1</v>
       </c>
       <c r="F144" s="3">
         <v>100</v>
       </c>
-      <c r="G144" s="3">
-        <v>10010026</v>
-      </c>
-      <c r="H144" s="2">
-        <v>1</v>
-      </c>
-      <c r="I144" s="9">
-        <v>10000151</v>
+      <c r="G144" s="14">
+        <v>10012015</v>
+      </c>
+      <c r="H144" s="3">
+        <v>1</v>
+      </c>
+      <c r="I144" s="3">
+        <v>10010029</v>
       </c>
       <c r="J144" s="3">
         <v>10</v>
       </c>
-      <c r="L144" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L144" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C145" s="3">
-        <v>50000011</v>
+        <v>60000018</v>
       </c>
       <c r="D145" s="3">
-        <v>50000012</v>
-      </c>
-      <c r="E145" s="2">
+        <v>60000019</v>
+      </c>
+      <c r="E145" s="3">
         <v>1</v>
       </c>
       <c r="F145" s="3">
         <v>100</v>
       </c>
-      <c r="G145" s="3">
-        <v>10000152</v>
-      </c>
-      <c r="H145" s="2">
-        <v>1</v>
-      </c>
-      <c r="I145" s="9">
-        <v>10000151</v>
+      <c r="G145" s="14">
+        <v>10012016</v>
+      </c>
+      <c r="H145" s="3">
+        <v>1</v>
+      </c>
+      <c r="I145" s="3">
+        <v>10010029</v>
       </c>
       <c r="J145" s="3">
-        <v>1</v>
-      </c>
-      <c r="L145" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="L145" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C146" s="3">
-        <v>50000012</v>
+        <v>60000019</v>
       </c>
       <c r="D146" s="3">
-        <v>50000013</v>
-      </c>
-      <c r="E146" s="2">
+        <v>60000020</v>
+      </c>
+      <c r="E146" s="3">
         <v>1</v>
       </c>
       <c r="F146" s="3">
         <v>100</v>
       </c>
-      <c r="G146" s="3">
-        <v>10000157</v>
-      </c>
-      <c r="H146" s="2">
-        <v>1</v>
-      </c>
-      <c r="I146" s="9">
-        <v>10000151</v>
+      <c r="G146" s="14">
+        <v>10012017</v>
+      </c>
+      <c r="H146" s="3">
+        <v>1</v>
+      </c>
+      <c r="I146" s="3">
+        <v>10010029</v>
       </c>
       <c r="J146" s="3">
-        <v>1</v>
-      </c>
-      <c r="L146" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="L146" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="147" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C147" s="3">
-        <v>50000013</v>
+        <v>60000020</v>
       </c>
       <c r="D147" s="3">
-        <v>50000014</v>
-      </c>
-      <c r="E147" s="2">
+        <v>60000021</v>
+      </c>
+      <c r="E147" s="3">
         <v>1</v>
       </c>
       <c r="F147" s="3">
         <v>100</v>
       </c>
-      <c r="G147" s="3">
-        <v>10000150</v>
-      </c>
-      <c r="H147" s="2">
-        <v>1</v>
-      </c>
-      <c r="I147" s="9">
-        <v>10000151</v>
+      <c r="G147" s="14">
+        <v>10012018</v>
+      </c>
+      <c r="H147" s="3">
+        <v>1</v>
+      </c>
+      <c r="I147" s="3">
+        <v>10010029</v>
       </c>
       <c r="J147" s="3">
-        <v>3</v>
-      </c>
-      <c r="L147" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="L147" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="148" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C148" s="3">
-        <v>50000014</v>
+        <v>60000021</v>
       </c>
       <c r="D148" s="3">
-        <v>50000015</v>
-      </c>
-      <c r="E148" s="2">
+        <v>60000022</v>
+      </c>
+      <c r="E148" s="3">
         <v>1</v>
       </c>
       <c r="F148" s="3">
         <v>100</v>
       </c>
-      <c r="G148" s="3">
-        <v>10010078</v>
-      </c>
-      <c r="H148" s="2">
-        <v>1</v>
-      </c>
-      <c r="I148" s="9">
-        <v>10000151</v>
+      <c r="G148" s="14">
+        <v>10012019</v>
+      </c>
+      <c r="H148" s="3">
+        <v>1</v>
+      </c>
+      <c r="I148" s="3">
+        <v>10010029</v>
       </c>
       <c r="J148" s="3">
-        <v>5</v>
-      </c>
-      <c r="L148" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="L148" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="149" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C149" s="3">
-        <v>50000015</v>
+        <v>60000022</v>
       </c>
       <c r="D149" s="3">
-        <v>50000016</v>
-      </c>
-      <c r="E149" s="2">
+        <v>60000023</v>
+      </c>
+      <c r="E149" s="3">
         <v>1</v>
       </c>
       <c r="F149" s="3">
         <v>100</v>
       </c>
-      <c r="G149" s="3">
-        <v>10010079</v>
-      </c>
-      <c r="H149" s="2">
-        <v>1</v>
-      </c>
-      <c r="I149" s="9">
-        <v>10000151</v>
+      <c r="G149" s="14">
+        <v>10012020</v>
+      </c>
+      <c r="H149" s="3">
+        <v>1</v>
+      </c>
+      <c r="I149" s="3">
+        <v>10010029</v>
       </c>
       <c r="J149" s="3">
-        <v>5</v>
-      </c>
-      <c r="L149" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="L149" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C150" s="3">
-        <v>50000016</v>
+        <v>60000023</v>
       </c>
       <c r="D150" s="3">
-        <v>50000017</v>
-      </c>
-      <c r="E150" s="2">
+        <v>60000024</v>
+      </c>
+      <c r="E150" s="3">
         <v>1</v>
       </c>
       <c r="F150" s="3">
         <v>100</v>
       </c>
-      <c r="G150" s="9">
-        <v>10000174</v>
-      </c>
-      <c r="H150" s="2">
-        <v>1</v>
-      </c>
-      <c r="I150" s="9">
-        <v>10000151</v>
+      <c r="G150" s="14">
+        <v>10012021</v>
+      </c>
+      <c r="H150" s="3">
+        <v>1</v>
+      </c>
+      <c r="I150" s="3">
+        <v>10010029</v>
       </c>
       <c r="J150" s="3">
-        <v>20</v>
-      </c>
-      <c r="L150" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="L150" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="151" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C151" s="3">
-        <v>50000017</v>
+        <v>60000024</v>
       </c>
       <c r="D151" s="3">
-        <v>0</v>
-      </c>
-      <c r="E151" s="2">
+        <v>60000025</v>
+      </c>
+      <c r="E151" s="3">
         <v>1</v>
       </c>
       <c r="F151" s="3">
         <v>100</v>
       </c>
-      <c r="G151" s="9">
-        <v>10000175</v>
-      </c>
-      <c r="H151" s="2">
-        <v>1</v>
-      </c>
-      <c r="I151" s="9">
-        <v>10000151</v>
+      <c r="G151" s="14">
+        <v>10012022</v>
+      </c>
+      <c r="H151" s="3">
+        <v>1</v>
+      </c>
+      <c r="I151" s="3">
+        <v>10010029</v>
       </c>
       <c r="J151" s="3">
-        <v>30</v>
-      </c>
-      <c r="L151" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="L151" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="152" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C152" s="3">
-        <v>60000001</v>
+        <v>60000025</v>
       </c>
       <c r="D152" s="3">
-        <v>60000002</v>
+        <v>60000026</v>
       </c>
       <c r="E152" s="3">
         <v>1</v>
@@ -6304,36 +6390,28 @@
       <c r="F152" s="3">
         <v>100</v>
       </c>
-      <c r="G152" s="3">
-        <v>10000143</v>
-      </c>
-      <c r="H152" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I152" s="9">
-        <v>10000157</v>
+      <c r="G152" s="14">
+        <v>10012023</v>
+      </c>
+      <c r="H152" s="3">
+        <v>1</v>
+      </c>
+      <c r="I152" s="3">
+        <v>10010029</v>
       </c>
       <c r="J152" s="3">
-        <v>1</v>
-      </c>
-      <c r="K152" s="3"/>
-      <c r="L152" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="M152" s="3"/>
-      <c r="N152" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O152" s="3"/>
-    </row>
-    <row r="153" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="L152" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="153" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C153" s="3">
-        <v>60000002</v>
+        <v>60000026</v>
       </c>
       <c r="D153" s="3">
-        <v>60000003</v>
+        <v>60000027</v>
       </c>
       <c r="E153" s="3">
         <v>1</v>
@@ -6341,34 +6419,28 @@
       <c r="F153" s="3">
         <v>100</v>
       </c>
-      <c r="G153" s="3">
-        <v>10010093</v>
-      </c>
-      <c r="H153" s="13">
-        <v>1</v>
-      </c>
-      <c r="I153" s="9">
-        <v>10000143</v>
-      </c>
-      <c r="J153" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K153" s="3"/>
-      <c r="L153" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="M153" s="3"/>
-      <c r="N153" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O153" s="3"/>
-    </row>
-    <row r="154" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G153" s="14">
+        <v>10012024</v>
+      </c>
+      <c r="H153" s="3">
+        <v>1</v>
+      </c>
+      <c r="I153" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J153" s="3">
+        <v>15</v>
+      </c>
+      <c r="L153" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="154" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C154" s="3">
-        <v>60000003</v>
+        <v>60000027</v>
       </c>
       <c r="D154" s="3">
-        <v>60000004</v>
+        <v>60000028</v>
       </c>
       <c r="E154" s="3">
         <v>1</v>
@@ -6377,7 +6449,7 @@
         <v>100</v>
       </c>
       <c r="G154" s="14">
-        <v>10012001</v>
+        <v>10012025</v>
       </c>
       <c r="H154" s="3">
         <v>1</v>
@@ -6386,18 +6458,18 @@
         <v>10010029</v>
       </c>
       <c r="J154" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L154" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="155" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C155" s="3">
-        <v>60000004</v>
+        <v>60000028</v>
       </c>
       <c r="D155" s="3">
-        <v>60000005</v>
+        <v>60000029</v>
       </c>
       <c r="E155" s="3">
         <v>1</v>
@@ -6406,7 +6478,7 @@
         <v>100</v>
       </c>
       <c r="G155" s="14">
-        <v>10012002</v>
+        <v>10012026</v>
       </c>
       <c r="H155" s="3">
         <v>1</v>
@@ -6415,18 +6487,18 @@
         <v>10010029</v>
       </c>
       <c r="J155" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L155" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="156" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C156" s="3">
-        <v>60000005</v>
+        <v>60000029</v>
       </c>
       <c r="D156" s="3">
-        <v>60000006</v>
+        <v>0</v>
       </c>
       <c r="E156" s="3">
         <v>1</v>
@@ -6435,7 +6507,7 @@
         <v>100</v>
       </c>
       <c r="G156" s="14">
-        <v>10012003</v>
+        <v>10012027</v>
       </c>
       <c r="H156" s="3">
         <v>1</v>
@@ -6444,366 +6516,366 @@
         <v>10010029</v>
       </c>
       <c r="J156" s="3">
+        <v>15</v>
+      </c>
+      <c r="L156" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="157" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C157" s="3">
+        <v>70000001</v>
+      </c>
+      <c r="D157" s="3">
+        <v>70000002</v>
+      </c>
+      <c r="E157" s="3">
+        <v>1</v>
+      </c>
+      <c r="F157" s="3">
+        <v>100</v>
+      </c>
+      <c r="G157" s="9">
+        <v>1030093</v>
+      </c>
+      <c r="H157" s="3">
+        <v>1</v>
+      </c>
+      <c r="I157" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J157" s="8">
+        <v>30</v>
+      </c>
+      <c r="L157" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C158" s="3">
+        <v>70000002</v>
+      </c>
+      <c r="D158" s="3">
+        <v>70000003</v>
+      </c>
+      <c r="E158" s="3">
+        <v>1</v>
+      </c>
+      <c r="F158" s="3">
+        <v>100</v>
+      </c>
+      <c r="G158" s="9">
+        <v>10000162</v>
+      </c>
+      <c r="H158" s="3">
+        <v>1</v>
+      </c>
+      <c r="I158" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J158" s="8">
+        <v>20</v>
+      </c>
+      <c r="L158" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="159" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C159" s="3">
+        <v>70000003</v>
+      </c>
+      <c r="D159" s="3">
+        <v>70000004</v>
+      </c>
+      <c r="E159" s="3">
+        <v>1</v>
+      </c>
+      <c r="F159" s="3">
+        <v>100</v>
+      </c>
+      <c r="G159" s="9">
+        <v>1030045</v>
+      </c>
+      <c r="H159" s="3">
+        <v>1</v>
+      </c>
+      <c r="I159" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J159" s="8">
+        <v>30</v>
+      </c>
+      <c r="L159" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="160" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C160" s="3">
+        <v>70000004</v>
+      </c>
+      <c r="D160" s="3">
+        <v>70000005</v>
+      </c>
+      <c r="E160" s="3">
+        <v>1</v>
+      </c>
+      <c r="F160" s="3">
+        <v>100</v>
+      </c>
+      <c r="G160" s="9">
+        <v>10000158</v>
+      </c>
+      <c r="H160" s="3">
+        <v>1</v>
+      </c>
+      <c r="I160" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J160" s="8">
+        <v>20</v>
+      </c>
+      <c r="L160" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="161" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C161" s="3">
+        <v>70000005</v>
+      </c>
+      <c r="D161" s="3">
+        <v>70000006</v>
+      </c>
+      <c r="E161" s="3">
+        <v>1</v>
+      </c>
+      <c r="F161" s="3">
+        <v>100</v>
+      </c>
+      <c r="G161" s="9">
+        <v>1030083</v>
+      </c>
+      <c r="H161" s="3">
+        <v>1</v>
+      </c>
+      <c r="I161" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J161" s="8">
+        <v>2</v>
+      </c>
+      <c r="L161" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="162" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C162" s="3">
+        <v>70000006</v>
+      </c>
+      <c r="D162" s="3">
+        <v>70000007</v>
+      </c>
+      <c r="E162" s="3">
+        <v>1</v>
+      </c>
+      <c r="F162" s="3">
+        <v>100</v>
+      </c>
+      <c r="G162" s="9">
+        <v>10000143</v>
+      </c>
+      <c r="H162" s="3">
+        <v>1</v>
+      </c>
+      <c r="I162" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J162" s="8">
+        <v>5</v>
+      </c>
+      <c r="L162" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="163" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C163" s="3">
+        <v>70000007</v>
+      </c>
+      <c r="D163" s="3">
+        <v>70000008</v>
+      </c>
+      <c r="E163" s="3">
+        <v>1</v>
+      </c>
+      <c r="F163" s="3">
+        <v>100</v>
+      </c>
+      <c r="G163" s="9">
+        <v>10000152</v>
+      </c>
+      <c r="H163" s="3">
+        <v>1</v>
+      </c>
+      <c r="I163" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J163" s="8">
         <v>10</v>
       </c>
-      <c r="L156" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C157" s="3">
-        <v>60000006</v>
-      </c>
-      <c r="D157" s="3">
-        <v>60000007</v>
-      </c>
-      <c r="E157" s="3">
-        <v>1</v>
-      </c>
-      <c r="F157" s="3">
-        <v>100</v>
-      </c>
-      <c r="G157" s="14">
-        <v>10012004</v>
-      </c>
-      <c r="H157" s="3">
-        <v>1</v>
-      </c>
-      <c r="I157" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J157" s="3">
+      <c r="L163" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C164" s="3">
+        <v>70000008</v>
+      </c>
+      <c r="D164" s="3">
+        <v>70000009</v>
+      </c>
+      <c r="E164" s="3">
+        <v>1</v>
+      </c>
+      <c r="F164" s="3">
+        <v>100</v>
+      </c>
+      <c r="G164" s="9">
+        <v>10000157</v>
+      </c>
+      <c r="H164" s="3">
+        <v>1</v>
+      </c>
+      <c r="I164" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J164" s="8">
         <v>10</v>
       </c>
-      <c r="L157" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C158" s="3">
-        <v>60000007</v>
-      </c>
-      <c r="D158" s="3">
-        <v>60000008</v>
-      </c>
-      <c r="E158" s="3">
-        <v>1</v>
-      </c>
-      <c r="F158" s="3">
-        <v>100</v>
-      </c>
-      <c r="G158" s="14">
-        <v>10012005</v>
-      </c>
-      <c r="H158" s="3">
-        <v>1</v>
-      </c>
-      <c r="I158" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J158" s="3">
+      <c r="L164" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="165" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C165" s="3">
+        <v>70000009</v>
+      </c>
+      <c r="D165" s="3">
+        <v>70000010</v>
+      </c>
+      <c r="E165" s="3">
+        <v>1</v>
+      </c>
+      <c r="F165" s="3">
+        <v>100</v>
+      </c>
+      <c r="G165" s="9">
+        <v>1030029</v>
+      </c>
+      <c r="H165" s="3">
+        <v>1</v>
+      </c>
+      <c r="I165" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J165" s="8">
+        <v>5</v>
+      </c>
+      <c r="L165" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="166" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C166" s="3">
+        <v>70000010</v>
+      </c>
+      <c r="D166" s="3">
+        <v>70000011</v>
+      </c>
+      <c r="E166" s="3">
+        <v>1</v>
+      </c>
+      <c r="F166" s="3">
+        <v>100</v>
+      </c>
+      <c r="G166" s="9">
+        <v>1030086</v>
+      </c>
+      <c r="H166" s="3">
+        <v>1</v>
+      </c>
+      <c r="I166" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J166" s="8">
         <v>10</v>
       </c>
-      <c r="L158" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C159" s="3">
-        <v>60000008</v>
-      </c>
-      <c r="D159" s="3">
-        <v>60000009</v>
-      </c>
-      <c r="E159" s="3">
-        <v>1</v>
-      </c>
-      <c r="F159" s="3">
-        <v>100</v>
-      </c>
-      <c r="G159" s="14">
-        <v>10012006</v>
-      </c>
-      <c r="H159" s="3">
-        <v>1</v>
-      </c>
-      <c r="I159" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J159" s="3">
+      <c r="L166" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C167" s="3">
+        <v>70000011</v>
+      </c>
+      <c r="D167" s="3">
+        <v>70000012</v>
+      </c>
+      <c r="E167" s="3">
+        <v>1</v>
+      </c>
+      <c r="F167" s="3">
+        <v>100</v>
+      </c>
+      <c r="G167" s="15">
+        <v>10010101</v>
+      </c>
+      <c r="H167" s="3">
+        <v>1</v>
+      </c>
+      <c r="I167" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J167" s="8">
+        <v>5</v>
+      </c>
+      <c r="L167" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="168" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C168" s="3">
+        <v>70000012</v>
+      </c>
+      <c r="D168" s="3">
+        <v>70000013</v>
+      </c>
+      <c r="E168" s="3">
+        <v>1</v>
+      </c>
+      <c r="F168" s="3">
+        <v>100</v>
+      </c>
+      <c r="G168" s="15">
+        <v>10010102</v>
+      </c>
+      <c r="H168" s="3">
+        <v>1</v>
+      </c>
+      <c r="I168" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J168" s="8">
         <v>10</v>
       </c>
-      <c r="L159" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C160" s="3">
-        <v>60000009</v>
-      </c>
-      <c r="D160" s="3">
-        <v>60000010</v>
-      </c>
-      <c r="E160" s="3">
-        <v>1</v>
-      </c>
-      <c r="F160" s="3">
-        <v>100</v>
-      </c>
-      <c r="G160" s="14">
-        <v>10012007</v>
-      </c>
-      <c r="H160" s="3">
-        <v>1</v>
-      </c>
-      <c r="I160" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J160" s="3">
-        <v>10</v>
-      </c>
-      <c r="L160" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="161" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C161" s="3">
-        <v>60000010</v>
-      </c>
-      <c r="D161" s="3">
-        <v>60000011</v>
-      </c>
-      <c r="E161" s="3">
-        <v>1</v>
-      </c>
-      <c r="F161" s="3">
-        <v>100</v>
-      </c>
-      <c r="G161" s="14">
-        <v>10012008</v>
-      </c>
-      <c r="H161" s="3">
-        <v>1</v>
-      </c>
-      <c r="I161" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J161" s="3">
-        <v>10</v>
-      </c>
-      <c r="L161" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="162" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C162" s="3">
-        <v>60000011</v>
-      </c>
-      <c r="D162" s="3">
-        <v>60000012</v>
-      </c>
-      <c r="E162" s="3">
-        <v>1</v>
-      </c>
-      <c r="F162" s="3">
-        <v>100</v>
-      </c>
-      <c r="G162" s="14">
-        <v>10012009</v>
-      </c>
-      <c r="H162" s="3">
-        <v>1</v>
-      </c>
-      <c r="I162" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J162" s="3">
-        <v>10</v>
-      </c>
-      <c r="L162" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="163" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C163" s="3">
-        <v>60000012</v>
-      </c>
-      <c r="D163" s="3">
-        <v>60000013</v>
-      </c>
-      <c r="E163" s="3">
-        <v>1</v>
-      </c>
-      <c r="F163" s="3">
-        <v>100</v>
-      </c>
-      <c r="G163" s="14">
-        <v>10012010</v>
-      </c>
-      <c r="H163" s="3">
-        <v>1</v>
-      </c>
-      <c r="I163" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J163" s="3">
-        <v>10</v>
-      </c>
-      <c r="L163" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="164" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C164" s="3">
-        <v>60000013</v>
-      </c>
-      <c r="D164" s="3">
-        <v>60000014</v>
-      </c>
-      <c r="E164" s="3">
-        <v>1</v>
-      </c>
-      <c r="F164" s="3">
-        <v>100</v>
-      </c>
-      <c r="G164" s="14">
-        <v>10012011</v>
-      </c>
-      <c r="H164" s="3">
-        <v>1</v>
-      </c>
-      <c r="I164" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J164" s="3">
-        <v>10</v>
-      </c>
-      <c r="L164" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="165" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C165" s="3">
-        <v>60000014</v>
-      </c>
-      <c r="D165" s="3">
-        <v>60000015</v>
-      </c>
-      <c r="E165" s="3">
-        <v>1</v>
-      </c>
-      <c r="F165" s="3">
-        <v>100</v>
-      </c>
-      <c r="G165" s="14">
-        <v>10012012</v>
-      </c>
-      <c r="H165" s="3">
-        <v>1</v>
-      </c>
-      <c r="I165" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J165" s="3">
-        <v>10</v>
-      </c>
-      <c r="L165" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="166" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C166" s="3">
-        <v>60000015</v>
-      </c>
-      <c r="D166" s="3">
-        <v>60000016</v>
-      </c>
-      <c r="E166" s="3">
-        <v>1</v>
-      </c>
-      <c r="F166" s="3">
-        <v>100</v>
-      </c>
-      <c r="G166" s="14">
-        <v>10012013</v>
-      </c>
-      <c r="H166" s="3">
-        <v>1</v>
-      </c>
-      <c r="I166" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J166" s="3">
-        <v>10</v>
-      </c>
-      <c r="L166" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="167" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C167" s="3">
-        <v>60000016</v>
-      </c>
-      <c r="D167" s="3">
-        <v>60000017</v>
-      </c>
-      <c r="E167" s="3">
-        <v>1</v>
-      </c>
-      <c r="F167" s="3">
-        <v>100</v>
-      </c>
-      <c r="G167" s="14">
-        <v>10012014</v>
-      </c>
-      <c r="H167" s="3">
-        <v>1</v>
-      </c>
-      <c r="I167" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J167" s="3">
-        <v>10</v>
-      </c>
-      <c r="L167" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="168" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C168" s="3">
-        <v>60000017</v>
-      </c>
-      <c r="D168" s="3">
-        <v>60000018</v>
-      </c>
-      <c r="E168" s="3">
-        <v>1</v>
-      </c>
-      <c r="F168" s="3">
-        <v>100</v>
-      </c>
-      <c r="G168" s="14">
-        <v>10012015</v>
-      </c>
-      <c r="H168" s="3">
-        <v>1</v>
-      </c>
-      <c r="I168" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J168" s="3">
-        <v>10</v>
-      </c>
-      <c r="L168" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="169" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L168" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="169" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C169" s="3">
-        <v>60000018</v>
+        <v>70000013</v>
       </c>
       <c r="D169" s="3">
-        <v>60000019</v>
+        <v>0</v>
       </c>
       <c r="E169" s="3">
         <v>1</v>
@@ -6811,28 +6883,28 @@
       <c r="F169" s="3">
         <v>100</v>
       </c>
-      <c r="G169" s="14">
-        <v>10012016</v>
+      <c r="G169" s="15">
+        <v>10010103</v>
       </c>
       <c r="H169" s="3">
         <v>1</v>
       </c>
-      <c r="I169" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J169" s="3">
-        <v>10</v>
-      </c>
-      <c r="L169" s="14" t="s">
-        <v>60</v>
+      <c r="I169" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J169" s="8">
+        <v>20</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="170" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C170" s="3">
-        <v>60000019</v>
+        <v>80000001</v>
       </c>
       <c r="D170" s="3">
-        <v>60000020</v>
+        <v>80000002</v>
       </c>
       <c r="E170" s="3">
         <v>1</v>
@@ -6840,28 +6912,28 @@
       <c r="F170" s="3">
         <v>100</v>
       </c>
-      <c r="G170" s="14">
-        <v>10012017</v>
+      <c r="G170" s="9">
+        <v>1030083</v>
       </c>
       <c r="H170" s="3">
         <v>1</v>
       </c>
-      <c r="I170" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J170" s="3">
-        <v>10</v>
-      </c>
-      <c r="L170" s="14" t="s">
-        <v>61</v>
+      <c r="I170" s="8">
+        <v>10000163</v>
+      </c>
+      <c r="J170" s="8">
+        <v>1</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="171" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="3">
-        <v>60000020</v>
+        <v>80000002</v>
       </c>
       <c r="D171" s="3">
-        <v>60000021</v>
+        <v>80000003</v>
       </c>
       <c r="E171" s="3">
         <v>1</v>
@@ -6869,28 +6941,28 @@
       <c r="F171" s="3">
         <v>100</v>
       </c>
-      <c r="G171" s="14">
-        <v>10012018</v>
+      <c r="G171" s="9">
+        <v>1030086</v>
       </c>
       <c r="H171" s="3">
         <v>1</v>
       </c>
-      <c r="I171" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J171" s="3">
-        <v>10</v>
-      </c>
-      <c r="L171" s="14" t="s">
-        <v>62</v>
+      <c r="I171" s="8">
+        <v>10000163</v>
+      </c>
+      <c r="J171" s="8">
+        <v>20</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="172" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C172" s="3">
-        <v>60000021</v>
+        <v>80000003</v>
       </c>
       <c r="D172" s="3">
-        <v>60000022</v>
+        <v>80000004</v>
       </c>
       <c r="E172" s="3">
         <v>1</v>
@@ -6898,1182 +6970,486 @@
       <c r="F172" s="3">
         <v>100</v>
       </c>
-      <c r="G172" s="14">
-        <v>10012019</v>
+      <c r="G172" s="9">
+        <v>1030096</v>
       </c>
       <c r="H172" s="3">
         <v>1</v>
       </c>
-      <c r="I172" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J172" s="3">
+      <c r="I172" s="8">
+        <v>10000163</v>
+      </c>
+      <c r="J172" s="8">
+        <v>35</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C173" s="3">
+        <v>80000004</v>
+      </c>
+      <c r="D173" s="3">
+        <v>80000005</v>
+      </c>
+      <c r="E173" s="3">
+        <v>1</v>
+      </c>
+      <c r="F173" s="3">
+        <v>100</v>
+      </c>
+      <c r="G173" s="9">
+        <v>10000139</v>
+      </c>
+      <c r="H173" s="3">
+        <v>1</v>
+      </c>
+      <c r="I173" s="8">
+        <v>10000163</v>
+      </c>
+      <c r="J173" s="8">
+        <v>20</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="174" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C174" s="3">
+        <v>80000005</v>
+      </c>
+      <c r="D174" s="3">
+        <v>80000006</v>
+      </c>
+      <c r="E174" s="3">
+        <v>1</v>
+      </c>
+      <c r="F174" s="3">
+        <v>100</v>
+      </c>
+      <c r="G174" s="9">
+        <v>10000143</v>
+      </c>
+      <c r="H174" s="3">
+        <v>1</v>
+      </c>
+      <c r="I174" s="8">
+        <v>10000163</v>
+      </c>
+      <c r="J174" s="8">
+        <v>20</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C175" s="3">
+        <v>80000006</v>
+      </c>
+      <c r="D175" s="3">
+        <v>80000007</v>
+      </c>
+      <c r="E175" s="3">
+        <v>1</v>
+      </c>
+      <c r="F175" s="3">
+        <v>100</v>
+      </c>
+      <c r="G175" s="9">
+        <v>10000152</v>
+      </c>
+      <c r="H175" s="3">
+        <v>1</v>
+      </c>
+      <c r="I175" s="8">
+        <v>10000163</v>
+      </c>
+      <c r="J175" s="8">
+        <v>35</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="176" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C176" s="3">
+        <v>80000007</v>
+      </c>
+      <c r="D176" s="3">
+        <v>80000008</v>
+      </c>
+      <c r="E176" s="3">
+        <v>1</v>
+      </c>
+      <c r="F176" s="3">
+        <v>100</v>
+      </c>
+      <c r="G176" s="9">
+        <v>10000155</v>
+      </c>
+      <c r="H176" s="3">
+        <v>1</v>
+      </c>
+      <c r="I176" s="8">
+        <v>10000163</v>
+      </c>
+      <c r="J176" s="8">
+        <v>5</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="177" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C177" s="3">
+        <v>80000008</v>
+      </c>
+      <c r="D177" s="3">
+        <v>80000009</v>
+      </c>
+      <c r="E177" s="3">
+        <v>1</v>
+      </c>
+      <c r="F177" s="3">
+        <v>100</v>
+      </c>
+      <c r="G177" s="9">
+        <v>10000158</v>
+      </c>
+      <c r="H177" s="3">
+        <v>1</v>
+      </c>
+      <c r="I177" s="8">
+        <v>10000163</v>
+      </c>
+      <c r="J177" s="8">
+        <v>20</v>
+      </c>
+      <c r="L177" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="178" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C178" s="3">
+        <v>80000009</v>
+      </c>
+      <c r="D178" s="3">
+        <v>0</v>
+      </c>
+      <c r="E178" s="3">
+        <v>1</v>
+      </c>
+      <c r="F178" s="3">
+        <v>100</v>
+      </c>
+      <c r="G178" s="9">
+        <v>1030093</v>
+      </c>
+      <c r="H178" s="3">
+        <v>1</v>
+      </c>
+      <c r="I178" s="8">
+        <v>10000163</v>
+      </c>
+      <c r="J178" s="8">
+        <v>35</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="179" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C179" s="3">
+        <v>90000001</v>
+      </c>
+      <c r="D179" s="3">
+        <v>30000002</v>
+      </c>
+      <c r="E179" s="2">
+        <v>1</v>
+      </c>
+      <c r="F179" s="3">
+        <v>100</v>
+      </c>
+      <c r="G179" s="3">
+        <v>10000144</v>
+      </c>
+      <c r="H179" s="3">
+        <v>1</v>
+      </c>
+      <c r="I179" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J179" s="8">
         <v>10</v>
       </c>
-      <c r="L172" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="173" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C173" s="3">
-        <v>60000022</v>
-      </c>
-      <c r="D173" s="3">
-        <v>60000023</v>
-      </c>
-      <c r="E173" s="3">
-        <v>1</v>
-      </c>
-      <c r="F173" s="3">
-        <v>100</v>
-      </c>
-      <c r="G173" s="14">
-        <v>10012020</v>
-      </c>
-      <c r="H173" s="3">
-        <v>1</v>
-      </c>
-      <c r="I173" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J173" s="3">
-        <v>15</v>
-      </c>
-      <c r="L173" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="174" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C174" s="3">
-        <v>60000023</v>
-      </c>
-      <c r="D174" s="3">
-        <v>60000024</v>
-      </c>
-      <c r="E174" s="3">
-        <v>1</v>
-      </c>
-      <c r="F174" s="3">
-        <v>100</v>
-      </c>
-      <c r="G174" s="14">
-        <v>10012021</v>
-      </c>
-      <c r="H174" s="3">
-        <v>1</v>
-      </c>
-      <c r="I174" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J174" s="3">
-        <v>15</v>
-      </c>
-      <c r="L174" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="175" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C175" s="3">
-        <v>60000024</v>
-      </c>
-      <c r="D175" s="3">
-        <v>60000025</v>
-      </c>
-      <c r="E175" s="3">
-        <v>1</v>
-      </c>
-      <c r="F175" s="3">
-        <v>100</v>
-      </c>
-      <c r="G175" s="14">
-        <v>10012022</v>
-      </c>
-      <c r="H175" s="3">
-        <v>1</v>
-      </c>
-      <c r="I175" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J175" s="3">
-        <v>15</v>
-      </c>
-      <c r="L175" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="176" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C176" s="3">
-        <v>60000025</v>
-      </c>
-      <c r="D176" s="3">
-        <v>60000026</v>
-      </c>
-      <c r="E176" s="3">
-        <v>1</v>
-      </c>
-      <c r="F176" s="3">
-        <v>100</v>
-      </c>
-      <c r="G176" s="14">
-        <v>10012023</v>
-      </c>
-      <c r="H176" s="3">
-        <v>1</v>
-      </c>
-      <c r="I176" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J176" s="3">
-        <v>15</v>
-      </c>
-      <c r="L176" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="177" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C177" s="3">
-        <v>60000026</v>
-      </c>
-      <c r="D177" s="3">
-        <v>60000027</v>
-      </c>
-      <c r="E177" s="3">
-        <v>1</v>
-      </c>
-      <c r="F177" s="3">
-        <v>100</v>
-      </c>
-      <c r="G177" s="14">
-        <v>10012024</v>
-      </c>
-      <c r="H177" s="3">
-        <v>1</v>
-      </c>
-      <c r="I177" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J177" s="3">
-        <v>15</v>
-      </c>
-      <c r="L177" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="178" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C178" s="3">
-        <v>60000027</v>
-      </c>
-      <c r="D178" s="3">
-        <v>60000028</v>
-      </c>
-      <c r="E178" s="3">
-        <v>1</v>
-      </c>
-      <c r="F178" s="3">
-        <v>100</v>
-      </c>
-      <c r="G178" s="14">
-        <v>10012025</v>
-      </c>
-      <c r="H178" s="3">
-        <v>1</v>
-      </c>
-      <c r="I178" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J178" s="3">
-        <v>15</v>
-      </c>
-      <c r="L178" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="179" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C179" s="3">
-        <v>60000028</v>
-      </c>
-      <c r="D179" s="3">
-        <v>60000029</v>
-      </c>
-      <c r="E179" s="3">
-        <v>1</v>
-      </c>
-      <c r="F179" s="3">
-        <v>100</v>
-      </c>
-      <c r="G179" s="14">
-        <v>10012026</v>
-      </c>
-      <c r="H179" s="3">
-        <v>1</v>
-      </c>
-      <c r="I179" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J179" s="3">
-        <v>15</v>
-      </c>
-      <c r="L179" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="180" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K179" s="2"/>
+      <c r="L179" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="180" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C180" s="3">
-        <v>60000029</v>
+        <v>90000002</v>
       </c>
       <c r="D180" s="3">
-        <v>0</v>
-      </c>
-      <c r="E180" s="3">
+        <v>30000003</v>
+      </c>
+      <c r="E180" s="2">
         <v>1</v>
       </c>
       <c r="F180" s="3">
         <v>100</v>
       </c>
-      <c r="G180" s="14">
-        <v>10012027</v>
+      <c r="G180" s="3">
+        <v>10000145</v>
       </c>
       <c r="H180" s="3">
         <v>1</v>
       </c>
-      <c r="I180" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J180" s="3">
-        <v>15</v>
-      </c>
-      <c r="L180" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="181" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I180" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J180" s="8">
+        <v>10</v>
+      </c>
+      <c r="K180" s="2"/>
+      <c r="L180" s="2"/>
+    </row>
+    <row r="181" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C181" s="3">
-        <v>70000001</v>
+        <v>90000003</v>
       </c>
       <c r="D181" s="3">
-        <v>70000002</v>
-      </c>
-      <c r="E181" s="3">
+        <v>30000004</v>
+      </c>
+      <c r="E181" s="2">
         <v>1</v>
       </c>
       <c r="F181" s="3">
         <v>100</v>
       </c>
-      <c r="G181" s="9">
-        <v>10010093</v>
+      <c r="G181" s="3">
+        <v>10000146</v>
       </c>
       <c r="H181" s="3">
         <v>1</v>
       </c>
-      <c r="I181" s="8">
-        <v>10000159</v>
+      <c r="I181" s="9">
+        <v>10000148</v>
       </c>
       <c r="J181" s="8">
-        <v>30</v>
-      </c>
-      <c r="L181" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="182" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+    </row>
+    <row r="182" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C182" s="3">
-        <v>70000002</v>
+        <v>90000004</v>
       </c>
       <c r="D182" s="3">
-        <v>70000003</v>
-      </c>
-      <c r="E182" s="3">
+        <v>30000005</v>
+      </c>
+      <c r="E182" s="2">
         <v>1</v>
       </c>
       <c r="F182" s="3">
         <v>100</v>
       </c>
-      <c r="G182" s="9">
-        <v>10000162</v>
+      <c r="G182" s="3">
+        <v>10000147</v>
       </c>
       <c r="H182" s="3">
         <v>1</v>
       </c>
-      <c r="I182" s="8">
-        <v>10000159</v>
+      <c r="I182" s="9">
+        <v>10000148</v>
       </c>
       <c r="J182" s="8">
-        <v>20</v>
-      </c>
-      <c r="L182" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="183" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="K182" s="2"/>
+      <c r="L182" s="2"/>
+    </row>
+    <row r="183" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C183" s="3">
-        <v>70000003</v>
+        <v>90000005</v>
       </c>
       <c r="D183" s="3">
-        <v>70000004</v>
-      </c>
-      <c r="E183" s="3">
+        <v>30000006</v>
+      </c>
+      <c r="E183" s="2">
         <v>1</v>
       </c>
       <c r="F183" s="3">
         <v>100</v>
       </c>
-      <c r="G183" s="9">
-        <v>10010045</v>
+      <c r="G183" s="3">
+        <v>1030033</v>
       </c>
       <c r="H183" s="3">
         <v>1</v>
       </c>
-      <c r="I183" s="8">
-        <v>10000159</v>
-      </c>
-      <c r="J183" s="8">
-        <v>30</v>
-      </c>
-      <c r="L183" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="I183" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J183" s="10">
+        <v>50</v>
+      </c>
+      <c r="K183" s="2"/>
+      <c r="L183" s="2"/>
     </row>
     <row r="184" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C184" s="3">
-        <v>70000004</v>
+        <v>90000006</v>
       </c>
       <c r="D184" s="3">
-        <v>70000005</v>
-      </c>
-      <c r="E184" s="3">
+        <v>30000007</v>
+      </c>
+      <c r="E184" s="2">
         <v>1</v>
       </c>
       <c r="F184" s="3">
         <v>100</v>
       </c>
-      <c r="G184" s="9">
-        <v>10000158</v>
+      <c r="G184" s="3">
+        <v>1030083</v>
       </c>
       <c r="H184" s="3">
         <v>1</v>
       </c>
-      <c r="I184" s="8">
-        <v>10000159</v>
-      </c>
-      <c r="J184" s="8">
-        <v>20</v>
-      </c>
-      <c r="L184" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="I184" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J184" s="10">
+        <v>5</v>
+      </c>
+      <c r="K184" s="2"/>
+      <c r="L184" s="2"/>
     </row>
     <row r="185" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C185" s="3">
-        <v>70000005</v>
+        <v>90000007</v>
       </c>
       <c r="D185" s="3">
-        <v>70000006</v>
-      </c>
-      <c r="E185" s="3">
+        <v>30000008</v>
+      </c>
+      <c r="E185" s="2">
         <v>1</v>
       </c>
       <c r="F185" s="3">
         <v>100</v>
       </c>
-      <c r="G185" s="9">
-        <v>10010083</v>
+      <c r="G185" s="3">
+        <v>1030098</v>
       </c>
       <c r="H185" s="3">
         <v>1</v>
       </c>
-      <c r="I185" s="8">
-        <v>10000159</v>
-      </c>
-      <c r="J185" s="8">
-        <v>2</v>
-      </c>
-      <c r="L185" s="18" t="s">
-        <v>75</v>
-      </c>
+      <c r="I185" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J185" s="10">
+        <v>5</v>
+      </c>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
     </row>
     <row r="186" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C186" s="3">
-        <v>70000006</v>
+        <v>90000008</v>
       </c>
       <c r="D186" s="3">
-        <v>70000007</v>
-      </c>
-      <c r="E186" s="3">
+        <v>30000009</v>
+      </c>
+      <c r="E186" s="2">
         <v>1</v>
       </c>
       <c r="F186" s="3">
         <v>100</v>
       </c>
-      <c r="G186" s="9">
-        <v>10000143</v>
+      <c r="G186" s="3">
+        <v>1030085</v>
       </c>
       <c r="H186" s="3">
         <v>1</v>
       </c>
-      <c r="I186" s="8">
-        <v>10000159</v>
-      </c>
-      <c r="J186" s="8">
-        <v>5</v>
-      </c>
-      <c r="L186" s="18" t="s">
-        <v>42</v>
-      </c>
+      <c r="I186" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J186" s="10">
+        <v>2</v>
+      </c>
+      <c r="K186" s="2"/>
+      <c r="L186" s="2"/>
     </row>
     <row r="187" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C187" s="3">
-        <v>70000007</v>
+        <v>90000009</v>
       </c>
       <c r="D187" s="3">
-        <v>70000008</v>
-      </c>
-      <c r="E187" s="3">
+        <v>30000010</v>
+      </c>
+      <c r="E187" s="2">
         <v>1</v>
       </c>
       <c r="F187" s="3">
         <v>100</v>
       </c>
-      <c r="G187" s="9">
-        <v>10000152</v>
+      <c r="G187" s="3">
+        <v>10000131</v>
       </c>
       <c r="H187" s="3">
         <v>1</v>
       </c>
-      <c r="I187" s="8">
-        <v>10000159</v>
-      </c>
-      <c r="J187" s="8">
-        <v>10</v>
-      </c>
-      <c r="L187" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="I187" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J187" s="10">
+        <v>3</v>
+      </c>
+      <c r="K187" s="2"/>
+      <c r="L187" s="2"/>
     </row>
     <row r="188" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C188" s="3">
-        <v>70000008</v>
+        <v>90000010</v>
       </c>
       <c r="D188" s="3">
-        <v>70000009</v>
-      </c>
-      <c r="E188" s="3">
+        <v>0</v>
+      </c>
+      <c r="E188" s="2">
         <v>1</v>
       </c>
       <c r="F188" s="3">
         <v>100</v>
       </c>
-      <c r="G188" s="9">
-        <v>10000157</v>
+      <c r="G188" s="3">
+        <v>10000132</v>
       </c>
       <c r="H188" s="3">
         <v>1</v>
       </c>
-      <c r="I188" s="8">
-        <v>10000159</v>
-      </c>
-      <c r="J188" s="8">
-        <v>10</v>
-      </c>
-      <c r="L188" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="189" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C189" s="3">
-        <v>70000009</v>
-      </c>
-      <c r="D189" s="3">
-        <v>70000010</v>
-      </c>
-      <c r="E189" s="3">
-        <v>1</v>
-      </c>
-      <c r="F189" s="3">
-        <v>100</v>
-      </c>
-      <c r="G189" s="9">
-        <v>10010029</v>
-      </c>
-      <c r="H189" s="3">
-        <v>1</v>
-      </c>
-      <c r="I189" s="8">
-        <v>10000159</v>
-      </c>
-      <c r="J189" s="8">
-        <v>5</v>
-      </c>
-      <c r="L189" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="190" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C190" s="3">
-        <v>70000010</v>
-      </c>
-      <c r="D190" s="3">
-        <v>70000011</v>
-      </c>
-      <c r="E190" s="3">
-        <v>1</v>
-      </c>
-      <c r="F190" s="3">
-        <v>100</v>
-      </c>
-      <c r="G190" s="9">
-        <v>10010086</v>
-      </c>
-      <c r="H190" s="3">
-        <v>1</v>
-      </c>
-      <c r="I190" s="8">
-        <v>10000159</v>
-      </c>
-      <c r="J190" s="8">
-        <v>10</v>
-      </c>
-      <c r="L190" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="191" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C191" s="3">
-        <v>70000011</v>
-      </c>
-      <c r="D191" s="3">
-        <v>70000012</v>
-      </c>
-      <c r="E191" s="3">
-        <v>1</v>
-      </c>
-      <c r="F191" s="3">
-        <v>100</v>
-      </c>
-      <c r="G191" s="15">
-        <v>10010101</v>
-      </c>
-      <c r="H191" s="3">
-        <v>1</v>
-      </c>
-      <c r="I191" s="8">
-        <v>10000159</v>
-      </c>
-      <c r="J191" s="8">
-        <v>5</v>
-      </c>
-      <c r="L191" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="192" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C192" s="3">
-        <v>70000012</v>
-      </c>
-      <c r="D192" s="3">
-        <v>70000013</v>
-      </c>
-      <c r="E192" s="3">
-        <v>1</v>
-      </c>
-      <c r="F192" s="3">
-        <v>100</v>
-      </c>
-      <c r="G192" s="15">
-        <v>10010102</v>
-      </c>
-      <c r="H192" s="3">
-        <v>1</v>
-      </c>
-      <c r="I192" s="8">
-        <v>10000159</v>
-      </c>
-      <c r="J192" s="8">
-        <v>10</v>
-      </c>
-      <c r="L192" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="193" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C193" s="3">
-        <v>70000013</v>
-      </c>
-      <c r="D193" s="3">
-        <v>0</v>
-      </c>
-      <c r="E193" s="3">
-        <v>1</v>
-      </c>
-      <c r="F193" s="3">
-        <v>100</v>
-      </c>
-      <c r="G193" s="15">
-        <v>10010103</v>
-      </c>
-      <c r="H193" s="3">
-        <v>1</v>
-      </c>
-      <c r="I193" s="8">
-        <v>10000159</v>
-      </c>
-      <c r="J193" s="8">
-        <v>20</v>
-      </c>
-      <c r="L193" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="194" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C194" s="3">
-        <v>80000001</v>
-      </c>
-      <c r="D194" s="3">
-        <v>80000002</v>
-      </c>
-      <c r="E194" s="3">
-        <v>1</v>
-      </c>
-      <c r="F194" s="3">
-        <v>100</v>
-      </c>
-      <c r="G194" s="9">
-        <v>10010083</v>
-      </c>
-      <c r="H194" s="3">
-        <v>1</v>
-      </c>
-      <c r="I194" s="8">
-        <v>10000163</v>
-      </c>
-      <c r="J194" s="8">
-        <v>1</v>
-      </c>
-      <c r="L194" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="195" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C195" s="3">
-        <v>80000002</v>
-      </c>
-      <c r="D195" s="3">
-        <v>80000003</v>
-      </c>
-      <c r="E195" s="3">
-        <v>1</v>
-      </c>
-      <c r="F195" s="3">
-        <v>100</v>
-      </c>
-      <c r="G195" s="9">
-        <v>10010086</v>
-      </c>
-      <c r="H195" s="3">
-        <v>1</v>
-      </c>
-      <c r="I195" s="8">
-        <v>10000163</v>
-      </c>
-      <c r="J195" s="8">
-        <v>20</v>
-      </c>
-      <c r="L195" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="196" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C196" s="3">
-        <v>80000003</v>
-      </c>
-      <c r="D196" s="3">
-        <v>80000004</v>
-      </c>
-      <c r="E196" s="3">
-        <v>1</v>
-      </c>
-      <c r="F196" s="3">
-        <v>100</v>
-      </c>
-      <c r="G196" s="9">
-        <v>10010096</v>
-      </c>
-      <c r="H196" s="3">
-        <v>1</v>
-      </c>
-      <c r="I196" s="8">
-        <v>10000163</v>
-      </c>
-      <c r="J196" s="8">
-        <v>35</v>
-      </c>
-      <c r="L196" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="197" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C197" s="3">
-        <v>80000004</v>
-      </c>
-      <c r="D197" s="3">
-        <v>80000005</v>
-      </c>
-      <c r="E197" s="3">
-        <v>1</v>
-      </c>
-      <c r="F197" s="3">
-        <v>100</v>
-      </c>
-      <c r="G197" s="9">
-        <v>10000139</v>
-      </c>
-      <c r="H197" s="3">
-        <v>1</v>
-      </c>
-      <c r="I197" s="8">
-        <v>10000163</v>
-      </c>
-      <c r="J197" s="8">
-        <v>20</v>
-      </c>
-      <c r="L197" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="198" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C198" s="3">
-        <v>80000005</v>
-      </c>
-      <c r="D198" s="3">
-        <v>80000006</v>
-      </c>
-      <c r="E198" s="3">
-        <v>1</v>
-      </c>
-      <c r="F198" s="3">
-        <v>100</v>
-      </c>
-      <c r="G198" s="9">
-        <v>10000143</v>
-      </c>
-      <c r="H198" s="3">
-        <v>1</v>
-      </c>
-      <c r="I198" s="8">
-        <v>10000163</v>
-      </c>
-      <c r="J198" s="8">
-        <v>20</v>
-      </c>
-      <c r="L198" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="199" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C199" s="3">
-        <v>80000006</v>
-      </c>
-      <c r="D199" s="3">
-        <v>80000007</v>
-      </c>
-      <c r="E199" s="3">
-        <v>1</v>
-      </c>
-      <c r="F199" s="3">
-        <v>100</v>
-      </c>
-      <c r="G199" s="9">
-        <v>10000152</v>
-      </c>
-      <c r="H199" s="3">
-        <v>1</v>
-      </c>
-      <c r="I199" s="8">
-        <v>10000163</v>
-      </c>
-      <c r="J199" s="8">
-        <v>35</v>
-      </c>
-      <c r="L199" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="200" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C200" s="3">
-        <v>80000007</v>
-      </c>
-      <c r="D200" s="3">
-        <v>80000008</v>
-      </c>
-      <c r="E200" s="3">
-        <v>1</v>
-      </c>
-      <c r="F200" s="3">
-        <v>100</v>
-      </c>
-      <c r="G200" s="9">
-        <v>10000155</v>
-      </c>
-      <c r="H200" s="3">
-        <v>1</v>
-      </c>
-      <c r="I200" s="8">
-        <v>10000163</v>
-      </c>
-      <c r="J200" s="8">
-        <v>5</v>
-      </c>
-      <c r="L200" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="201" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C201" s="3">
-        <v>80000008</v>
-      </c>
-      <c r="D201" s="3">
-        <v>80000009</v>
-      </c>
-      <c r="E201" s="3">
-        <v>1</v>
-      </c>
-      <c r="F201" s="3">
-        <v>100</v>
-      </c>
-      <c r="G201" s="9">
-        <v>10000158</v>
-      </c>
-      <c r="H201" s="3">
-        <v>1</v>
-      </c>
-      <c r="I201" s="8">
-        <v>10000163</v>
-      </c>
-      <c r="J201" s="8">
-        <v>20</v>
-      </c>
-      <c r="L201" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="202" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C202" s="3">
-        <v>80000009</v>
-      </c>
-      <c r="D202" s="3">
-        <v>0</v>
-      </c>
-      <c r="E202" s="3">
-        <v>1</v>
-      </c>
-      <c r="F202" s="3">
-        <v>100</v>
-      </c>
-      <c r="G202" s="9">
-        <v>10010093</v>
-      </c>
-      <c r="H202" s="3">
-        <v>1</v>
-      </c>
-      <c r="I202" s="8">
-        <v>10000163</v>
-      </c>
-      <c r="J202" s="8">
-        <v>35</v>
-      </c>
-      <c r="L202" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="203" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C203" s="3">
-        <v>90000001</v>
-      </c>
-      <c r="D203" s="3">
-        <v>30000002</v>
-      </c>
-      <c r="E203" s="2">
-        <v>1</v>
-      </c>
-      <c r="F203" s="3">
-        <v>100</v>
-      </c>
-      <c r="G203" s="3">
-        <v>10000144</v>
-      </c>
-      <c r="H203" s="3">
-        <v>1</v>
-      </c>
-      <c r="I203" s="9">
+      <c r="I188" s="9">
         <v>10000148</v>
       </c>
-      <c r="J203" s="8">
-        <v>10</v>
-      </c>
-      <c r="K203" s="2"/>
-      <c r="L203" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="204" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C204" s="3">
-        <v>90000002</v>
-      </c>
-      <c r="D204" s="3">
-        <v>30000003</v>
-      </c>
-      <c r="E204" s="2">
-        <v>1</v>
-      </c>
-      <c r="F204" s="3">
-        <v>100</v>
-      </c>
-      <c r="G204" s="3">
-        <v>10000145</v>
-      </c>
-      <c r="H204" s="3">
-        <v>1</v>
-      </c>
-      <c r="I204" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J204" s="8">
-        <v>10</v>
-      </c>
-      <c r="K204" s="2"/>
-      <c r="L204" s="2"/>
-    </row>
-    <row r="205" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C205" s="3">
-        <v>90000003</v>
-      </c>
-      <c r="D205" s="3">
-        <v>30000004</v>
-      </c>
-      <c r="E205" s="2">
-        <v>1</v>
-      </c>
-      <c r="F205" s="3">
-        <v>100</v>
-      </c>
-      <c r="G205" s="3">
-        <v>10000146</v>
-      </c>
-      <c r="H205" s="3">
-        <v>1</v>
-      </c>
-      <c r="I205" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J205" s="8">
-        <v>10</v>
-      </c>
-      <c r="K205" s="2"/>
-      <c r="L205" s="2"/>
-    </row>
-    <row r="206" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C206" s="3">
-        <v>90000004</v>
-      </c>
-      <c r="D206" s="3">
-        <v>30000005</v>
-      </c>
-      <c r="E206" s="2">
-        <v>1</v>
-      </c>
-      <c r="F206" s="3">
-        <v>100</v>
-      </c>
-      <c r="G206" s="3">
-        <v>10000147</v>
-      </c>
-      <c r="H206" s="3">
-        <v>1</v>
-      </c>
-      <c r="I206" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J206" s="8">
-        <v>10</v>
-      </c>
-      <c r="K206" s="2"/>
-      <c r="L206" s="2"/>
-    </row>
-    <row r="207" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C207" s="3">
-        <v>90000005</v>
-      </c>
-      <c r="D207" s="3">
-        <v>30000006</v>
-      </c>
-      <c r="E207" s="2">
-        <v>1</v>
-      </c>
-      <c r="F207" s="3">
-        <v>100</v>
-      </c>
-      <c r="G207" s="3">
-        <v>10010033</v>
-      </c>
-      <c r="H207" s="3">
-        <v>1</v>
-      </c>
-      <c r="I207" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J207" s="10">
-        <v>50</v>
-      </c>
-      <c r="K207" s="2"/>
-      <c r="L207" s="2"/>
-    </row>
-    <row r="208" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C208" s="3">
-        <v>90000006</v>
-      </c>
-      <c r="D208" s="3">
-        <v>30000007</v>
-      </c>
-      <c r="E208" s="2">
-        <v>1</v>
-      </c>
-      <c r="F208" s="3">
-        <v>100</v>
-      </c>
-      <c r="G208" s="3">
-        <v>10010083</v>
-      </c>
-      <c r="H208" s="3">
-        <v>1</v>
-      </c>
-      <c r="I208" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J208" s="10">
-        <v>5</v>
-      </c>
-      <c r="K208" s="2"/>
-      <c r="L208" s="2"/>
-    </row>
-    <row r="209" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C209" s="3">
-        <v>90000007</v>
-      </c>
-      <c r="D209" s="3">
-        <v>30000008</v>
-      </c>
-      <c r="E209" s="2">
-        <v>1</v>
-      </c>
-      <c r="F209" s="3">
-        <v>100</v>
-      </c>
-      <c r="G209" s="3">
-        <v>10010098</v>
-      </c>
-      <c r="H209" s="3">
-        <v>1</v>
-      </c>
-      <c r="I209" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J209" s="10">
-        <v>5</v>
-      </c>
-      <c r="K209" s="2"/>
-      <c r="L209" s="2"/>
-    </row>
-    <row r="210" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C210" s="3">
-        <v>90000008</v>
-      </c>
-      <c r="D210" s="3">
-        <v>30000009</v>
-      </c>
-      <c r="E210" s="2">
-        <v>1</v>
-      </c>
-      <c r="F210" s="3">
-        <v>100</v>
-      </c>
-      <c r="G210" s="3">
-        <v>10010085</v>
-      </c>
-      <c r="H210" s="3">
-        <v>1</v>
-      </c>
-      <c r="I210" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J210" s="10">
-        <v>2</v>
-      </c>
-      <c r="K210" s="2"/>
-      <c r="L210" s="2"/>
-    </row>
-    <row r="211" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C211" s="3">
-        <v>90000009</v>
-      </c>
-      <c r="D211" s="3">
-        <v>30000010</v>
-      </c>
-      <c r="E211" s="2">
-        <v>1</v>
-      </c>
-      <c r="F211" s="3">
-        <v>100</v>
-      </c>
-      <c r="G211" s="3">
-        <v>10000131</v>
-      </c>
-      <c r="H211" s="3">
-        <v>1</v>
-      </c>
-      <c r="I211" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J211" s="10">
+      <c r="J188" s="10">
         <v>3</v>
       </c>
-      <c r="K211" s="2"/>
-      <c r="L211" s="2"/>
-    </row>
-    <row r="212" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C212" s="3">
-        <v>90000010</v>
-      </c>
-      <c r="D212" s="3">
-        <v>0</v>
-      </c>
-      <c r="E212" s="2">
-        <v>1</v>
-      </c>
-      <c r="F212" s="3">
-        <v>100</v>
-      </c>
-      <c r="G212" s="3">
-        <v>10000132</v>
-      </c>
-      <c r="H212" s="3">
-        <v>1</v>
-      </c>
-      <c r="I212" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J212" s="10">
-        <v>3</v>
-      </c>
-      <c r="K212" s="2"/>
-      <c r="L212" s="2"/>
-    </row>
-    <row r="213" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
+    </row>
+    <row r="189" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/StoreSellConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StoreSellConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06346439-D858-4003-AFD6-7DF5EA348139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E17F8CD-DF2E-4D8D-A116-E8E87C33CC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreSellProto" sheetId="1" r:id="rId1"/>
@@ -2319,7 +2319,7 @@
   <dimension ref="A1:P196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2613,7 +2613,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="3">
-        <v>1510205</v>
+        <v>1506002</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -2639,7 +2639,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="3">
-        <v>1510701</v>
+        <v>1507001</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -2656,7 +2656,7 @@
         <v>10001208</v>
       </c>
       <c r="D15" s="3">
-        <v>10001209</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -2665,7 +2665,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>1510801</v>
+        <v>1504001</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/StoreSellConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StoreSellConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E17F8CD-DF2E-4D8D-A116-E8E87C33CC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2D0AED-199B-415A-A022-A45E13C63490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
   <si>
     <t>Id</t>
   </si>
@@ -347,18 +347,18 @@
   </si>
   <si>
     <t>背包扩充袋</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>仓库扩充袋</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,13 +412,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -686,937 +679,937 @@
   </borders>
   <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1646,28 +1639,25 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2316,10 +2306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P196"/>
+  <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2433,7 +2423,7 @@
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -2463,7 +2453,7 @@
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="18" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="3"/>
@@ -2699,7 +2689,7 @@
       <c r="I16" s="2">
         <v>1</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2725,7 +2715,7 @@
       <c r="I17" s="2">
         <v>1</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2962,7 +2952,7 @@
       <c r="I26" s="2">
         <v>1</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="18" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="2" t="s">
@@ -2991,7 +2981,7 @@
       <c r="I27" s="2">
         <v>1</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3225,7 +3215,7 @@
       <c r="I36" s="2">
         <v>1</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="18" t="s">
         <v>17</v>
       </c>
       <c r="L36" s="2" t="s">
@@ -3254,7 +3244,7 @@
       <c r="I37" s="2">
         <v>1</v>
       </c>
-      <c r="J37" s="19" t="s">
+      <c r="J37" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3488,7 +3478,7 @@
       <c r="I46" s="2">
         <v>1</v>
       </c>
-      <c r="J46" s="19" t="s">
+      <c r="J46" s="18" t="s">
         <v>17</v>
       </c>
       <c r="L46" s="2" t="s">
@@ -3517,7 +3507,7 @@
       <c r="I47" s="2">
         <v>1</v>
       </c>
-      <c r="J47" s="19" t="s">
+      <c r="J47" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4500,16 +4490,16 @@
         <v>100</v>
       </c>
       <c r="G85" s="3">
-        <v>10000144</v>
+        <v>1000014</v>
       </c>
       <c r="H85" s="3">
         <v>1</v>
       </c>
       <c r="I85" s="9">
-        <v>10000148</v>
+        <v>1000030</v>
       </c>
       <c r="J85" s="8">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>24</v>
@@ -4529,16 +4519,16 @@
         <v>100</v>
       </c>
       <c r="G86" s="3">
-        <v>10000145</v>
+        <v>1000022</v>
       </c>
       <c r="H86" s="3">
         <v>1</v>
       </c>
       <c r="I86" s="9">
-        <v>10000148</v>
+        <v>1000030</v>
       </c>
       <c r="J86" s="8">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4555,16 +4545,16 @@
         <v>100</v>
       </c>
       <c r="G87" s="3">
-        <v>10000146</v>
+        <v>1000027</v>
       </c>
       <c r="H87" s="3">
         <v>1</v>
       </c>
       <c r="I87" s="9">
-        <v>10000148</v>
+        <v>1000030</v>
       </c>
       <c r="J87" s="8">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4581,16 +4571,16 @@
         <v>100</v>
       </c>
       <c r="G88" s="3">
-        <v>10000147</v>
+        <v>1000028</v>
       </c>
       <c r="H88" s="3">
         <v>1</v>
       </c>
       <c r="I88" s="9">
-        <v>10000148</v>
+        <v>1000030</v>
       </c>
       <c r="J88" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4607,16 +4597,16 @@
         <v>100</v>
       </c>
       <c r="G89" s="3">
-        <v>1030033</v>
+        <v>1000029</v>
       </c>
       <c r="H89" s="3">
         <v>1</v>
       </c>
       <c r="I89" s="9">
-        <v>10000148</v>
+        <v>1000030</v>
       </c>
       <c r="J89" s="10">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4633,16 +4623,16 @@
         <v>100</v>
       </c>
       <c r="G90" s="3">
-        <v>1030083</v>
+        <v>1000020</v>
       </c>
       <c r="H90" s="3">
         <v>1</v>
       </c>
       <c r="I90" s="9">
-        <v>10000148</v>
+        <v>1000030</v>
       </c>
       <c r="J90" s="10">
-        <v>3</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4659,16 +4649,16 @@
         <v>100</v>
       </c>
       <c r="G91" s="3">
-        <v>1030098</v>
+        <v>1000019</v>
       </c>
       <c r="H91" s="3">
         <v>1</v>
       </c>
       <c r="I91" s="9">
-        <v>10000148</v>
+        <v>1000030</v>
       </c>
       <c r="J91" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4676,7 +4666,7 @@
         <v>30000008</v>
       </c>
       <c r="D92" s="3">
-        <v>30000009</v>
+        <v>0</v>
       </c>
       <c r="E92" s="2">
         <v>1</v>
@@ -4685,24 +4675,24 @@
         <v>100</v>
       </c>
       <c r="G92" s="3">
-        <v>1030085</v>
+        <v>1000018</v>
       </c>
       <c r="H92" s="3">
         <v>1</v>
       </c>
       <c r="I92" s="9">
-        <v>10000148</v>
+        <v>1000030</v>
       </c>
       <c r="J92" s="10">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="3">
-        <v>30000009</v>
+        <v>40000001</v>
       </c>
       <c r="D93" s="3">
-        <v>30000010</v>
+        <v>40000002</v>
       </c>
       <c r="E93" s="2">
         <v>1</v>
@@ -4711,24 +4701,27 @@
         <v>100</v>
       </c>
       <c r="G93" s="3">
-        <v>10000131</v>
-      </c>
-      <c r="H93" s="3">
+        <v>10000143</v>
+      </c>
+      <c r="H93" s="8">
         <v>1</v>
       </c>
       <c r="I93" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J93" s="10">
-        <v>3</v>
+        <v>10000149</v>
+      </c>
+      <c r="J93" s="8">
+        <v>35</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="3">
-        <v>30000010</v>
+        <v>40000002</v>
       </c>
       <c r="D94" s="3">
-        <v>30000011</v>
+        <v>40000003</v>
       </c>
       <c r="E94" s="2">
         <v>1</v>
@@ -4737,24 +4730,24 @@
         <v>100</v>
       </c>
       <c r="G94" s="3">
-        <v>10000132</v>
-      </c>
-      <c r="H94" s="3">
+        <v>1030046</v>
+      </c>
+      <c r="H94" s="8">
         <v>1</v>
       </c>
       <c r="I94" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J94" s="10">
-        <v>3</v>
+        <v>10000149</v>
+      </c>
+      <c r="J94" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="3">
-        <v>30000011</v>
+        <v>40000003</v>
       </c>
       <c r="D95" s="3">
-        <v>0</v>
+        <v>40000004</v>
       </c>
       <c r="E95" s="2">
         <v>1</v>
@@ -4763,27 +4756,24 @@
         <v>100</v>
       </c>
       <c r="G95" s="3">
-        <v>1030086</v>
-      </c>
-      <c r="H95" s="3">
+        <v>10000150</v>
+      </c>
+      <c r="H95" s="8">
         <v>1</v>
       </c>
       <c r="I95" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J95" s="10">
-        <v>80</v>
-      </c>
-      <c r="L95" s="11" t="s">
-        <v>25</v>
+        <v>10000149</v>
+      </c>
+      <c r="J95" s="8">
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="3">
-        <v>40000001</v>
+        <v>40000004</v>
       </c>
       <c r="D96" s="3">
-        <v>40000002</v>
+        <v>40000005</v>
       </c>
       <c r="E96" s="2">
         <v>1</v>
@@ -4792,7 +4782,7 @@
         <v>100</v>
       </c>
       <c r="G96" s="3">
-        <v>10000143</v>
+        <v>1030045</v>
       </c>
       <c r="H96" s="8">
         <v>1</v>
@@ -4801,18 +4791,15 @@
         <v>10000149</v>
       </c>
       <c r="J96" s="8">
-        <v>35</v>
-      </c>
-      <c r="L96" s="7" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="3">
-        <v>40000002</v>
+        <v>40000005</v>
       </c>
       <c r="D97" s="3">
-        <v>40000003</v>
+        <v>40000006</v>
       </c>
       <c r="E97" s="2">
         <v>1</v>
@@ -4821,7 +4808,7 @@
         <v>100</v>
       </c>
       <c r="G97" s="3">
-        <v>1030046</v>
+        <v>1030083</v>
       </c>
       <c r="H97" s="8">
         <v>1</v>
@@ -4830,15 +4817,15 @@
         <v>10000149</v>
       </c>
       <c r="J97" s="8">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="3">
-        <v>40000003</v>
+        <v>40000006</v>
       </c>
       <c r="D98" s="3">
-        <v>40000004</v>
+        <v>40000007</v>
       </c>
       <c r="E98" s="2">
         <v>1</v>
@@ -4847,24 +4834,24 @@
         <v>100</v>
       </c>
       <c r="G98" s="3">
-        <v>10000150</v>
+        <v>1030085</v>
       </c>
       <c r="H98" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I98" s="9">
         <v>10000149</v>
       </c>
       <c r="J98" s="8">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="3">
-        <v>40000004</v>
+        <v>40000007</v>
       </c>
       <c r="D99" s="3">
-        <v>40000005</v>
+        <v>40000008</v>
       </c>
       <c r="E99" s="2">
         <v>1</v>
@@ -4873,7 +4860,7 @@
         <v>100</v>
       </c>
       <c r="G99" s="3">
-        <v>1030045</v>
+        <v>10000121</v>
       </c>
       <c r="H99" s="8">
         <v>1</v>
@@ -4882,15 +4869,15 @@
         <v>10000149</v>
       </c>
       <c r="J99" s="8">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="3">
-        <v>40000005</v>
+        <v>40000008</v>
       </c>
       <c r="D100" s="3">
-        <v>40000006</v>
+        <v>40000009</v>
       </c>
       <c r="E100" s="2">
         <v>1</v>
@@ -4899,7 +4886,7 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>1030083</v>
+        <v>10000122</v>
       </c>
       <c r="H100" s="8">
         <v>1</v>
@@ -4908,15 +4895,15 @@
         <v>10000149</v>
       </c>
       <c r="J100" s="8">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="3">
-        <v>40000006</v>
+        <v>40000009</v>
       </c>
       <c r="D101" s="3">
-        <v>40000007</v>
+        <v>40000010</v>
       </c>
       <c r="E101" s="2">
         <v>1</v>
@@ -4925,24 +4912,24 @@
         <v>100</v>
       </c>
       <c r="G101" s="3">
-        <v>1030085</v>
+        <v>10000123</v>
       </c>
       <c r="H101" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I101" s="9">
         <v>10000149</v>
       </c>
       <c r="J101" s="8">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="3">
-        <v>40000007</v>
+        <v>40000010</v>
       </c>
       <c r="D102" s="3">
-        <v>40000008</v>
+        <v>40000011</v>
       </c>
       <c r="E102" s="2">
         <v>1</v>
@@ -4951,7 +4938,7 @@
         <v>100</v>
       </c>
       <c r="G102" s="3">
-        <v>10000121</v>
+        <v>10000124</v>
       </c>
       <c r="H102" s="8">
         <v>1</v>
@@ -4965,10 +4952,10 @@
     </row>
     <row r="103" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="3">
-        <v>40000008</v>
+        <v>40000011</v>
       </c>
       <c r="D103" s="3">
-        <v>40000009</v>
+        <v>40000012</v>
       </c>
       <c r="E103" s="2">
         <v>1</v>
@@ -4977,7 +4964,7 @@
         <v>100</v>
       </c>
       <c r="G103" s="3">
-        <v>10000122</v>
+        <v>10000125</v>
       </c>
       <c r="H103" s="8">
         <v>1</v>
@@ -4991,10 +4978,10 @@
     </row>
     <row r="104" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="3">
-        <v>40000009</v>
+        <v>40000012</v>
       </c>
       <c r="D104" s="3">
-        <v>40000010</v>
+        <v>40000013</v>
       </c>
       <c r="E104" s="2">
         <v>1</v>
@@ -5003,24 +4990,24 @@
         <v>100</v>
       </c>
       <c r="G104" s="3">
-        <v>10000123</v>
+        <v>10000144</v>
       </c>
       <c r="H104" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" s="9">
         <v>10000149</v>
       </c>
       <c r="J104" s="8">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="3">
-        <v>40000010</v>
+        <v>40000013</v>
       </c>
       <c r="D105" s="3">
-        <v>40000011</v>
+        <v>40000014</v>
       </c>
       <c r="E105" s="2">
         <v>1</v>
@@ -5029,24 +5016,24 @@
         <v>100</v>
       </c>
       <c r="G105" s="3">
-        <v>10000124</v>
+        <v>10000145</v>
       </c>
       <c r="H105" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" s="9">
         <v>10000149</v>
       </c>
       <c r="J105" s="8">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="3">
-        <v>40000011</v>
+        <v>40000014</v>
       </c>
       <c r="D106" s="3">
-        <v>40000012</v>
+        <v>40000015</v>
       </c>
       <c r="E106" s="2">
         <v>1</v>
@@ -5055,24 +5042,24 @@
         <v>100</v>
       </c>
       <c r="G106" s="3">
-        <v>10000125</v>
+        <v>10000146</v>
       </c>
       <c r="H106" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" s="9">
         <v>10000149</v>
       </c>
       <c r="J106" s="8">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="3">
-        <v>40000012</v>
+        <v>40000015</v>
       </c>
       <c r="D107" s="3">
-        <v>40000013</v>
+        <v>0</v>
       </c>
       <c r="E107" s="2">
         <v>1</v>
@@ -5081,7 +5068,7 @@
         <v>100</v>
       </c>
       <c r="G107" s="3">
-        <v>10000144</v>
+        <v>10000147</v>
       </c>
       <c r="H107" s="8">
         <v>2</v>
@@ -5095,10 +5082,10 @@
     </row>
     <row r="108" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="3">
-        <v>40000013</v>
+        <v>50000001</v>
       </c>
       <c r="D108" s="3">
-        <v>40000014</v>
+        <v>50000002</v>
       </c>
       <c r="E108" s="2">
         <v>1</v>
@@ -5107,24 +5094,28 @@
         <v>100</v>
       </c>
       <c r="G108" s="3">
-        <v>10000145</v>
-      </c>
-      <c r="H108" s="8">
-        <v>2</v>
+        <v>10000206</v>
+      </c>
+      <c r="H108" s="3">
+        <v>1</v>
       </c>
       <c r="I108" s="9">
-        <v>10000149</v>
-      </c>
-      <c r="J108" s="8">
-        <v>1</v>
-      </c>
+        <v>10000151</v>
+      </c>
+      <c r="J108" s="3">
+        <v>50</v>
+      </c>
+      <c r="L108" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P108" s="7"/>
     </row>
     <row r="109" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="3">
-        <v>40000014</v>
+        <v>50000002</v>
       </c>
       <c r="D109" s="3">
-        <v>40000015</v>
+        <v>50000003</v>
       </c>
       <c r="E109" s="2">
         <v>1</v>
@@ -5133,24 +5124,27 @@
         <v>100</v>
       </c>
       <c r="G109" s="3">
-        <v>10000146</v>
-      </c>
-      <c r="H109" s="8">
-        <v>2</v>
+        <v>1030094</v>
+      </c>
+      <c r="H109" s="3">
+        <v>1</v>
       </c>
       <c r="I109" s="9">
-        <v>10000149</v>
-      </c>
-      <c r="J109" s="8">
-        <v>1</v>
+        <v>10000151</v>
+      </c>
+      <c r="J109" s="3">
+        <v>20</v>
+      </c>
+      <c r="L109" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="3">
-        <v>40000015</v>
+        <v>50000003</v>
       </c>
       <c r="D110" s="3">
-        <v>0</v>
+        <v>50000004</v>
       </c>
       <c r="E110" s="2">
         <v>1</v>
@@ -5159,24 +5153,27 @@
         <v>100</v>
       </c>
       <c r="G110" s="3">
-        <v>10000147</v>
-      </c>
-      <c r="H110" s="8">
-        <v>2</v>
+        <v>10011008</v>
+      </c>
+      <c r="H110" s="3">
+        <v>1</v>
       </c>
       <c r="I110" s="9">
-        <v>10000149</v>
-      </c>
-      <c r="J110" s="8">
-        <v>1</v>
+        <v>10000151</v>
+      </c>
+      <c r="J110" s="3">
+        <v>30</v>
+      </c>
+      <c r="L110" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="3">
-        <v>50000001</v>
+        <v>50000004</v>
       </c>
       <c r="D111" s="3">
-        <v>50000002</v>
+        <v>50000005</v>
       </c>
       <c r="E111" s="2">
         <v>1</v>
@@ -5185,7 +5182,7 @@
         <v>100</v>
       </c>
       <c r="G111" s="3">
-        <v>10000206</v>
+        <v>10011013</v>
       </c>
       <c r="H111" s="3">
         <v>1</v>
@@ -5194,19 +5191,18 @@
         <v>10000151</v>
       </c>
       <c r="J111" s="3">
-        <v>50</v>
-      </c>
-      <c r="L111" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P111" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="L111" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="112" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="3">
-        <v>50000002</v>
+        <v>50000005</v>
       </c>
       <c r="D112" s="3">
-        <v>50000003</v>
+        <v>50000006</v>
       </c>
       <c r="E112" s="2">
         <v>1</v>
@@ -5215,27 +5211,27 @@
         <v>100</v>
       </c>
       <c r="G112" s="3">
-        <v>1030094</v>
-      </c>
-      <c r="H112" s="3">
+        <v>10000105</v>
+      </c>
+      <c r="H112" s="2">
         <v>1</v>
       </c>
       <c r="I112" s="9">
         <v>10000151</v>
       </c>
       <c r="J112" s="3">
-        <v>20</v>
-      </c>
-      <c r="L112" s="13" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="L112" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="3">
-        <v>50000003</v>
+        <v>50000006</v>
       </c>
       <c r="D113" s="3">
-        <v>50000004</v>
+        <v>50000007</v>
       </c>
       <c r="E113" s="2">
         <v>1</v>
@@ -5244,27 +5240,27 @@
         <v>100</v>
       </c>
       <c r="G113" s="3">
-        <v>10011008</v>
-      </c>
-      <c r="H113" s="3">
+        <v>10032009</v>
+      </c>
+      <c r="H113" s="2">
         <v>1</v>
       </c>
       <c r="I113" s="9">
         <v>10000151</v>
       </c>
       <c r="J113" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L113" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="3">
-        <v>50000004</v>
+        <v>50000007</v>
       </c>
       <c r="D114" s="3">
-        <v>50000005</v>
+        <v>50000008</v>
       </c>
       <c r="E114" s="2">
         <v>1</v>
@@ -5273,27 +5269,27 @@
         <v>100</v>
       </c>
       <c r="G114" s="3">
-        <v>10011013</v>
-      </c>
-      <c r="H114" s="3">
+        <v>10032014</v>
+      </c>
+      <c r="H114" s="2">
         <v>1</v>
       </c>
       <c r="I114" s="9">
         <v>10000151</v>
       </c>
       <c r="J114" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L114" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="3">
-        <v>50000005</v>
+        <v>50000008</v>
       </c>
       <c r="D115" s="3">
-        <v>50000006</v>
+        <v>50000009</v>
       </c>
       <c r="E115" s="2">
         <v>1</v>
@@ -5302,7 +5298,7 @@
         <v>100</v>
       </c>
       <c r="G115" s="3">
-        <v>10000105</v>
+        <v>10000156</v>
       </c>
       <c r="H115" s="2">
         <v>1</v>
@@ -5313,16 +5309,16 @@
       <c r="J115" s="3">
         <v>10</v>
       </c>
-      <c r="L115" s="17" t="s">
-        <v>31</v>
+      <c r="L115" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="3">
-        <v>50000006</v>
+        <v>50000009</v>
       </c>
       <c r="D116" s="3">
-        <v>50000007</v>
+        <v>50000010</v>
       </c>
       <c r="E116" s="2">
         <v>1</v>
@@ -5331,7 +5327,7 @@
         <v>100</v>
       </c>
       <c r="G116" s="3">
-        <v>10032009</v>
+        <v>10049101</v>
       </c>
       <c r="H116" s="2">
         <v>1</v>
@@ -5340,18 +5336,18 @@
         <v>10000151</v>
       </c>
       <c r="J116" s="3">
-        <v>25</v>
-      </c>
-      <c r="L116" s="17" t="s">
-        <v>32</v>
+        <v>100</v>
+      </c>
+      <c r="L116" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="3">
-        <v>50000007</v>
+        <v>50000010</v>
       </c>
       <c r="D117" s="3">
-        <v>50000008</v>
+        <v>50000011</v>
       </c>
       <c r="E117" s="2">
         <v>1</v>
@@ -5360,7 +5356,7 @@
         <v>100</v>
       </c>
       <c r="G117" s="3">
-        <v>10032014</v>
+        <v>1030026</v>
       </c>
       <c r="H117" s="2">
         <v>1</v>
@@ -5369,18 +5365,18 @@
         <v>10000151</v>
       </c>
       <c r="J117" s="3">
-        <v>25</v>
-      </c>
-      <c r="L117" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="L117" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="3">
-        <v>50000008</v>
+        <v>50000011</v>
       </c>
       <c r="D118" s="3">
-        <v>50000009</v>
+        <v>50000012</v>
       </c>
       <c r="E118" s="2">
         <v>1</v>
@@ -5389,7 +5385,7 @@
         <v>100</v>
       </c>
       <c r="G118" s="3">
-        <v>10000156</v>
+        <v>10000152</v>
       </c>
       <c r="H118" s="2">
         <v>1</v>
@@ -5398,18 +5394,18 @@
         <v>10000151</v>
       </c>
       <c r="J118" s="3">
-        <v>10</v>
-      </c>
-      <c r="L118" s="17" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="L118" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="3">
-        <v>50000009</v>
+        <v>50000012</v>
       </c>
       <c r="D119" s="3">
-        <v>50000010</v>
+        <v>50000013</v>
       </c>
       <c r="E119" s="2">
         <v>1</v>
@@ -5418,7 +5414,7 @@
         <v>100</v>
       </c>
       <c r="G119" s="3">
-        <v>10049101</v>
+        <v>10000157</v>
       </c>
       <c r="H119" s="2">
         <v>1</v>
@@ -5427,18 +5423,18 @@
         <v>10000151</v>
       </c>
       <c r="J119" s="3">
-        <v>100</v>
-      </c>
-      <c r="L119" s="17" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="L119" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="3">
-        <v>50000010</v>
+        <v>50000013</v>
       </c>
       <c r="D120" s="3">
-        <v>50000011</v>
+        <v>50000014</v>
       </c>
       <c r="E120" s="2">
         <v>1</v>
@@ -5447,7 +5443,7 @@
         <v>100</v>
       </c>
       <c r="G120" s="3">
-        <v>1030026</v>
+        <v>10000150</v>
       </c>
       <c r="H120" s="2">
         <v>1</v>
@@ -5456,18 +5452,18 @@
         <v>10000151</v>
       </c>
       <c r="J120" s="3">
-        <v>10</v>
-      </c>
-      <c r="L120" s="17" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="L120" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C121" s="3">
-        <v>50000011</v>
+        <v>50000014</v>
       </c>
       <c r="D121" s="3">
-        <v>50000012</v>
+        <v>50000015</v>
       </c>
       <c r="E121" s="2">
         <v>1</v>
@@ -5476,7 +5472,7 @@
         <v>100</v>
       </c>
       <c r="G121" s="3">
-        <v>10000152</v>
+        <v>1030078</v>
       </c>
       <c r="H121" s="2">
         <v>1</v>
@@ -5485,18 +5481,18 @@
         <v>10000151</v>
       </c>
       <c r="J121" s="3">
-        <v>1</v>
-      </c>
-      <c r="L121" s="17" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="L121" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C122" s="3">
-        <v>50000012</v>
+        <v>50000015</v>
       </c>
       <c r="D122" s="3">
-        <v>50000013</v>
+        <v>50000016</v>
       </c>
       <c r="E122" s="2">
         <v>1</v>
@@ -5505,7 +5501,7 @@
         <v>100</v>
       </c>
       <c r="G122" s="3">
-        <v>10000157</v>
+        <v>1030079</v>
       </c>
       <c r="H122" s="2">
         <v>1</v>
@@ -5514,18 +5510,18 @@
         <v>10000151</v>
       </c>
       <c r="J122" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L122" s="17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="3">
-        <v>50000013</v>
+        <v>50000016</v>
       </c>
       <c r="D123" s="3">
-        <v>50000014</v>
+        <v>50000017</v>
       </c>
       <c r="E123" s="2">
         <v>1</v>
@@ -5533,8 +5529,8 @@
       <c r="F123" s="3">
         <v>100</v>
       </c>
-      <c r="G123" s="3">
-        <v>10000150</v>
+      <c r="G123" s="9">
+        <v>10000174</v>
       </c>
       <c r="H123" s="2">
         <v>1</v>
@@ -5543,18 +5539,18 @@
         <v>10000151</v>
       </c>
       <c r="J123" s="3">
-        <v>3</v>
-      </c>
-      <c r="L123" s="17" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="L123" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="124" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C124" s="3">
-        <v>50000014</v>
+        <v>50000017</v>
       </c>
       <c r="D124" s="3">
-        <v>50000015</v>
+        <v>0</v>
       </c>
       <c r="E124" s="2">
         <v>1</v>
@@ -5562,8 +5558,8 @@
       <c r="F124" s="3">
         <v>100</v>
       </c>
-      <c r="G124" s="3">
-        <v>1030078</v>
+      <c r="G124" s="9">
+        <v>10000175</v>
       </c>
       <c r="H124" s="2">
         <v>1</v>
@@ -5572,107 +5568,121 @@
         <v>10000151</v>
       </c>
       <c r="J124" s="3">
-        <v>5</v>
-      </c>
-      <c r="L124" s="13" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="L124" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="125" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
       <c r="C125" s="3">
-        <v>50000015</v>
+        <v>60000001</v>
       </c>
       <c r="D125" s="3">
-        <v>50000016</v>
-      </c>
-      <c r="E125" s="2">
+        <v>60000002</v>
+      </c>
+      <c r="E125" s="3">
         <v>1</v>
       </c>
       <c r="F125" s="3">
         <v>100</v>
       </c>
       <c r="G125" s="3">
-        <v>1030079</v>
-      </c>
-      <c r="H125" s="2">
-        <v>1</v>
+        <v>10000143</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="I125" s="9">
-        <v>10000151</v>
+        <v>10000157</v>
       </c>
       <c r="J125" s="3">
-        <v>5</v>
-      </c>
-      <c r="L125" s="18" t="s">
-        <v>40</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K125" s="3"/>
+      <c r="L125" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M125" s="3"/>
+      <c r="N125" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O125" s="3"/>
     </row>
     <row r="126" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
       <c r="C126" s="3">
-        <v>50000016</v>
+        <v>60000002</v>
       </c>
       <c r="D126" s="3">
-        <v>50000017</v>
-      </c>
-      <c r="E126" s="2">
+        <v>60000003</v>
+      </c>
+      <c r="E126" s="3">
         <v>1</v>
       </c>
       <c r="F126" s="3">
         <v>100</v>
       </c>
-      <c r="G126" s="9">
-        <v>10000174</v>
-      </c>
-      <c r="H126" s="2">
+      <c r="G126" s="3">
+        <v>1030093</v>
+      </c>
+      <c r="H126" s="12">
         <v>1</v>
       </c>
       <c r="I126" s="9">
-        <v>10000151</v>
-      </c>
-      <c r="J126" s="3">
-        <v>20</v>
-      </c>
+        <v>10000143</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K126" s="3"/>
       <c r="L126" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="M126" s="3"/>
+      <c r="N126" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O126" s="3"/>
+    </row>
+    <row r="127" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C127" s="3">
-        <v>50000017</v>
+        <v>60000003</v>
       </c>
       <c r="D127" s="3">
-        <v>0</v>
-      </c>
-      <c r="E127" s="2">
+        <v>60000004</v>
+      </c>
+      <c r="E127" s="3">
         <v>1</v>
       </c>
       <c r="F127" s="3">
         <v>100</v>
       </c>
-      <c r="G127" s="9">
-        <v>10000175</v>
-      </c>
-      <c r="H127" s="2">
-        <v>1</v>
-      </c>
-      <c r="I127" s="9">
-        <v>10000151</v>
+      <c r="G127" s="13">
+        <v>10012001</v>
+      </c>
+      <c r="H127" s="3">
+        <v>1</v>
+      </c>
+      <c r="I127" s="3">
+        <v>10010029</v>
       </c>
       <c r="J127" s="3">
-        <v>30</v>
-      </c>
-      <c r="L127" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="L127" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C128" s="3">
-        <v>60000001</v>
+        <v>60000004</v>
       </c>
       <c r="D128" s="3">
-        <v>60000002</v>
+        <v>60000005</v>
       </c>
       <c r="E128" s="3">
         <v>1</v>
@@ -5680,36 +5690,28 @@
       <c r="F128" s="3">
         <v>100</v>
       </c>
-      <c r="G128" s="3">
-        <v>10000143</v>
-      </c>
-      <c r="H128" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I128" s="9">
-        <v>10000157</v>
+      <c r="G128" s="13">
+        <v>10012002</v>
+      </c>
+      <c r="H128" s="3">
+        <v>1</v>
+      </c>
+      <c r="I128" s="3">
+        <v>10010029</v>
       </c>
       <c r="J128" s="3">
-        <v>1</v>
-      </c>
-      <c r="K128" s="3"/>
-      <c r="L128" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="M128" s="3"/>
-      <c r="N128" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O128" s="3"/>
-    </row>
-    <row r="129" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="L128" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C129" s="3">
-        <v>60000002</v>
+        <v>60000005</v>
       </c>
       <c r="D129" s="3">
-        <v>60000003</v>
+        <v>60000006</v>
       </c>
       <c r="E129" s="3">
         <v>1</v>
@@ -5717,34 +5719,28 @@
       <c r="F129" s="3">
         <v>100</v>
       </c>
-      <c r="G129" s="3">
-        <v>1030093</v>
-      </c>
-      <c r="H129" s="13">
-        <v>1</v>
-      </c>
-      <c r="I129" s="9">
-        <v>10000143</v>
-      </c>
-      <c r="J129" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K129" s="3"/>
+      <c r="G129" s="13">
+        <v>10012003</v>
+      </c>
+      <c r="H129" s="3">
+        <v>1</v>
+      </c>
+      <c r="I129" s="3">
+        <v>10010029</v>
+      </c>
+      <c r="J129" s="3">
+        <v>10</v>
+      </c>
       <c r="L129" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="M129" s="3"/>
-      <c r="N129" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O129" s="3"/>
-    </row>
-    <row r="130" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C130" s="3">
-        <v>60000003</v>
+        <v>60000006</v>
       </c>
       <c r="D130" s="3">
-        <v>60000004</v>
+        <v>60000007</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
@@ -5752,8 +5748,8 @@
       <c r="F130" s="3">
         <v>100</v>
       </c>
-      <c r="G130" s="14">
-        <v>10012001</v>
+      <c r="G130" s="13">
+        <v>10012004</v>
       </c>
       <c r="H130" s="3">
         <v>1</v>
@@ -5764,16 +5760,16 @@
       <c r="J130" s="3">
         <v>10</v>
       </c>
-      <c r="L130" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L130" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C131" s="3">
-        <v>60000004</v>
+        <v>60000007</v>
       </c>
       <c r="D131" s="3">
-        <v>60000005</v>
+        <v>60000008</v>
       </c>
       <c r="E131" s="3">
         <v>1</v>
@@ -5781,8 +5777,8 @@
       <c r="F131" s="3">
         <v>100</v>
       </c>
-      <c r="G131" s="14">
-        <v>10012002</v>
+      <c r="G131" s="13">
+        <v>10012005</v>
       </c>
       <c r="H131" s="3">
         <v>1</v>
@@ -5793,16 +5789,16 @@
       <c r="J131" s="3">
         <v>10</v>
       </c>
-      <c r="L131" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L131" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="132" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C132" s="3">
-        <v>60000005</v>
+        <v>60000008</v>
       </c>
       <c r="D132" s="3">
-        <v>60000006</v>
+        <v>60000009</v>
       </c>
       <c r="E132" s="3">
         <v>1</v>
@@ -5810,8 +5806,8 @@
       <c r="F132" s="3">
         <v>100</v>
       </c>
-      <c r="G132" s="14">
-        <v>10012003</v>
+      <c r="G132" s="13">
+        <v>10012006</v>
       </c>
       <c r="H132" s="3">
         <v>1</v>
@@ -5822,16 +5818,16 @@
       <c r="J132" s="3">
         <v>10</v>
       </c>
-      <c r="L132" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L132" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C133" s="3">
-        <v>60000006</v>
+        <v>60000009</v>
       </c>
       <c r="D133" s="3">
-        <v>60000007</v>
+        <v>60000010</v>
       </c>
       <c r="E133" s="3">
         <v>1</v>
@@ -5839,8 +5835,8 @@
       <c r="F133" s="3">
         <v>100</v>
       </c>
-      <c r="G133" s="14">
-        <v>10012004</v>
+      <c r="G133" s="13">
+        <v>10012007</v>
       </c>
       <c r="H133" s="3">
         <v>1</v>
@@ -5851,16 +5847,16 @@
       <c r="J133" s="3">
         <v>10</v>
       </c>
-      <c r="L133" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L133" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="134" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C134" s="3">
-        <v>60000007</v>
+        <v>60000010</v>
       </c>
       <c r="D134" s="3">
-        <v>60000008</v>
+        <v>60000011</v>
       </c>
       <c r="E134" s="3">
         <v>1</v>
@@ -5868,8 +5864,8 @@
       <c r="F134" s="3">
         <v>100</v>
       </c>
-      <c r="G134" s="14">
-        <v>10012005</v>
+      <c r="G134" s="13">
+        <v>10012008</v>
       </c>
       <c r="H134" s="3">
         <v>1</v>
@@ -5880,16 +5876,16 @@
       <c r="J134" s="3">
         <v>10</v>
       </c>
-      <c r="L134" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L134" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C135" s="3">
-        <v>60000008</v>
+        <v>60000011</v>
       </c>
       <c r="D135" s="3">
-        <v>60000009</v>
+        <v>60000012</v>
       </c>
       <c r="E135" s="3">
         <v>1</v>
@@ -5897,8 +5893,8 @@
       <c r="F135" s="3">
         <v>100</v>
       </c>
-      <c r="G135" s="14">
-        <v>10012006</v>
+      <c r="G135" s="13">
+        <v>10012009</v>
       </c>
       <c r="H135" s="3">
         <v>1</v>
@@ -5909,16 +5905,16 @@
       <c r="J135" s="3">
         <v>10</v>
       </c>
-      <c r="L135" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L135" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C136" s="3">
-        <v>60000009</v>
+        <v>60000012</v>
       </c>
       <c r="D136" s="3">
-        <v>60000010</v>
+        <v>60000013</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
@@ -5926,8 +5922,8 @@
       <c r="F136" s="3">
         <v>100</v>
       </c>
-      <c r="G136" s="14">
-        <v>10012007</v>
+      <c r="G136" s="13">
+        <v>10012010</v>
       </c>
       <c r="H136" s="3">
         <v>1</v>
@@ -5938,16 +5934,16 @@
       <c r="J136" s="3">
         <v>10</v>
       </c>
-      <c r="L136" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L136" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="137" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C137" s="3">
-        <v>60000010</v>
+        <v>60000013</v>
       </c>
       <c r="D137" s="3">
-        <v>60000011</v>
+        <v>60000014</v>
       </c>
       <c r="E137" s="3">
         <v>1</v>
@@ -5955,8 +5951,8 @@
       <c r="F137" s="3">
         <v>100</v>
       </c>
-      <c r="G137" s="14">
-        <v>10012008</v>
+      <c r="G137" s="13">
+        <v>10012011</v>
       </c>
       <c r="H137" s="3">
         <v>1</v>
@@ -5967,16 +5963,16 @@
       <c r="J137" s="3">
         <v>10</v>
       </c>
-      <c r="L137" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L137" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C138" s="3">
-        <v>60000011</v>
+        <v>60000014</v>
       </c>
       <c r="D138" s="3">
-        <v>60000012</v>
+        <v>60000015</v>
       </c>
       <c r="E138" s="3">
         <v>1</v>
@@ -5984,8 +5980,8 @@
       <c r="F138" s="3">
         <v>100</v>
       </c>
-      <c r="G138" s="14">
-        <v>10012009</v>
+      <c r="G138" s="13">
+        <v>10012012</v>
       </c>
       <c r="H138" s="3">
         <v>1</v>
@@ -5996,16 +5992,16 @@
       <c r="J138" s="3">
         <v>10</v>
       </c>
-      <c r="L138" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L138" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="139" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C139" s="3">
-        <v>60000012</v>
+        <v>60000015</v>
       </c>
       <c r="D139" s="3">
-        <v>60000013</v>
+        <v>60000016</v>
       </c>
       <c r="E139" s="3">
         <v>1</v>
@@ -6013,8 +6009,8 @@
       <c r="F139" s="3">
         <v>100</v>
       </c>
-      <c r="G139" s="14">
-        <v>10012010</v>
+      <c r="G139" s="13">
+        <v>10012013</v>
       </c>
       <c r="H139" s="3">
         <v>1</v>
@@ -6025,16 +6021,16 @@
       <c r="J139" s="3">
         <v>10</v>
       </c>
-      <c r="L139" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L139" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C140" s="3">
-        <v>60000013</v>
+        <v>60000016</v>
       </c>
       <c r="D140" s="3">
-        <v>60000014</v>
+        <v>60000017</v>
       </c>
       <c r="E140" s="3">
         <v>1</v>
@@ -6042,8 +6038,8 @@
       <c r="F140" s="3">
         <v>100</v>
       </c>
-      <c r="G140" s="14">
-        <v>10012011</v>
+      <c r="G140" s="13">
+        <v>10012014</v>
       </c>
       <c r="H140" s="3">
         <v>1</v>
@@ -6054,16 +6050,16 @@
       <c r="J140" s="3">
         <v>10</v>
       </c>
-      <c r="L140" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L140" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C141" s="3">
-        <v>60000014</v>
+        <v>60000017</v>
       </c>
       <c r="D141" s="3">
-        <v>60000015</v>
+        <v>60000018</v>
       </c>
       <c r="E141" s="3">
         <v>1</v>
@@ -6071,8 +6067,8 @@
       <c r="F141" s="3">
         <v>100</v>
       </c>
-      <c r="G141" s="14">
-        <v>10012012</v>
+      <c r="G141" s="13">
+        <v>10012015</v>
       </c>
       <c r="H141" s="3">
         <v>1</v>
@@ -6083,16 +6079,16 @@
       <c r="J141" s="3">
         <v>10</v>
       </c>
-      <c r="L141" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L141" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="142" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C142" s="3">
-        <v>60000015</v>
+        <v>60000018</v>
       </c>
       <c r="D142" s="3">
-        <v>60000016</v>
+        <v>60000019</v>
       </c>
       <c r="E142" s="3">
         <v>1</v>
@@ -6100,8 +6096,8 @@
       <c r="F142" s="3">
         <v>100</v>
       </c>
-      <c r="G142" s="14">
-        <v>10012013</v>
+      <c r="G142" s="13">
+        <v>10012016</v>
       </c>
       <c r="H142" s="3">
         <v>1</v>
@@ -6112,16 +6108,16 @@
       <c r="J142" s="3">
         <v>10</v>
       </c>
-      <c r="L142" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L142" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C143" s="3">
-        <v>60000016</v>
+        <v>60000019</v>
       </c>
       <c r="D143" s="3">
-        <v>60000017</v>
+        <v>60000020</v>
       </c>
       <c r="E143" s="3">
         <v>1</v>
@@ -6129,8 +6125,8 @@
       <c r="F143" s="3">
         <v>100</v>
       </c>
-      <c r="G143" s="14">
-        <v>10012014</v>
+      <c r="G143" s="13">
+        <v>10012017</v>
       </c>
       <c r="H143" s="3">
         <v>1</v>
@@ -6141,16 +6137,16 @@
       <c r="J143" s="3">
         <v>10</v>
       </c>
-      <c r="L143" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L143" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="144" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C144" s="3">
-        <v>60000017</v>
+        <v>60000020</v>
       </c>
       <c r="D144" s="3">
-        <v>60000018</v>
+        <v>60000021</v>
       </c>
       <c r="E144" s="3">
         <v>1</v>
@@ -6158,8 +6154,8 @@
       <c r="F144" s="3">
         <v>100</v>
       </c>
-      <c r="G144" s="14">
-        <v>10012015</v>
+      <c r="G144" s="13">
+        <v>10012018</v>
       </c>
       <c r="H144" s="3">
         <v>1</v>
@@ -6170,16 +6166,16 @@
       <c r="J144" s="3">
         <v>10</v>
       </c>
-      <c r="L144" s="14" t="s">
-        <v>59</v>
+      <c r="L144" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="145" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C145" s="3">
-        <v>60000018</v>
+        <v>60000021</v>
       </c>
       <c r="D145" s="3">
-        <v>60000019</v>
+        <v>60000022</v>
       </c>
       <c r="E145" s="3">
         <v>1</v>
@@ -6187,8 +6183,8 @@
       <c r="F145" s="3">
         <v>100</v>
       </c>
-      <c r="G145" s="14">
-        <v>10012016</v>
+      <c r="G145" s="13">
+        <v>10012019</v>
       </c>
       <c r="H145" s="3">
         <v>1</v>
@@ -6199,16 +6195,16 @@
       <c r="J145" s="3">
         <v>10</v>
       </c>
-      <c r="L145" s="14" t="s">
-        <v>60</v>
+      <c r="L145" s="13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="146" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C146" s="3">
-        <v>60000019</v>
+        <v>60000022</v>
       </c>
       <c r="D146" s="3">
-        <v>60000020</v>
+        <v>60000023</v>
       </c>
       <c r="E146" s="3">
         <v>1</v>
@@ -6216,8 +6212,8 @@
       <c r="F146" s="3">
         <v>100</v>
       </c>
-      <c r="G146" s="14">
-        <v>10012017</v>
+      <c r="G146" s="13">
+        <v>10012020</v>
       </c>
       <c r="H146" s="3">
         <v>1</v>
@@ -6226,18 +6222,18 @@
         <v>10010029</v>
       </c>
       <c r="J146" s="3">
-        <v>10</v>
-      </c>
-      <c r="L146" s="14" t="s">
-        <v>61</v>
+        <v>15</v>
+      </c>
+      <c r="L146" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="147" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C147" s="3">
-        <v>60000020</v>
+        <v>60000023</v>
       </c>
       <c r="D147" s="3">
-        <v>60000021</v>
+        <v>60000024</v>
       </c>
       <c r="E147" s="3">
         <v>1</v>
@@ -6245,8 +6241,8 @@
       <c r="F147" s="3">
         <v>100</v>
       </c>
-      <c r="G147" s="14">
-        <v>10012018</v>
+      <c r="G147" s="13">
+        <v>10012021</v>
       </c>
       <c r="H147" s="3">
         <v>1</v>
@@ -6255,18 +6251,18 @@
         <v>10010029</v>
       </c>
       <c r="J147" s="3">
-        <v>10</v>
-      </c>
-      <c r="L147" s="14" t="s">
-        <v>62</v>
+        <v>15</v>
+      </c>
+      <c r="L147" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="148" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C148" s="3">
-        <v>60000021</v>
+        <v>60000024</v>
       </c>
       <c r="D148" s="3">
-        <v>60000022</v>
+        <v>60000025</v>
       </c>
       <c r="E148" s="3">
         <v>1</v>
@@ -6274,8 +6270,8 @@
       <c r="F148" s="3">
         <v>100</v>
       </c>
-      <c r="G148" s="14">
-        <v>10012019</v>
+      <c r="G148" s="13">
+        <v>10012022</v>
       </c>
       <c r="H148" s="3">
         <v>1</v>
@@ -6284,18 +6280,18 @@
         <v>10010029</v>
       </c>
       <c r="J148" s="3">
-        <v>10</v>
-      </c>
-      <c r="L148" s="14" t="s">
-        <v>63</v>
+        <v>15</v>
+      </c>
+      <c r="L148" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="149" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C149" s="3">
-        <v>60000022</v>
+        <v>60000025</v>
       </c>
       <c r="D149" s="3">
-        <v>60000023</v>
+        <v>60000026</v>
       </c>
       <c r="E149" s="3">
         <v>1</v>
@@ -6303,8 +6299,8 @@
       <c r="F149" s="3">
         <v>100</v>
       </c>
-      <c r="G149" s="14">
-        <v>10012020</v>
+      <c r="G149" s="13">
+        <v>10012023</v>
       </c>
       <c r="H149" s="3">
         <v>1</v>
@@ -6315,16 +6311,16 @@
       <c r="J149" s="3">
         <v>15</v>
       </c>
-      <c r="L149" s="14" t="s">
-        <v>64</v>
+      <c r="L149" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="150" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C150" s="3">
-        <v>60000023</v>
+        <v>60000026</v>
       </c>
       <c r="D150" s="3">
-        <v>60000024</v>
+        <v>60000027</v>
       </c>
       <c r="E150" s="3">
         <v>1</v>
@@ -6332,8 +6328,8 @@
       <c r="F150" s="3">
         <v>100</v>
       </c>
-      <c r="G150" s="14">
-        <v>10012021</v>
+      <c r="G150" s="13">
+        <v>10012024</v>
       </c>
       <c r="H150" s="3">
         <v>1</v>
@@ -6344,16 +6340,16 @@
       <c r="J150" s="3">
         <v>15</v>
       </c>
-      <c r="L150" s="14" t="s">
-        <v>65</v>
+      <c r="L150" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="151" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C151" s="3">
-        <v>60000024</v>
+        <v>60000027</v>
       </c>
       <c r="D151" s="3">
-        <v>60000025</v>
+        <v>60000028</v>
       </c>
       <c r="E151" s="3">
         <v>1</v>
@@ -6361,8 +6357,8 @@
       <c r="F151" s="3">
         <v>100</v>
       </c>
-      <c r="G151" s="14">
-        <v>10012022</v>
+      <c r="G151" s="13">
+        <v>10012025</v>
       </c>
       <c r="H151" s="3">
         <v>1</v>
@@ -6373,16 +6369,16 @@
       <c r="J151" s="3">
         <v>15</v>
       </c>
-      <c r="L151" s="14" t="s">
-        <v>66</v>
+      <c r="L151" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="152" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C152" s="3">
-        <v>60000025</v>
+        <v>60000028</v>
       </c>
       <c r="D152" s="3">
-        <v>60000026</v>
+        <v>60000029</v>
       </c>
       <c r="E152" s="3">
         <v>1</v>
@@ -6390,8 +6386,8 @@
       <c r="F152" s="3">
         <v>100</v>
       </c>
-      <c r="G152" s="14">
-        <v>10012023</v>
+      <c r="G152" s="13">
+        <v>10012026</v>
       </c>
       <c r="H152" s="3">
         <v>1</v>
@@ -6402,16 +6398,16 @@
       <c r="J152" s="3">
         <v>15</v>
       </c>
-      <c r="L152" s="14" t="s">
-        <v>67</v>
+      <c r="L152" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="153" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C153" s="3">
-        <v>60000026</v>
+        <v>60000029</v>
       </c>
       <c r="D153" s="3">
-        <v>60000027</v>
+        <v>0</v>
       </c>
       <c r="E153" s="3">
         <v>1</v>
@@ -6419,8 +6415,8 @@
       <c r="F153" s="3">
         <v>100</v>
       </c>
-      <c r="G153" s="14">
-        <v>10012024</v>
+      <c r="G153" s="13">
+        <v>10012027</v>
       </c>
       <c r="H153" s="3">
         <v>1</v>
@@ -6431,16 +6427,16 @@
       <c r="J153" s="3">
         <v>15</v>
       </c>
-      <c r="L153" s="14" t="s">
-        <v>68</v>
+      <c r="L153" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="154" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C154" s="3">
-        <v>60000027</v>
+        <v>70000001</v>
       </c>
       <c r="D154" s="3">
-        <v>60000028</v>
+        <v>70000002</v>
       </c>
       <c r="E154" s="3">
         <v>1</v>
@@ -6448,28 +6444,28 @@
       <c r="F154" s="3">
         <v>100</v>
       </c>
-      <c r="G154" s="14">
-        <v>10012025</v>
+      <c r="G154" s="9">
+        <v>1030093</v>
       </c>
       <c r="H154" s="3">
         <v>1</v>
       </c>
-      <c r="I154" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J154" s="3">
-        <v>15</v>
-      </c>
-      <c r="L154" s="14" t="s">
-        <v>69</v>
+      <c r="I154" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J154" s="8">
+        <v>30</v>
+      </c>
+      <c r="L154" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="155" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C155" s="3">
-        <v>60000028</v>
+        <v>70000002</v>
       </c>
       <c r="D155" s="3">
-        <v>60000029</v>
+        <v>70000003</v>
       </c>
       <c r="E155" s="3">
         <v>1</v>
@@ -6477,28 +6473,28 @@
       <c r="F155" s="3">
         <v>100</v>
       </c>
-      <c r="G155" s="14">
-        <v>10012026</v>
+      <c r="G155" s="9">
+        <v>10000162</v>
       </c>
       <c r="H155" s="3">
         <v>1</v>
       </c>
-      <c r="I155" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J155" s="3">
-        <v>15</v>
-      </c>
-      <c r="L155" s="14" t="s">
-        <v>70</v>
+      <c r="I155" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J155" s="8">
+        <v>20</v>
+      </c>
+      <c r="L155" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="156" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C156" s="3">
-        <v>60000029</v>
+        <v>70000003</v>
       </c>
       <c r="D156" s="3">
-        <v>0</v>
+        <v>70000004</v>
       </c>
       <c r="E156" s="3">
         <v>1</v>
@@ -6506,28 +6502,28 @@
       <c r="F156" s="3">
         <v>100</v>
       </c>
-      <c r="G156" s="14">
-        <v>10012027</v>
+      <c r="G156" s="9">
+        <v>1030045</v>
       </c>
       <c r="H156" s="3">
         <v>1</v>
       </c>
-      <c r="I156" s="3">
-        <v>10010029</v>
-      </c>
-      <c r="J156" s="3">
-        <v>15</v>
-      </c>
-      <c r="L156" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="157" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I156" s="8">
+        <v>10000159</v>
+      </c>
+      <c r="J156" s="8">
+        <v>30</v>
+      </c>
+      <c r="L156" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="157" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C157" s="3">
-        <v>70000001</v>
+        <v>70000004</v>
       </c>
       <c r="D157" s="3">
-        <v>70000002</v>
+        <v>70000005</v>
       </c>
       <c r="E157" s="3">
         <v>1</v>
@@ -6536,7 +6532,7 @@
         <v>100</v>
       </c>
       <c r="G157" s="9">
-        <v>1030093</v>
+        <v>10000158</v>
       </c>
       <c r="H157" s="3">
         <v>1</v>
@@ -6545,18 +6541,18 @@
         <v>10000159</v>
       </c>
       <c r="J157" s="8">
-        <v>30</v>
-      </c>
-      <c r="L157" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="158" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="L157" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="158" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C158" s="3">
-        <v>70000002</v>
+        <v>70000005</v>
       </c>
       <c r="D158" s="3">
-        <v>70000003</v>
+        <v>70000006</v>
       </c>
       <c r="E158" s="3">
         <v>1</v>
@@ -6565,7 +6561,7 @@
         <v>100</v>
       </c>
       <c r="G158" s="9">
-        <v>10000162</v>
+        <v>1030083</v>
       </c>
       <c r="H158" s="3">
         <v>1</v>
@@ -6574,18 +6570,18 @@
         <v>10000159</v>
       </c>
       <c r="J158" s="8">
-        <v>20</v>
-      </c>
-      <c r="L158" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="159" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="L158" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="159" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C159" s="3">
-        <v>70000003</v>
+        <v>70000006</v>
       </c>
       <c r="D159" s="3">
-        <v>70000004</v>
+        <v>70000007</v>
       </c>
       <c r="E159" s="3">
         <v>1</v>
@@ -6594,7 +6590,7 @@
         <v>100</v>
       </c>
       <c r="G159" s="9">
-        <v>1030045</v>
+        <v>10000143</v>
       </c>
       <c r="H159" s="3">
         <v>1</v>
@@ -6603,18 +6599,18 @@
         <v>10000159</v>
       </c>
       <c r="J159" s="8">
-        <v>30</v>
-      </c>
-      <c r="L159" s="12" t="s">
-        <v>73</v>
+        <v>5</v>
+      </c>
+      <c r="L159" s="17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="160" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C160" s="3">
-        <v>70000004</v>
+        <v>70000007</v>
       </c>
       <c r="D160" s="3">
-        <v>70000005</v>
+        <v>70000008</v>
       </c>
       <c r="E160" s="3">
         <v>1</v>
@@ -6623,7 +6619,7 @@
         <v>100</v>
       </c>
       <c r="G160" s="9">
-        <v>10000158</v>
+        <v>10000152</v>
       </c>
       <c r="H160" s="3">
         <v>1</v>
@@ -6632,18 +6628,18 @@
         <v>10000159</v>
       </c>
       <c r="J160" s="8">
-        <v>20</v>
-      </c>
-      <c r="L160" s="9" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="L160" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="161" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C161" s="3">
-        <v>70000005</v>
+        <v>70000008</v>
       </c>
       <c r="D161" s="3">
-        <v>70000006</v>
+        <v>70000009</v>
       </c>
       <c r="E161" s="3">
         <v>1</v>
@@ -6652,7 +6648,7 @@
         <v>100</v>
       </c>
       <c r="G161" s="9">
-        <v>1030083</v>
+        <v>10000157</v>
       </c>
       <c r="H161" s="3">
         <v>1</v>
@@ -6661,18 +6657,18 @@
         <v>10000159</v>
       </c>
       <c r="J161" s="8">
-        <v>2</v>
-      </c>
-      <c r="L161" s="18" t="s">
-        <v>75</v>
+        <v>10</v>
+      </c>
+      <c r="L161" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="162" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C162" s="3">
-        <v>70000006</v>
+        <v>70000009</v>
       </c>
       <c r="D162" s="3">
-        <v>70000007</v>
+        <v>70000010</v>
       </c>
       <c r="E162" s="3">
         <v>1</v>
@@ -6681,7 +6677,7 @@
         <v>100</v>
       </c>
       <c r="G162" s="9">
-        <v>10000143</v>
+        <v>1030029</v>
       </c>
       <c r="H162" s="3">
         <v>1</v>
@@ -6692,16 +6688,16 @@
       <c r="J162" s="8">
         <v>5</v>
       </c>
-      <c r="L162" s="18" t="s">
-        <v>42</v>
+      <c r="L162" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="163" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="3">
-        <v>70000007</v>
+        <v>70000010</v>
       </c>
       <c r="D163" s="3">
-        <v>70000008</v>
+        <v>70000011</v>
       </c>
       <c r="E163" s="3">
         <v>1</v>
@@ -6710,7 +6706,7 @@
         <v>100</v>
       </c>
       <c r="G163" s="9">
-        <v>10000152</v>
+        <v>1030086</v>
       </c>
       <c r="H163" s="3">
         <v>1</v>
@@ -6722,15 +6718,15 @@
         <v>10</v>
       </c>
       <c r="L163" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C164" s="3">
-        <v>70000008</v>
+        <v>70000011</v>
       </c>
       <c r="D164" s="3">
-        <v>70000009</v>
+        <v>70000012</v>
       </c>
       <c r="E164" s="3">
         <v>1</v>
@@ -6738,8 +6734,8 @@
       <c r="F164" s="3">
         <v>100</v>
       </c>
-      <c r="G164" s="9">
-        <v>10000157</v>
+      <c r="G164" s="14">
+        <v>10010101</v>
       </c>
       <c r="H164" s="3">
         <v>1</v>
@@ -6748,18 +6744,18 @@
         <v>10000159</v>
       </c>
       <c r="J164" s="8">
-        <v>10</v>
-      </c>
-      <c r="L164" s="12" t="s">
-        <v>37</v>
+        <v>5</v>
+      </c>
+      <c r="L164" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="165" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C165" s="3">
-        <v>70000009</v>
+        <v>70000012</v>
       </c>
       <c r="D165" s="3">
-        <v>70000010</v>
+        <v>70000013</v>
       </c>
       <c r="E165" s="3">
         <v>1</v>
@@ -6767,8 +6763,8 @@
       <c r="F165" s="3">
         <v>100</v>
       </c>
-      <c r="G165" s="9">
-        <v>1030029</v>
+      <c r="G165" s="14">
+        <v>10010102</v>
       </c>
       <c r="H165" s="3">
         <v>1</v>
@@ -6777,18 +6773,18 @@
         <v>10000159</v>
       </c>
       <c r="J165" s="8">
-        <v>5</v>
-      </c>
-      <c r="L165" s="12" t="s">
-        <v>76</v>
+        <v>10</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="166" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C166" s="3">
-        <v>70000010</v>
+        <v>70000013</v>
       </c>
       <c r="D166" s="3">
-        <v>70000011</v>
+        <v>0</v>
       </c>
       <c r="E166" s="3">
         <v>1</v>
@@ -6796,8 +6792,8 @@
       <c r="F166" s="3">
         <v>100</v>
       </c>
-      <c r="G166" s="9">
-        <v>1030086</v>
+      <c r="G166" s="14">
+        <v>10010103</v>
       </c>
       <c r="H166" s="3">
         <v>1</v>
@@ -6806,76 +6802,76 @@
         <v>10000159</v>
       </c>
       <c r="J166" s="8">
-        <v>10</v>
-      </c>
-      <c r="L166" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="167" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C167" s="3">
+        <v>80000001</v>
+      </c>
+      <c r="D167" s="3">
+        <v>80000002</v>
+      </c>
+      <c r="E167" s="3">
+        <v>1</v>
+      </c>
+      <c r="F167" s="3">
+        <v>100</v>
+      </c>
+      <c r="G167" s="9">
+        <v>1030083</v>
+      </c>
+      <c r="H167" s="3">
+        <v>1</v>
+      </c>
+      <c r="I167" s="8">
+        <v>10000163</v>
+      </c>
+      <c r="J167" s="8">
+        <v>1</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="168" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C168" s="3">
+        <v>80000002</v>
+      </c>
+      <c r="D168" s="3">
+        <v>80000003</v>
+      </c>
+      <c r="E168" s="3">
+        <v>1</v>
+      </c>
+      <c r="F168" s="3">
+        <v>100</v>
+      </c>
+      <c r="G168" s="9">
+        <v>1030086</v>
+      </c>
+      <c r="H168" s="3">
+        <v>1</v>
+      </c>
+      <c r="I168" s="8">
+        <v>10000163</v>
+      </c>
+      <c r="J168" s="8">
+        <v>20</v>
+      </c>
+      <c r="L168" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C167" s="3">
-        <v>70000011</v>
-      </c>
-      <c r="D167" s="3">
-        <v>70000012</v>
-      </c>
-      <c r="E167" s="3">
-        <v>1</v>
-      </c>
-      <c r="F167" s="3">
-        <v>100</v>
-      </c>
-      <c r="G167" s="15">
-        <v>10010101</v>
-      </c>
-      <c r="H167" s="3">
-        <v>1</v>
-      </c>
-      <c r="I167" s="8">
-        <v>10000159</v>
-      </c>
-      <c r="J167" s="8">
-        <v>5</v>
-      </c>
-      <c r="L167" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="168" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C168" s="3">
-        <v>70000012</v>
-      </c>
-      <c r="D168" s="3">
-        <v>70000013</v>
-      </c>
-      <c r="E168" s="3">
-        <v>1</v>
-      </c>
-      <c r="F168" s="3">
-        <v>100</v>
-      </c>
-      <c r="G168" s="15">
-        <v>10010102</v>
-      </c>
-      <c r="H168" s="3">
-        <v>1</v>
-      </c>
-      <c r="I168" s="8">
-        <v>10000159</v>
-      </c>
-      <c r="J168" s="8">
-        <v>10</v>
-      </c>
-      <c r="L168" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="169" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C169" s="3">
-        <v>70000013</v>
+        <v>80000003</v>
       </c>
       <c r="D169" s="3">
-        <v>0</v>
+        <v>80000004</v>
       </c>
       <c r="E169" s="3">
         <v>1</v>
@@ -6883,28 +6879,28 @@
       <c r="F169" s="3">
         <v>100</v>
       </c>
-      <c r="G169" s="15">
-        <v>10010103</v>
+      <c r="G169" s="9">
+        <v>1030096</v>
       </c>
       <c r="H169" s="3">
         <v>1</v>
       </c>
       <c r="I169" s="8">
-        <v>10000159</v>
+        <v>10000163</v>
       </c>
       <c r="J169" s="8">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="170" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="170" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C170" s="3">
-        <v>80000001</v>
+        <v>80000004</v>
       </c>
       <c r="D170" s="3">
-        <v>80000002</v>
+        <v>80000005</v>
       </c>
       <c r="E170" s="3">
         <v>1</v>
@@ -6913,7 +6909,7 @@
         <v>100</v>
       </c>
       <c r="G170" s="9">
-        <v>1030083</v>
+        <v>10000139</v>
       </c>
       <c r="H170" s="3">
         <v>1</v>
@@ -6922,18 +6918,18 @@
         <v>10000163</v>
       </c>
       <c r="J170" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="171" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="171" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="3">
-        <v>80000002</v>
+        <v>80000005</v>
       </c>
       <c r="D171" s="3">
-        <v>80000003</v>
+        <v>80000006</v>
       </c>
       <c r="E171" s="3">
         <v>1</v>
@@ -6942,7 +6938,7 @@
         <v>100</v>
       </c>
       <c r="G171" s="9">
-        <v>1030086</v>
+        <v>10000143</v>
       </c>
       <c r="H171" s="3">
         <v>1</v>
@@ -6954,15 +6950,15 @@
         <v>20</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="172" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C172" s="3">
-        <v>80000003</v>
+        <v>80000006</v>
       </c>
       <c r="D172" s="3">
-        <v>80000004</v>
+        <v>80000007</v>
       </c>
       <c r="E172" s="3">
         <v>1</v>
@@ -6971,7 +6967,7 @@
         <v>100</v>
       </c>
       <c r="G172" s="9">
-        <v>1030096</v>
+        <v>10000152</v>
       </c>
       <c r="H172" s="3">
         <v>1</v>
@@ -6983,15 +6979,15 @@
         <v>35</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C173" s="3">
-        <v>80000004</v>
+        <v>80000007</v>
       </c>
       <c r="D173" s="3">
-        <v>80000005</v>
+        <v>80000008</v>
       </c>
       <c r="E173" s="3">
         <v>1</v>
@@ -7000,7 +6996,7 @@
         <v>100</v>
       </c>
       <c r="G173" s="9">
-        <v>10000139</v>
+        <v>10000155</v>
       </c>
       <c r="H173" s="3">
         <v>1</v>
@@ -7009,18 +7005,18 @@
         <v>10000163</v>
       </c>
       <c r="J173" s="8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="174" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C174" s="3">
-        <v>80000005</v>
+        <v>80000008</v>
       </c>
       <c r="D174" s="3">
-        <v>80000006</v>
+        <v>80000009</v>
       </c>
       <c r="E174" s="3">
         <v>1</v>
@@ -7029,7 +7025,7 @@
         <v>100</v>
       </c>
       <c r="G174" s="9">
-        <v>10000143</v>
+        <v>10000158</v>
       </c>
       <c r="H174" s="3">
         <v>1</v>
@@ -7041,15 +7037,15 @@
         <v>20</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="175" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C175" s="3">
-        <v>80000006</v>
+        <v>80000009</v>
       </c>
       <c r="D175" s="3">
-        <v>80000007</v>
+        <v>0</v>
       </c>
       <c r="E175" s="3">
         <v>1</v>
@@ -7058,7 +7054,7 @@
         <v>100</v>
       </c>
       <c r="G175" s="9">
-        <v>10000152</v>
+        <v>1030093</v>
       </c>
       <c r="H175" s="3">
         <v>1</v>
@@ -7070,102 +7066,101 @@
         <v>35</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="176" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C176" s="3">
-        <v>80000007</v>
+        <v>90000001</v>
       </c>
       <c r="D176" s="3">
-        <v>80000008</v>
-      </c>
-      <c r="E176" s="3">
+        <v>30000002</v>
+      </c>
+      <c r="E176" s="2">
         <v>1</v>
       </c>
       <c r="F176" s="3">
         <v>100</v>
       </c>
-      <c r="G176" s="9">
-        <v>10000155</v>
+      <c r="G176" s="3">
+        <v>10000144</v>
       </c>
       <c r="H176" s="3">
         <v>1</v>
       </c>
-      <c r="I176" s="8">
-        <v>10000163</v>
+      <c r="I176" s="9">
+        <v>10000148</v>
       </c>
       <c r="J176" s="8">
-        <v>5</v>
-      </c>
-      <c r="L176" s="3" t="s">
-        <v>82</v>
+        <v>10</v>
+      </c>
+      <c r="K176" s="2"/>
+      <c r="L176" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="177" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C177" s="3">
-        <v>80000008</v>
+        <v>90000002</v>
       </c>
       <c r="D177" s="3">
-        <v>80000009</v>
-      </c>
-      <c r="E177" s="3">
+        <v>30000003</v>
+      </c>
+      <c r="E177" s="2">
         <v>1</v>
       </c>
       <c r="F177" s="3">
         <v>100</v>
       </c>
-      <c r="G177" s="9">
-        <v>10000158</v>
+      <c r="G177" s="3">
+        <v>10000145</v>
       </c>
       <c r="H177" s="3">
         <v>1</v>
       </c>
-      <c r="I177" s="8">
-        <v>10000163</v>
+      <c r="I177" s="9">
+        <v>10000148</v>
       </c>
       <c r="J177" s="8">
-        <v>20</v>
-      </c>
-      <c r="L177" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
     </row>
     <row r="178" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C178" s="3">
-        <v>80000009</v>
+        <v>90000003</v>
       </c>
       <c r="D178" s="3">
-        <v>0</v>
-      </c>
-      <c r="E178" s="3">
+        <v>30000004</v>
+      </c>
+      <c r="E178" s="2">
         <v>1</v>
       </c>
       <c r="F178" s="3">
         <v>100</v>
       </c>
-      <c r="G178" s="9">
-        <v>1030093</v>
+      <c r="G178" s="3">
+        <v>10000146</v>
       </c>
       <c r="H178" s="3">
         <v>1</v>
       </c>
-      <c r="I178" s="8">
-        <v>10000163</v>
+      <c r="I178" s="9">
+        <v>10000148</v>
       </c>
       <c r="J178" s="8">
-        <v>35</v>
-      </c>
-      <c r="L178" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
     </row>
     <row r="179" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C179" s="3">
-        <v>90000001</v>
+        <v>90000004</v>
       </c>
       <c r="D179" s="3">
-        <v>30000002</v>
+        <v>30000005</v>
       </c>
       <c r="E179" s="2">
         <v>1</v>
@@ -7174,7 +7169,7 @@
         <v>100</v>
       </c>
       <c r="G179" s="3">
-        <v>10000144</v>
+        <v>10000147</v>
       </c>
       <c r="H179" s="3">
         <v>1</v>
@@ -7186,16 +7181,14 @@
         <v>10</v>
       </c>
       <c r="K179" s="2"/>
-      <c r="L179" s="7" t="s">
-        <v>83</v>
-      </c>
+      <c r="L179" s="2"/>
     </row>
     <row r="180" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C180" s="3">
-        <v>90000002</v>
+        <v>90000005</v>
       </c>
       <c r="D180" s="3">
-        <v>30000003</v>
+        <v>30000006</v>
       </c>
       <c r="E180" s="2">
         <v>1</v>
@@ -7204,7 +7197,7 @@
         <v>100</v>
       </c>
       <c r="G180" s="3">
-        <v>10000145</v>
+        <v>1030033</v>
       </c>
       <c r="H180" s="3">
         <v>1</v>
@@ -7212,18 +7205,18 @@
       <c r="I180" s="9">
         <v>10000148</v>
       </c>
-      <c r="J180" s="8">
-        <v>10</v>
+      <c r="J180" s="10">
+        <v>50</v>
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
     </row>
     <row r="181" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C181" s="3">
-        <v>90000003</v>
+        <v>90000006</v>
       </c>
       <c r="D181" s="3">
-        <v>30000004</v>
+        <v>30000007</v>
       </c>
       <c r="E181" s="2">
         <v>1</v>
@@ -7232,7 +7225,7 @@
         <v>100</v>
       </c>
       <c r="G181" s="3">
-        <v>10000146</v>
+        <v>1030083</v>
       </c>
       <c r="H181" s="3">
         <v>1</v>
@@ -7240,18 +7233,18 @@
       <c r="I181" s="9">
         <v>10000148</v>
       </c>
-      <c r="J181" s="8">
-        <v>10</v>
+      <c r="J181" s="10">
+        <v>5</v>
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
     </row>
     <row r="182" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C182" s="3">
-        <v>90000004</v>
+        <v>90000007</v>
       </c>
       <c r="D182" s="3">
-        <v>30000005</v>
+        <v>30000008</v>
       </c>
       <c r="E182" s="2">
         <v>1</v>
@@ -7260,7 +7253,7 @@
         <v>100</v>
       </c>
       <c r="G182" s="3">
-        <v>10000147</v>
+        <v>1030098</v>
       </c>
       <c r="H182" s="3">
         <v>1</v>
@@ -7268,18 +7261,18 @@
       <c r="I182" s="9">
         <v>10000148</v>
       </c>
-      <c r="J182" s="8">
-        <v>10</v>
+      <c r="J182" s="10">
+        <v>5</v>
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
     </row>
     <row r="183" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C183" s="3">
-        <v>90000005</v>
+        <v>90000008</v>
       </c>
       <c r="D183" s="3">
-        <v>30000006</v>
+        <v>30000009</v>
       </c>
       <c r="E183" s="2">
         <v>1</v>
@@ -7288,7 +7281,7 @@
         <v>100</v>
       </c>
       <c r="G183" s="3">
-        <v>1030033</v>
+        <v>1030085</v>
       </c>
       <c r="H183" s="3">
         <v>1</v>
@@ -7297,17 +7290,17 @@
         <v>10000148</v>
       </c>
       <c r="J183" s="10">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
     </row>
     <row r="184" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C184" s="3">
-        <v>90000006</v>
+        <v>90000009</v>
       </c>
       <c r="D184" s="3">
-        <v>30000007</v>
+        <v>30000010</v>
       </c>
       <c r="E184" s="2">
         <v>1</v>
@@ -7316,7 +7309,7 @@
         <v>100</v>
       </c>
       <c r="G184" s="3">
-        <v>1030083</v>
+        <v>10000131</v>
       </c>
       <c r="H184" s="3">
         <v>1</v>
@@ -7325,17 +7318,17 @@
         <v>10000148</v>
       </c>
       <c r="J184" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
     </row>
     <row r="185" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C185" s="3">
-        <v>90000007</v>
+        <v>90000010</v>
       </c>
       <c r="D185" s="3">
-        <v>30000008</v>
+        <v>0</v>
       </c>
       <c r="E185" s="2">
         <v>1</v>
@@ -7344,7 +7337,7 @@
         <v>100</v>
       </c>
       <c r="G185" s="3">
-        <v>1030098</v>
+        <v>10000132</v>
       </c>
       <c r="H185" s="3">
         <v>1</v>
@@ -7353,105 +7346,21 @@
         <v>10000148</v>
       </c>
       <c r="J185" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
     </row>
-    <row r="186" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C186" s="3">
-        <v>90000008</v>
-      </c>
-      <c r="D186" s="3">
-        <v>30000009</v>
-      </c>
-      <c r="E186" s="2">
-        <v>1</v>
-      </c>
-      <c r="F186" s="3">
-        <v>100</v>
-      </c>
-      <c r="G186" s="3">
-        <v>1030085</v>
-      </c>
-      <c r="H186" s="3">
-        <v>1</v>
-      </c>
-      <c r="I186" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J186" s="10">
-        <v>2</v>
-      </c>
-      <c r="K186" s="2"/>
-      <c r="L186" s="2"/>
-    </row>
-    <row r="187" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C187" s="3">
-        <v>90000009</v>
-      </c>
-      <c r="D187" s="3">
-        <v>30000010</v>
-      </c>
-      <c r="E187" s="2">
-        <v>1</v>
-      </c>
-      <c r="F187" s="3">
-        <v>100</v>
-      </c>
-      <c r="G187" s="3">
-        <v>10000131</v>
-      </c>
-      <c r="H187" s="3">
-        <v>1</v>
-      </c>
-      <c r="I187" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J187" s="10">
-        <v>3</v>
-      </c>
-      <c r="K187" s="2"/>
-      <c r="L187" s="2"/>
-    </row>
-    <row r="188" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C188" s="3">
-        <v>90000010</v>
-      </c>
-      <c r="D188" s="3">
-        <v>0</v>
-      </c>
-      <c r="E188" s="2">
-        <v>1</v>
-      </c>
-      <c r="F188" s="3">
-        <v>100</v>
-      </c>
-      <c r="G188" s="3">
-        <v>10000132</v>
-      </c>
-      <c r="H188" s="3">
-        <v>1</v>
-      </c>
-      <c r="I188" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J188" s="10">
-        <v>3</v>
-      </c>
-      <c r="K188" s="2"/>
-      <c r="L188" s="2"/>
-    </row>
+    <row r="186" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="189" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="190" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="191" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="192" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="193" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Unity/Assets/Config/Excel/StoreSellConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StoreSellConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2D0AED-199B-415A-A022-A45E13C63490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315C100C-0AAD-4BAA-9A03-C64A050CDBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
   <si>
     <t>Id</t>
   </si>
@@ -310,28 +310,10 @@
     <t>图纸:传承史诗支配之弓</t>
   </si>
   <si>
-    <t>赛季晶核</t>
-  </si>
-  <si>
-    <t>金条</t>
-  </si>
-  <si>
     <t>封印之塔挑战凭证</t>
   </si>
   <si>
     <t>装备洗炼石</t>
-  </si>
-  <si>
-    <t>传承图纸碎片</t>
-  </si>
-  <si>
-    <t>初级赛季果实</t>
-  </si>
-  <si>
-    <t>中级赛季果实</t>
-  </si>
-  <si>
-    <t>高级赛季果实</t>
   </si>
   <si>
     <t>超级宠之晶</t>
@@ -458,7 +440,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,6 +567,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14856410412915433"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -1648,9 +1636,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1661,6 +1646,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2306,10 +2294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P193"/>
+  <dimension ref="A1:P188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="B145" workbookViewId="0">
+      <selection activeCell="N157" sqref="N157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2423,7 +2411,7 @@
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="17" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -2453,7 +2441,7 @@
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="17" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="3"/>
@@ -2689,7 +2677,7 @@
       <c r="I16" s="2">
         <v>1</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2715,7 +2703,7 @@
       <c r="I17" s="2">
         <v>1</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2952,7 +2940,7 @@
       <c r="I26" s="2">
         <v>1</v>
       </c>
-      <c r="J26" s="18" t="s">
+      <c r="J26" s="17" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="2" t="s">
@@ -2981,7 +2969,7 @@
       <c r="I27" s="2">
         <v>1</v>
       </c>
-      <c r="J27" s="18" t="s">
+      <c r="J27" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3215,7 +3203,7 @@
       <c r="I36" s="2">
         <v>1</v>
       </c>
-      <c r="J36" s="18" t="s">
+      <c r="J36" s="17" t="s">
         <v>17</v>
       </c>
       <c r="L36" s="2" t="s">
@@ -3244,7 +3232,7 @@
       <c r="I37" s="2">
         <v>1</v>
       </c>
-      <c r="J37" s="18" t="s">
+      <c r="J37" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3478,7 +3466,7 @@
       <c r="I46" s="2">
         <v>1</v>
       </c>
-      <c r="J46" s="18" t="s">
+      <c r="J46" s="17" t="s">
         <v>17</v>
       </c>
       <c r="L46" s="2" t="s">
@@ -3507,7 +3495,7 @@
       <c r="I47" s="2">
         <v>1</v>
       </c>
-      <c r="J47" s="18" t="s">
+      <c r="J47" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5164,7 +5152,7 @@
       <c r="J110" s="3">
         <v>30</v>
       </c>
-      <c r="L110" s="15" t="s">
+      <c r="L110" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5193,7 +5181,7 @@
       <c r="J111" s="3">
         <v>30</v>
       </c>
-      <c r="L111" s="15" t="s">
+      <c r="L111" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5222,7 +5210,7 @@
       <c r="J112" s="3">
         <v>10</v>
       </c>
-      <c r="L112" s="16" t="s">
+      <c r="L112" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5251,7 +5239,7 @@
       <c r="J113" s="3">
         <v>25</v>
       </c>
-      <c r="L113" s="16" t="s">
+      <c r="L113" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5280,7 +5268,7 @@
       <c r="J114" s="3">
         <v>25</v>
       </c>
-      <c r="L114" s="16" t="s">
+      <c r="L114" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5309,7 +5297,7 @@
       <c r="J115" s="3">
         <v>10</v>
       </c>
-      <c r="L115" s="16" t="s">
+      <c r="L115" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5338,7 +5326,7 @@
       <c r="J116" s="3">
         <v>100</v>
       </c>
-      <c r="L116" s="16" t="s">
+      <c r="L116" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5367,7 +5355,7 @@
       <c r="J117" s="3">
         <v>10</v>
       </c>
-      <c r="L117" s="16" t="s">
+      <c r="L117" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5396,7 +5384,7 @@
       <c r="J118" s="3">
         <v>1</v>
       </c>
-      <c r="L118" s="16" t="s">
+      <c r="L118" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5425,7 +5413,7 @@
       <c r="J119" s="3">
         <v>1</v>
       </c>
-      <c r="L119" s="16" t="s">
+      <c r="L119" s="15" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5454,7 +5442,7 @@
       <c r="J120" s="3">
         <v>3</v>
       </c>
-      <c r="L120" s="16" t="s">
+      <c r="L120" s="15" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5512,7 +5500,7 @@
       <c r="J122" s="3">
         <v>5</v>
       </c>
-      <c r="L122" s="17" t="s">
+      <c r="L122" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5542,7 +5530,7 @@
         <v>20</v>
       </c>
       <c r="L123" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5571,7 +5559,7 @@
         <v>30</v>
       </c>
       <c r="L124" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5602,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="K125" s="3"/>
-      <c r="L125" s="16" t="s">
+      <c r="L125" s="15" t="s">
         <v>42</v>
       </c>
       <c r="M125" s="3"/>
@@ -6451,14 +6439,12 @@
         <v>1</v>
       </c>
       <c r="I154" s="8">
-        <v>10000159</v>
+        <v>1000036</v>
       </c>
       <c r="J154" s="8">
         <v>30</v>
       </c>
-      <c r="L154" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="L154" s="12"/>
     </row>
     <row r="155" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C155" s="3">
@@ -6473,21 +6459,19 @@
       <c r="F155" s="3">
         <v>100</v>
       </c>
-      <c r="G155" s="9">
-        <v>10000162</v>
+      <c r="G155" s="18">
+        <v>1000018</v>
       </c>
       <c r="H155" s="3">
         <v>1</v>
       </c>
       <c r="I155" s="8">
-        <v>10000159</v>
+        <v>1000036</v>
       </c>
       <c r="J155" s="8">
-        <v>20</v>
-      </c>
-      <c r="L155" s="11" t="s">
-        <v>72</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L155" s="11"/>
     </row>
     <row r="156" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C156" s="3">
@@ -6509,14 +6493,12 @@
         <v>1</v>
       </c>
       <c r="I156" s="8">
-        <v>10000159</v>
+        <v>1000036</v>
       </c>
       <c r="J156" s="8">
         <v>30</v>
       </c>
-      <c r="L156" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="L156" s="11"/>
     </row>
     <row r="157" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C157" s="3">
@@ -6531,21 +6513,19 @@
       <c r="F157" s="3">
         <v>100</v>
       </c>
-      <c r="G157" s="9">
-        <v>10000158</v>
+      <c r="G157" s="18">
+        <v>1000019</v>
       </c>
       <c r="H157" s="3">
         <v>1</v>
       </c>
       <c r="I157" s="8">
-        <v>10000159</v>
+        <v>1000036</v>
       </c>
       <c r="J157" s="8">
         <v>20</v>
       </c>
-      <c r="L157" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="L157" s="9"/>
     </row>
     <row r="158" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C158" s="3">
@@ -6567,14 +6547,12 @@
         <v>1</v>
       </c>
       <c r="I158" s="8">
-        <v>10000159</v>
+        <v>1000036</v>
       </c>
       <c r="J158" s="8">
-        <v>2</v>
-      </c>
-      <c r="L158" s="17" t="s">
-        <v>75</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L158" s="16"/>
     </row>
     <row r="159" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C159" s="3">
@@ -6589,21 +6567,19 @@
       <c r="F159" s="3">
         <v>100</v>
       </c>
-      <c r="G159" s="9">
-        <v>10000143</v>
+      <c r="G159" s="18">
+        <v>1000022</v>
       </c>
       <c r="H159" s="3">
         <v>1</v>
       </c>
       <c r="I159" s="8">
-        <v>10000159</v>
+        <v>1000036</v>
       </c>
       <c r="J159" s="8">
         <v>5</v>
       </c>
-      <c r="L159" s="17" t="s">
-        <v>42</v>
-      </c>
+      <c r="L159" s="16"/>
     </row>
     <row r="160" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C160" s="3">
@@ -6618,28 +6594,26 @@
       <c r="F160" s="3">
         <v>100</v>
       </c>
-      <c r="G160" s="9">
-        <v>10000152</v>
+      <c r="G160" s="18">
+        <v>1000025</v>
       </c>
       <c r="H160" s="3">
         <v>1</v>
       </c>
       <c r="I160" s="8">
-        <v>10000159</v>
+        <v>1000036</v>
       </c>
       <c r="J160" s="8">
         <v>10</v>
       </c>
-      <c r="L160" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="L160" s="11"/>
     </row>
     <row r="161" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C161" s="3">
         <v>70000008</v>
       </c>
       <c r="D161" s="3">
-        <v>70000009</v>
+        <v>0</v>
       </c>
       <c r="E161" s="3">
         <v>1</v>
@@ -6647,28 +6621,26 @@
       <c r="F161" s="3">
         <v>100</v>
       </c>
-      <c r="G161" s="9">
-        <v>10000157</v>
+      <c r="G161" s="18">
+        <v>1000029</v>
       </c>
       <c r="H161" s="3">
         <v>1</v>
       </c>
       <c r="I161" s="8">
-        <v>10000159</v>
+        <v>1000036</v>
       </c>
       <c r="J161" s="8">
         <v>10</v>
       </c>
-      <c r="L161" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="162" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L161" s="11"/>
+    </row>
+    <row r="162" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C162" s="3">
-        <v>70000009</v>
+        <v>80000001</v>
       </c>
       <c r="D162" s="3">
-        <v>70000010</v>
+        <v>80000002</v>
       </c>
       <c r="E162" s="3">
         <v>1</v>
@@ -6677,27 +6649,27 @@
         <v>100</v>
       </c>
       <c r="G162" s="9">
-        <v>1030029</v>
+        <v>1030083</v>
       </c>
       <c r="H162" s="3">
         <v>1</v>
       </c>
       <c r="I162" s="8">
-        <v>10000159</v>
+        <v>10000163</v>
       </c>
       <c r="J162" s="8">
-        <v>5</v>
-      </c>
-      <c r="L162" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="163" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="163" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="3">
-        <v>70000010</v>
+        <v>80000002</v>
       </c>
       <c r="D163" s="3">
-        <v>70000011</v>
+        <v>80000003</v>
       </c>
       <c r="E163" s="3">
         <v>1</v>
@@ -6712,21 +6684,21 @@
         <v>1</v>
       </c>
       <c r="I163" s="8">
-        <v>10000159</v>
+        <v>10000163</v>
       </c>
       <c r="J163" s="8">
-        <v>10</v>
-      </c>
-      <c r="L163" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L163" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C164" s="3">
-        <v>70000011</v>
+        <v>80000003</v>
       </c>
       <c r="D164" s="3">
-        <v>70000012</v>
+        <v>80000004</v>
       </c>
       <c r="E164" s="3">
         <v>1</v>
@@ -6734,28 +6706,28 @@
       <c r="F164" s="3">
         <v>100</v>
       </c>
-      <c r="G164" s="14">
-        <v>10010101</v>
+      <c r="G164" s="9">
+        <v>1030096</v>
       </c>
       <c r="H164" s="3">
         <v>1</v>
       </c>
       <c r="I164" s="8">
-        <v>10000159</v>
+        <v>10000163</v>
       </c>
       <c r="J164" s="8">
-        <v>5</v>
-      </c>
-      <c r="L164" s="8" t="s">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="165" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C165" s="3">
-        <v>70000012</v>
+        <v>80000004</v>
       </c>
       <c r="D165" s="3">
-        <v>70000013</v>
+        <v>80000005</v>
       </c>
       <c r="E165" s="3">
         <v>1</v>
@@ -6763,28 +6735,28 @@
       <c r="F165" s="3">
         <v>100</v>
       </c>
-      <c r="G165" s="14">
-        <v>10010102</v>
+      <c r="G165" s="9">
+        <v>10000139</v>
       </c>
       <c r="H165" s="3">
         <v>1</v>
       </c>
       <c r="I165" s="8">
-        <v>10000159</v>
+        <v>10000163</v>
       </c>
       <c r="J165" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C166" s="3">
-        <v>70000013</v>
+        <v>80000005</v>
       </c>
       <c r="D166" s="3">
-        <v>0</v>
+        <v>80000006</v>
       </c>
       <c r="E166" s="3">
         <v>1</v>
@@ -6792,28 +6764,28 @@
       <c r="F166" s="3">
         <v>100</v>
       </c>
-      <c r="G166" s="14">
-        <v>10010103</v>
+      <c r="G166" s="9">
+        <v>10000143</v>
       </c>
       <c r="H166" s="3">
         <v>1</v>
       </c>
       <c r="I166" s="8">
-        <v>10000159</v>
+        <v>10000163</v>
       </c>
       <c r="J166" s="8">
         <v>20</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="167" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C167" s="3">
-        <v>80000001</v>
+        <v>80000006</v>
       </c>
       <c r="D167" s="3">
-        <v>80000002</v>
+        <v>80000007</v>
       </c>
       <c r="E167" s="3">
         <v>1</v>
@@ -6822,7 +6794,7 @@
         <v>100</v>
       </c>
       <c r="G167" s="9">
-        <v>1030083</v>
+        <v>10000152</v>
       </c>
       <c r="H167" s="3">
         <v>1</v>
@@ -6831,18 +6803,18 @@
         <v>10000163</v>
       </c>
       <c r="J167" s="8">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="168" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="168" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C168" s="3">
-        <v>80000002</v>
+        <v>80000007</v>
       </c>
       <c r="D168" s="3">
-        <v>80000003</v>
+        <v>80000008</v>
       </c>
       <c r="E168" s="3">
         <v>1</v>
@@ -6851,7 +6823,7 @@
         <v>100</v>
       </c>
       <c r="G168" s="9">
-        <v>1030086</v>
+        <v>10000155</v>
       </c>
       <c r="H168" s="3">
         <v>1</v>
@@ -6860,18 +6832,18 @@
         <v>10000163</v>
       </c>
       <c r="J168" s="8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="169" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="169" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C169" s="3">
-        <v>80000003</v>
+        <v>80000008</v>
       </c>
       <c r="D169" s="3">
-        <v>80000004</v>
+        <v>80000009</v>
       </c>
       <c r="E169" s="3">
         <v>1</v>
@@ -6880,7 +6852,7 @@
         <v>100</v>
       </c>
       <c r="G169" s="9">
-        <v>1030096</v>
+        <v>10000158</v>
       </c>
       <c r="H169" s="3">
         <v>1</v>
@@ -6889,18 +6861,18 @@
         <v>10000163</v>
       </c>
       <c r="J169" s="8">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="170" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C170" s="3">
-        <v>80000004</v>
+        <v>80000009</v>
       </c>
       <c r="D170" s="3">
-        <v>80000005</v>
+        <v>0</v>
       </c>
       <c r="E170" s="3">
         <v>1</v>
@@ -6909,7 +6881,7 @@
         <v>100</v>
       </c>
       <c r="G170" s="9">
-        <v>10000139</v>
+        <v>1030093</v>
       </c>
       <c r="H170" s="3">
         <v>1</v>
@@ -6918,163 +6890,160 @@
         <v>10000163</v>
       </c>
       <c r="J170" s="8">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="171" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="3">
-        <v>80000005</v>
+        <v>90000001</v>
       </c>
       <c r="D171" s="3">
-        <v>80000006</v>
-      </c>
-      <c r="E171" s="3">
+        <v>30000002</v>
+      </c>
+      <c r="E171" s="2">
         <v>1</v>
       </c>
       <c r="F171" s="3">
         <v>100</v>
       </c>
-      <c r="G171" s="9">
-        <v>10000143</v>
+      <c r="G171" s="3">
+        <v>10000144</v>
       </c>
       <c r="H171" s="3">
         <v>1</v>
       </c>
-      <c r="I171" s="8">
-        <v>10000163</v>
+      <c r="I171" s="9">
+        <v>10000148</v>
       </c>
       <c r="J171" s="8">
-        <v>20</v>
-      </c>
-      <c r="L171" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="K171" s="2"/>
+      <c r="L171" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="172" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C172" s="3">
-        <v>80000006</v>
+        <v>90000002</v>
       </c>
       <c r="D172" s="3">
-        <v>80000007</v>
-      </c>
-      <c r="E172" s="3">
+        <v>30000003</v>
+      </c>
+      <c r="E172" s="2">
         <v>1</v>
       </c>
       <c r="F172" s="3">
         <v>100</v>
       </c>
-      <c r="G172" s="9">
-        <v>10000152</v>
+      <c r="G172" s="3">
+        <v>10000145</v>
       </c>
       <c r="H172" s="3">
         <v>1</v>
       </c>
-      <c r="I172" s="8">
-        <v>10000163</v>
+      <c r="I172" s="9">
+        <v>10000148</v>
       </c>
       <c r="J172" s="8">
-        <v>35</v>
-      </c>
-      <c r="L172" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
     </row>
     <row r="173" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C173" s="3">
-        <v>80000007</v>
+        <v>90000003</v>
       </c>
       <c r="D173" s="3">
-        <v>80000008</v>
-      </c>
-      <c r="E173" s="3">
+        <v>30000004</v>
+      </c>
+      <c r="E173" s="2">
         <v>1</v>
       </c>
       <c r="F173" s="3">
         <v>100</v>
       </c>
-      <c r="G173" s="9">
-        <v>10000155</v>
+      <c r="G173" s="3">
+        <v>10000146</v>
       </c>
       <c r="H173" s="3">
         <v>1</v>
       </c>
-      <c r="I173" s="8">
-        <v>10000163</v>
+      <c r="I173" s="9">
+        <v>10000148</v>
       </c>
       <c r="J173" s="8">
-        <v>5</v>
-      </c>
-      <c r="L173" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
     </row>
     <row r="174" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C174" s="3">
-        <v>80000008</v>
+        <v>90000004</v>
       </c>
       <c r="D174" s="3">
-        <v>80000009</v>
-      </c>
-      <c r="E174" s="3">
+        <v>30000005</v>
+      </c>
+      <c r="E174" s="2">
         <v>1</v>
       </c>
       <c r="F174" s="3">
         <v>100</v>
       </c>
-      <c r="G174" s="9">
-        <v>10000158</v>
+      <c r="G174" s="3">
+        <v>10000147</v>
       </c>
       <c r="H174" s="3">
         <v>1</v>
       </c>
-      <c r="I174" s="8">
-        <v>10000163</v>
+      <c r="I174" s="9">
+        <v>10000148</v>
       </c>
       <c r="J174" s="8">
-        <v>20</v>
-      </c>
-      <c r="L174" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
     </row>
     <row r="175" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C175" s="3">
-        <v>80000009</v>
+        <v>90000005</v>
       </c>
       <c r="D175" s="3">
-        <v>0</v>
-      </c>
-      <c r="E175" s="3">
+        <v>30000006</v>
+      </c>
+      <c r="E175" s="2">
         <v>1</v>
       </c>
       <c r="F175" s="3">
         <v>100</v>
       </c>
-      <c r="G175" s="9">
-        <v>1030093</v>
+      <c r="G175" s="3">
+        <v>1030033</v>
       </c>
       <c r="H175" s="3">
         <v>1</v>
       </c>
-      <c r="I175" s="8">
-        <v>10000163</v>
-      </c>
-      <c r="J175" s="8">
-        <v>35</v>
-      </c>
-      <c r="L175" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="I175" s="9">
+        <v>10000148</v>
+      </c>
+      <c r="J175" s="10">
+        <v>50</v>
+      </c>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
     </row>
     <row r="176" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C176" s="3">
-        <v>90000001</v>
+        <v>90000006</v>
       </c>
       <c r="D176" s="3">
-        <v>30000002</v>
+        <v>30000007</v>
       </c>
       <c r="E176" s="2">
         <v>1</v>
@@ -7083,7 +7052,7 @@
         <v>100</v>
       </c>
       <c r="G176" s="3">
-        <v>10000144</v>
+        <v>1030083</v>
       </c>
       <c r="H176" s="3">
         <v>1</v>
@@ -7091,20 +7060,18 @@
       <c r="I176" s="9">
         <v>10000148</v>
       </c>
-      <c r="J176" s="8">
-        <v>10</v>
+      <c r="J176" s="10">
+        <v>5</v>
       </c>
       <c r="K176" s="2"/>
-      <c r="L176" s="7" t="s">
-        <v>83</v>
-      </c>
+      <c r="L176" s="2"/>
     </row>
     <row r="177" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C177" s="3">
-        <v>90000002</v>
+        <v>90000007</v>
       </c>
       <c r="D177" s="3">
-        <v>30000003</v>
+        <v>30000008</v>
       </c>
       <c r="E177" s="2">
         <v>1</v>
@@ -7113,7 +7080,7 @@
         <v>100</v>
       </c>
       <c r="G177" s="3">
-        <v>10000145</v>
+        <v>1030098</v>
       </c>
       <c r="H177" s="3">
         <v>1</v>
@@ -7121,18 +7088,18 @@
       <c r="I177" s="9">
         <v>10000148</v>
       </c>
-      <c r="J177" s="8">
-        <v>10</v>
+      <c r="J177" s="10">
+        <v>5</v>
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
     </row>
     <row r="178" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C178" s="3">
-        <v>90000003</v>
+        <v>90000008</v>
       </c>
       <c r="D178" s="3">
-        <v>30000004</v>
+        <v>30000009</v>
       </c>
       <c r="E178" s="2">
         <v>1</v>
@@ -7141,7 +7108,7 @@
         <v>100</v>
       </c>
       <c r="G178" s="3">
-        <v>10000146</v>
+        <v>1030085</v>
       </c>
       <c r="H178" s="3">
         <v>1</v>
@@ -7149,18 +7116,18 @@
       <c r="I178" s="9">
         <v>10000148</v>
       </c>
-      <c r="J178" s="8">
-        <v>10</v>
+      <c r="J178" s="10">
+        <v>2</v>
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
     </row>
     <row r="179" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C179" s="3">
-        <v>90000004</v>
+        <v>90000009</v>
       </c>
       <c r="D179" s="3">
-        <v>30000005</v>
+        <v>30000010</v>
       </c>
       <c r="E179" s="2">
         <v>1</v>
@@ -7169,7 +7136,7 @@
         <v>100</v>
       </c>
       <c r="G179" s="3">
-        <v>10000147</v>
+        <v>10000131</v>
       </c>
       <c r="H179" s="3">
         <v>1</v>
@@ -7177,18 +7144,18 @@
       <c r="I179" s="9">
         <v>10000148</v>
       </c>
-      <c r="J179" s="8">
-        <v>10</v>
+      <c r="J179" s="10">
+        <v>3</v>
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
     </row>
     <row r="180" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C180" s="3">
-        <v>90000005</v>
+        <v>90000010</v>
       </c>
       <c r="D180" s="3">
-        <v>30000006</v>
+        <v>0</v>
       </c>
       <c r="E180" s="2">
         <v>1</v>
@@ -7197,7 +7164,7 @@
         <v>100</v>
       </c>
       <c r="G180" s="3">
-        <v>1030033</v>
+        <v>10000132</v>
       </c>
       <c r="H180" s="3">
         <v>1</v>
@@ -7206,159 +7173,19 @@
         <v>10000148</v>
       </c>
       <c r="J180" s="10">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
     </row>
-    <row r="181" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C181" s="3">
-        <v>90000006</v>
-      </c>
-      <c r="D181" s="3">
-        <v>30000007</v>
-      </c>
-      <c r="E181" s="2">
-        <v>1</v>
-      </c>
-      <c r="F181" s="3">
-        <v>100</v>
-      </c>
-      <c r="G181" s="3">
-        <v>1030083</v>
-      </c>
-      <c r="H181" s="3">
-        <v>1</v>
-      </c>
-      <c r="I181" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J181" s="10">
-        <v>5</v>
-      </c>
-      <c r="K181" s="2"/>
-      <c r="L181" s="2"/>
-    </row>
-    <row r="182" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C182" s="3">
-        <v>90000007</v>
-      </c>
-      <c r="D182" s="3">
-        <v>30000008</v>
-      </c>
-      <c r="E182" s="2">
-        <v>1</v>
-      </c>
-      <c r="F182" s="3">
-        <v>100</v>
-      </c>
-      <c r="G182" s="3">
-        <v>1030098</v>
-      </c>
-      <c r="H182" s="3">
-        <v>1</v>
-      </c>
-      <c r="I182" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J182" s="10">
-        <v>5</v>
-      </c>
-      <c r="K182" s="2"/>
-      <c r="L182" s="2"/>
-    </row>
-    <row r="183" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C183" s="3">
-        <v>90000008</v>
-      </c>
-      <c r="D183" s="3">
-        <v>30000009</v>
-      </c>
-      <c r="E183" s="2">
-        <v>1</v>
-      </c>
-      <c r="F183" s="3">
-        <v>100</v>
-      </c>
-      <c r="G183" s="3">
-        <v>1030085</v>
-      </c>
-      <c r="H183" s="3">
-        <v>1</v>
-      </c>
-      <c r="I183" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J183" s="10">
-        <v>2</v>
-      </c>
-      <c r="K183" s="2"/>
-      <c r="L183" s="2"/>
-    </row>
-    <row r="184" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C184" s="3">
-        <v>90000009</v>
-      </c>
-      <c r="D184" s="3">
-        <v>30000010</v>
-      </c>
-      <c r="E184" s="2">
-        <v>1</v>
-      </c>
-      <c r="F184" s="3">
-        <v>100</v>
-      </c>
-      <c r="G184" s="3">
-        <v>10000131</v>
-      </c>
-      <c r="H184" s="3">
-        <v>1</v>
-      </c>
-      <c r="I184" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J184" s="10">
-        <v>3</v>
-      </c>
-      <c r="K184" s="2"/>
-      <c r="L184" s="2"/>
-    </row>
-    <row r="185" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C185" s="3">
-        <v>90000010</v>
-      </c>
-      <c r="D185" s="3">
-        <v>0</v>
-      </c>
-      <c r="E185" s="2">
-        <v>1</v>
-      </c>
-      <c r="F185" s="3">
-        <v>100</v>
-      </c>
-      <c r="G185" s="3">
-        <v>10000132</v>
-      </c>
-      <c r="H185" s="3">
-        <v>1</v>
-      </c>
-      <c r="I185" s="9">
-        <v>10000148</v>
-      </c>
-      <c r="J185" s="10">
-        <v>3</v>
-      </c>
-      <c r="K185" s="2"/>
-      <c r="L185" s="2"/>
-    </row>
+    <row r="181" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="186" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="187" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="188" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/StoreSellConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StoreSellConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315C100C-0AAD-4BAA-9A03-C64A050CDBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9CF76B-EBD3-4661-A1A0-E266103FBDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2297,7 +2297,7 @@
   <dimension ref="A1:P188"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B145" workbookViewId="0">
-      <selection activeCell="N157" sqref="N157"/>
+      <selection activeCell="J159" sqref="J159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6433,7 +6433,7 @@
         <v>100</v>
       </c>
       <c r="G154" s="9">
-        <v>1030093</v>
+        <v>1000014</v>
       </c>
       <c r="H154" s="3">
         <v>1</v>
@@ -6486,8 +6486,8 @@
       <c r="F156" s="3">
         <v>100</v>
       </c>
-      <c r="G156" s="9">
-        <v>1030045</v>
+      <c r="G156" s="18">
+        <v>1000020</v>
       </c>
       <c r="H156" s="3">
         <v>1</v>
@@ -6540,8 +6540,8 @@
       <c r="F158" s="3">
         <v>100</v>
       </c>
-      <c r="G158" s="9">
-        <v>1030083</v>
+      <c r="G158" s="18">
+        <v>1000010</v>
       </c>
       <c r="H158" s="3">
         <v>1</v>
@@ -6550,7 +6550,7 @@
         <v>1000036</v>
       </c>
       <c r="J158" s="8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L158" s="16"/>
     </row>
